--- a/form-files/IMNCI/breakdowns.xlsx
+++ b/form-files/IMNCI/breakdowns.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="693" count="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="692" count="1083">
   <si>
     <t>comments</t>
   </si>
@@ -1317,9 +1317,6 @@
   </si>
   <si>
     <t>दिन मैं कितनी बार?</t>
-  </si>
-  <si>
-    <t>number</t>
   </si>
   <si>
     <t>serving_size</t>
@@ -5126,31 +5123,31 @@
     <row r="233">
       <c s="12" r="A233"/>
       <c t="s" r="B233">
-        <v>425</v>
+        <v>24</v>
       </c>
       <c t="s" r="C233">
         <v>422</v>
       </c>
       <c t="s" r="D233">
+        <v>425</v>
+      </c>
+      <c t="s" r="F233">
         <v>426</v>
       </c>
-      <c t="s" r="F233">
+      <c t="s" r="G233">
         <v>427</v>
-      </c>
-      <c t="s" r="G233">
-        <v>428</v>
       </c>
     </row>
     <row r="234">
       <c s="12" r="A234"/>
       <c t="s" r="B234">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c t="s" r="C234">
         <v>422</v>
       </c>
       <c t="s" r="D234">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="235">
@@ -5162,33 +5159,33 @@
         <v>422</v>
       </c>
       <c t="s" r="D235">
+        <v>430</v>
+      </c>
+      <c t="s" r="F235">
         <v>431</v>
       </c>
-      <c t="s" r="F235">
+      <c t="s" r="G235">
         <v>432</v>
-      </c>
-      <c t="s" r="G235">
-        <v>433</v>
       </c>
     </row>
     <row r="236">
       <c t="s" s="12" r="A236">
+        <v>433</v>
+      </c>
+      <c t="s" r="B236">
         <v>434</v>
-      </c>
-      <c t="s" r="B236">
-        <v>435</v>
       </c>
       <c t="s" r="C236">
         <v>422</v>
       </c>
       <c t="s" r="D236">
+        <v>435</v>
+      </c>
+      <c t="s" r="F236">
         <v>436</v>
       </c>
-      <c t="s" r="F236">
+      <c t="s" r="G236">
         <v>437</v>
-      </c>
-      <c t="s" r="G236">
-        <v>438</v>
       </c>
     </row>
     <row r="237">
@@ -5209,33 +5206,33 @@
         <v>90</v>
       </c>
       <c t="s" r="D239">
+        <v>438</v>
+      </c>
+      <c t="s" r="F239">
         <v>439</v>
       </c>
-      <c t="s" r="F239">
+      <c t="s" r="G239">
         <v>440</v>
-      </c>
-      <c t="s" r="G239">
-        <v>441</v>
       </c>
     </row>
     <row r="240">
       <c t="s" s="12" r="A240">
+        <v>441</v>
+      </c>
+      <c t="s" r="B240">
+        <v>434</v>
+      </c>
+      <c t="s" r="C240">
         <v>442</v>
       </c>
-      <c t="s" r="B240">
-        <v>435</v>
-      </c>
-      <c t="s" r="C240">
+      <c t="s" r="D240">
         <v>443</v>
       </c>
-      <c t="s" r="D240">
+      <c t="s" r="F240">
         <v>444</v>
       </c>
-      <c t="s" r="F240">
+      <c t="s" r="G240">
         <v>445</v>
-      </c>
-      <c t="s" r="G240">
-        <v>446</v>
       </c>
     </row>
     <row r="241">
@@ -5247,7 +5244,7 @@
     <row r="242">
       <c s="12" r="A242"/>
       <c t="s" r="B242">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c t="s" r="C242">
         <v>359</v>
@@ -5256,31 +5253,31 @@
     <row r="243">
       <c s="12" r="A243"/>
       <c t="s" r="B243">
+        <v>447</v>
+      </c>
+      <c t="s" r="C243">
         <v>448</v>
-      </c>
-      <c t="s" r="C243">
-        <v>449</v>
       </c>
     </row>
     <row r="244">
       <c s="12" r="A244"/>
       <c t="s" r="B244">
+        <v>449</v>
+      </c>
+      <c t="s" r="C244">
         <v>450</v>
-      </c>
-      <c t="s" r="C244">
-        <v>451</v>
       </c>
     </row>
     <row r="245">
       <c s="12" r="A245"/>
       <c t="s" r="B245">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="246">
       <c s="12" r="A246"/>
       <c t="s" s="8" r="B246">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247">
@@ -5295,10 +5292,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F248">
+        <v>453</v>
+      </c>
+      <c t="s" r="G248">
         <v>454</v>
-      </c>
-      <c t="s" r="G248">
-        <v>455</v>
       </c>
     </row>
     <row r="249">
@@ -5307,13 +5304,13 @@
         <v>30</v>
       </c>
       <c t="s" r="C249">
+        <v>455</v>
+      </c>
+      <c t="s" r="F249">
         <v>456</v>
       </c>
-      <c t="s" r="F249">
+      <c t="s" r="G249">
         <v>457</v>
-      </c>
-      <c t="s" r="G249">
-        <v>458</v>
       </c>
     </row>
     <row r="250">
@@ -5322,13 +5319,13 @@
         <v>30</v>
       </c>
       <c t="s" r="C250">
+        <v>458</v>
+      </c>
+      <c t="s" r="F250">
         <v>459</v>
       </c>
-      <c t="s" r="F250">
+      <c t="s" r="G250">
         <v>460</v>
-      </c>
-      <c t="s" r="G250">
-        <v>461</v>
       </c>
     </row>
     <row r="251">
@@ -5337,13 +5334,13 @@
         <v>30</v>
       </c>
       <c t="s" r="C251">
+        <v>461</v>
+      </c>
+      <c t="s" r="F251">
         <v>462</v>
       </c>
-      <c t="s" r="F251">
+      <c t="s" r="G251">
         <v>463</v>
-      </c>
-      <c t="s" r="G251">
-        <v>464</v>
       </c>
     </row>
     <row r="252">
@@ -5364,10 +5361,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F254">
+        <v>464</v>
+      </c>
+      <c t="s" r="G254">
         <v>465</v>
-      </c>
-      <c t="s" r="G254">
-        <v>466</v>
       </c>
     </row>
     <row r="255">
@@ -5376,7 +5373,7 @@
         <v>30</v>
       </c>
       <c t="s" r="F255">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c s="9" r="G255"/>
     </row>
@@ -5386,13 +5383,13 @@
         <v>30</v>
       </c>
       <c t="s" r="C256">
+        <v>467</v>
+      </c>
+      <c t="s" r="F256">
         <v>468</v>
       </c>
-      <c t="s" r="F256">
-        <v>469</v>
-      </c>
       <c t="s" r="G256">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="257">
@@ -5401,13 +5398,13 @@
         <v>30</v>
       </c>
       <c t="s" r="C257">
+        <v>469</v>
+      </c>
+      <c t="s" r="F257">
         <v>470</v>
       </c>
-      <c t="s" r="F257">
-        <v>471</v>
-      </c>
       <c t="s" r="G257">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="258">
@@ -5422,33 +5419,33 @@
         <v>30</v>
       </c>
       <c t="s" r="F259">
+        <v>471</v>
+      </c>
+      <c t="s" r="G259">
         <v>472</v>
       </c>
-      <c t="s" r="G259">
+      <c t="s" r="H259">
         <v>473</v>
       </c>
-      <c t="s" r="H259">
+      <c t="s" r="I259">
         <v>474</v>
-      </c>
-      <c t="s" r="I259">
-        <v>475</v>
       </c>
     </row>
     <row r="260">
       <c s="12" r="A260"/>
       <c t="s" r="B260">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261">
       <c s="12" r="A261"/>
       <c t="s" s="8" r="B261">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="262">
       <c t="s" s="12" r="A262">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c t="s" r="B262">
         <v>29</v>
@@ -5463,10 +5460,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F263">
+        <v>453</v>
+      </c>
+      <c t="s" r="G263">
         <v>454</v>
-      </c>
-      <c t="s" r="G263">
-        <v>455</v>
       </c>
     </row>
     <row r="264">
@@ -5477,7 +5474,7 @@
     </row>
     <row r="265">
       <c t="s" s="12" r="A265">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c t="s" r="B265">
         <v>29</v>
@@ -5492,10 +5489,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F266">
+        <v>464</v>
+      </c>
+      <c t="s" r="G266">
         <v>465</v>
-      </c>
-      <c t="s" r="G266">
-        <v>466</v>
       </c>
     </row>
     <row r="267">
@@ -5516,10 +5513,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F269">
+        <v>478</v>
+      </c>
+      <c t="s" r="G269">
         <v>479</v>
-      </c>
-      <c t="s" r="G269">
-        <v>480</v>
       </c>
     </row>
     <row r="270">
@@ -5528,10 +5525,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F270">
+        <v>480</v>
+      </c>
+      <c t="s" r="G270">
         <v>481</v>
-      </c>
-      <c t="s" r="G270">
-        <v>482</v>
       </c>
     </row>
     <row r="271">
@@ -5540,16 +5537,16 @@
         <v>30</v>
       </c>
       <c t="s" r="F271">
+        <v>482</v>
+      </c>
+      <c t="s" s="9" r="G271">
         <v>483</v>
       </c>
-      <c t="s" s="9" r="G271">
+      <c t="s" r="H271">
         <v>484</v>
       </c>
-      <c t="s" r="H271">
+      <c t="s" s="9" r="I271">
         <v>485</v>
-      </c>
-      <c t="s" s="9" r="I271">
-        <v>486</v>
       </c>
     </row>
     <row r="272">
@@ -5558,10 +5555,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F272">
+        <v>486</v>
+      </c>
+      <c t="s" r="G272">
         <v>487</v>
-      </c>
-      <c t="s" r="G272">
-        <v>488</v>
       </c>
     </row>
     <row r="273">
@@ -5570,10 +5567,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F273">
+        <v>488</v>
+      </c>
+      <c t="s" r="G273">
         <v>489</v>
-      </c>
-      <c t="s" r="G273">
-        <v>490</v>
       </c>
     </row>
     <row r="274">
@@ -5582,10 +5579,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F274">
+        <v>490</v>
+      </c>
+      <c t="s" r="G274">
         <v>491</v>
-      </c>
-      <c t="s" r="G274">
-        <v>492</v>
       </c>
     </row>
     <row r="275">
@@ -5594,10 +5591,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F275">
+        <v>492</v>
+      </c>
+      <c t="s" r="G275">
         <v>493</v>
-      </c>
-      <c t="s" r="G275">
-        <v>494</v>
       </c>
     </row>
     <row r="276">
@@ -5612,33 +5609,33 @@
         <v>30</v>
       </c>
       <c t="s" r="F277">
+        <v>471</v>
+      </c>
+      <c t="s" r="G277">
         <v>472</v>
       </c>
-      <c t="s" r="G277">
-        <v>473</v>
-      </c>
       <c t="s" r="H277">
+        <v>494</v>
+      </c>
+      <c t="s" r="I277">
         <v>495</v>
-      </c>
-      <c t="s" r="I277">
-        <v>496</v>
       </c>
     </row>
     <row r="278">
       <c s="12" r="A278"/>
       <c t="s" r="B278">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="279">
       <c s="12" r="A279"/>
       <c t="s" s="8" r="B279">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="280">
       <c t="s" s="12" r="A280">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c t="s" r="B280">
         <v>29</v>
@@ -5650,10 +5647,10 @@
     <row r="281">
       <c s="12" r="A281"/>
       <c t="s" r="F281">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c t="s" r="G281">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="282">
@@ -5664,7 +5661,7 @@
     </row>
     <row r="283">
       <c t="s" s="12" r="A283">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c t="s" r="B283">
         <v>29</v>
@@ -5676,10 +5673,10 @@
     <row r="284">
       <c s="12" r="A284"/>
       <c t="s" r="F284">
+        <v>464</v>
+      </c>
+      <c t="s" r="G284">
         <v>465</v>
-      </c>
-      <c t="s" r="G284">
-        <v>466</v>
       </c>
     </row>
     <row r="285">
@@ -5700,10 +5697,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F287">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c t="s" r="G287">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="288">
@@ -5712,10 +5709,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F288">
+        <v>480</v>
+      </c>
+      <c t="s" r="G288">
         <v>481</v>
-      </c>
-      <c t="s" r="G288">
-        <v>482</v>
       </c>
     </row>
     <row r="289">
@@ -5724,10 +5721,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F289">
+        <v>499</v>
+      </c>
+      <c t="s" r="G289">
         <v>500</v>
-      </c>
-      <c t="s" r="G289">
-        <v>501</v>
       </c>
     </row>
     <row r="290">
@@ -5736,16 +5733,16 @@
         <v>30</v>
       </c>
       <c t="s" r="F290">
+        <v>501</v>
+      </c>
+      <c t="s" r="G290">
+        <v>483</v>
+      </c>
+      <c t="s" r="H290">
         <v>502</v>
       </c>
-      <c t="s" r="G290">
-        <v>484</v>
-      </c>
-      <c t="s" r="H290">
+      <c t="s" r="I290">
         <v>503</v>
-      </c>
-      <c t="s" r="I290">
-        <v>504</v>
       </c>
     </row>
     <row r="291">
@@ -5754,10 +5751,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F291">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c t="s" r="G291">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="292">
@@ -5766,10 +5763,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F292">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c t="s" r="G292">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="293">
@@ -5778,10 +5775,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F293">
+        <v>490</v>
+      </c>
+      <c t="s" r="G293">
         <v>491</v>
-      </c>
-      <c t="s" r="G293">
-        <v>492</v>
       </c>
     </row>
     <row r="294">
@@ -5790,10 +5787,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F294">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c t="s" r="G294">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="295">
@@ -5802,16 +5799,16 @@
         <v>30</v>
       </c>
       <c t="s" r="F295">
+        <v>471</v>
+      </c>
+      <c t="s" r="G295">
         <v>472</v>
       </c>
-      <c t="s" r="G295">
-        <v>473</v>
-      </c>
       <c t="s" r="H295">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c t="s" r="I295">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="296">
@@ -5823,13 +5820,13 @@
     <row r="297">
       <c s="12" r="A297"/>
       <c t="s" r="B297">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="298">
       <c s="12" r="A298"/>
       <c t="s" s="8" r="B298">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="299">
@@ -5844,24 +5841,24 @@
         <v>30</v>
       </c>
       <c t="s" r="F300">
+        <v>453</v>
+      </c>
+      <c t="s" r="G300">
         <v>454</v>
-      </c>
-      <c t="s" r="G300">
-        <v>455</v>
       </c>
     </row>
     <row r="301">
       <c t="s" s="12" r="A301">
+        <v>507</v>
+      </c>
+      <c t="s" r="B301">
+        <v>30</v>
+      </c>
+      <c t="s" r="C301">
         <v>508</v>
       </c>
-      <c t="s" r="B301">
-        <v>30</v>
-      </c>
-      <c t="s" r="C301">
+      <c t="s" r="F301">
         <v>509</v>
-      </c>
-      <c t="s" r="F301">
-        <v>510</v>
       </c>
       <c s="9" r="G301"/>
     </row>
@@ -5883,10 +5880,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F304">
+        <v>464</v>
+      </c>
+      <c t="s" r="G304">
         <v>465</v>
-      </c>
-      <c t="s" r="G304">
-        <v>466</v>
       </c>
     </row>
     <row r="305">
@@ -5895,7 +5892,7 @@
         <v>30</v>
       </c>
       <c t="s" r="F305">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c s="9" r="G305"/>
     </row>
@@ -5905,10 +5902,10 @@
         <v>30</v>
       </c>
       <c t="s" r="C306">
+        <v>510</v>
+      </c>
+      <c t="s" r="F306">
         <v>511</v>
-      </c>
-      <c t="s" r="F306">
-        <v>512</v>
       </c>
       <c s="9" r="G306"/>
     </row>
@@ -5930,10 +5927,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F309">
+        <v>478</v>
+      </c>
+      <c t="s" r="G309">
         <v>479</v>
-      </c>
-      <c t="s" r="G309">
-        <v>480</v>
       </c>
     </row>
     <row r="310">
@@ -5942,10 +5939,10 @@
         <v>30</v>
       </c>
       <c t="s" r="F310">
+        <v>512</v>
+      </c>
+      <c t="s" r="G310">
         <v>513</v>
-      </c>
-      <c t="s" r="G310">
-        <v>514</v>
       </c>
     </row>
     <row r="311">
@@ -5954,16 +5951,16 @@
         <v>30</v>
       </c>
       <c t="s" r="F311">
+        <v>471</v>
+      </c>
+      <c t="s" r="G311">
         <v>472</v>
       </c>
-      <c t="s" r="G311">
-        <v>473</v>
-      </c>
       <c t="s" r="H311">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c t="s" r="I311">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="312">
@@ -5975,7 +5972,7 @@
     <row r="313">
       <c s="12" r="A313"/>
       <c t="s" s="9" r="B313">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="314">
@@ -6001,47 +5998,47 @@
         <v>3</v>
       </c>
       <c t="s" r="B1">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
+        <v>517</v>
+      </c>
+      <c t="s" r="B2">
         <v>518</v>
-      </c>
-      <c t="s" r="B2">
-        <v>519</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
+        <v>519</v>
+      </c>
+      <c t="s" r="B3">
         <v>520</v>
-      </c>
-      <c t="s" r="B3">
-        <v>521</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
+        <v>521</v>
+      </c>
+      <c t="s" r="B4">
         <v>522</v>
-      </c>
-      <c t="s" r="B4">
-        <v>523</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
+        <v>523</v>
+      </c>
+      <c t="s" r="B5">
         <v>524</v>
-      </c>
-      <c t="s" r="B5">
-        <v>525</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
+        <v>525</v>
+      </c>
+      <c t="s" r="B6">
         <v>526</v>
-      </c>
-      <c t="s" r="B6">
-        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -6057,7 +6054,7 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c t="s" s="2" r="B1">
         <v>3</v>
@@ -6069,35 +6066,35 @@
         <v>6</v>
       </c>
       <c t="s" r="E1">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
+        <v>529</v>
+      </c>
+      <c t="s" s="2" r="B2">
         <v>530</v>
       </c>
-      <c t="s" s="2" r="B2">
+      <c t="s" s="2" r="C2">
         <v>531</v>
       </c>
-      <c t="s" s="2" r="C2">
+      <c t="s" r="D2">
         <v>532</v>
-      </c>
-      <c t="s" r="D2">
-        <v>533</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c t="s" s="2" r="B3">
+        <v>533</v>
+      </c>
+      <c t="s" s="2" r="C3">
         <v>534</v>
       </c>
-      <c t="s" s="2" r="C3">
+      <c t="s" r="D3">
         <v>535</v>
-      </c>
-      <c t="s" r="D3">
-        <v>536</v>
       </c>
     </row>
     <row r="4">
@@ -6107,30 +6104,30 @@
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
+        <v>536</v>
+      </c>
+      <c t="s" s="2" r="B5">
+        <v>536</v>
+      </c>
+      <c t="s" s="2" r="C5">
         <v>537</v>
       </c>
-      <c t="s" s="2" r="B5">
-        <v>537</v>
-      </c>
-      <c t="s" s="2" r="C5">
+      <c t="s" r="D5">
         <v>538</v>
-      </c>
-      <c t="s" r="D5">
-        <v>539</v>
       </c>
     </row>
     <row r="6">
       <c t="s" s="2" r="A6">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c t="s" s="2" r="B6">
+        <v>539</v>
+      </c>
+      <c t="s" s="2" r="C6">
         <v>540</v>
       </c>
-      <c t="s" s="2" r="C6">
+      <c t="s" r="D6">
         <v>541</v>
-      </c>
-      <c t="s" r="D6">
-        <v>542</v>
       </c>
     </row>
     <row r="7">
@@ -6140,30 +6137,30 @@
     </row>
     <row r="8">
       <c t="s" s="2" r="A8">
+        <v>542</v>
+      </c>
+      <c t="s" s="2" r="B8">
+        <v>542</v>
+      </c>
+      <c t="s" s="2" r="C8">
         <v>543</v>
       </c>
-      <c t="s" s="2" r="B8">
-        <v>543</v>
-      </c>
-      <c t="s" s="2" r="C8">
+      <c t="s" r="D8">
         <v>544</v>
-      </c>
-      <c t="s" r="D8">
-        <v>545</v>
       </c>
     </row>
     <row r="9">
       <c t="s" s="2" r="A9">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c t="s" s="2" r="B9">
+        <v>545</v>
+      </c>
+      <c t="s" s="2" r="C9">
         <v>546</v>
       </c>
-      <c t="s" s="2" r="C9">
+      <c t="s" r="D9">
         <v>547</v>
-      </c>
-      <c t="s" r="D9">
-        <v>548</v>
       </c>
     </row>
     <row r="10">
@@ -6173,30 +6170,30 @@
     </row>
     <row r="11">
       <c t="s" s="2" r="A11">
+        <v>548</v>
+      </c>
+      <c t="s" s="2" r="B11">
         <v>549</v>
       </c>
-      <c t="s" s="2" r="B11">
+      <c t="s" s="2" r="C11">
         <v>550</v>
       </c>
-      <c t="s" s="2" r="C11">
+      <c t="s" r="D11">
         <v>551</v>
-      </c>
-      <c t="s" r="D11">
-        <v>552</v>
       </c>
     </row>
     <row r="12">
       <c t="s" s="2" r="A12">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c t="s" s="2" r="B12">
+        <v>552</v>
+      </c>
+      <c t="s" s="2" r="C12">
         <v>553</v>
       </c>
-      <c t="s" s="2" r="C12">
+      <c t="s" r="D12">
         <v>554</v>
-      </c>
-      <c t="s" r="D12">
-        <v>555</v>
       </c>
     </row>
     <row r="13">
@@ -6210,86 +6207,86 @@
     </row>
     <row r="15">
       <c t="s" s="2" r="A15">
+        <v>555</v>
+      </c>
+      <c t="s" s="2" r="B15">
         <v>556</v>
       </c>
-      <c t="s" s="2" r="B15">
+      <c t="s" r="C15">
         <v>557</v>
       </c>
-      <c t="s" r="C15">
+      <c t="s" r="D15">
         <v>558</v>
-      </c>
-      <c t="s" r="D15">
-        <v>559</v>
       </c>
     </row>
     <row r="16">
       <c t="s" s="2" r="A16">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c t="s" s="2" r="B16">
+        <v>559</v>
+      </c>
+      <c t="s" r="C16">
         <v>560</v>
       </c>
-      <c t="s" r="C16">
+      <c t="s" r="D16">
         <v>561</v>
-      </c>
-      <c t="s" r="D16">
-        <v>562</v>
       </c>
     </row>
     <row r="17">
       <c t="s" s="2" r="A17">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c t="s" r="B17">
+        <v>562</v>
+      </c>
+      <c t="s" r="C17">
         <v>563</v>
       </c>
-      <c t="s" r="C17">
+      <c t="s" r="D17">
         <v>564</v>
-      </c>
-      <c t="s" r="D17">
-        <v>565</v>
       </c>
     </row>
     <row r="20">
       <c t="s" r="A20">
+        <v>565</v>
+      </c>
+      <c t="s" r="B20">
         <v>566</v>
       </c>
-      <c t="s" r="B20">
+      <c t="s" r="C20">
         <v>567</v>
       </c>
-      <c t="s" r="C20">
+      <c t="s" r="D20">
         <v>568</v>
-      </c>
-      <c t="s" r="D20">
-        <v>569</v>
       </c>
     </row>
     <row r="21">
       <c t="s" r="A21">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c t="s" r="B21">
+        <v>569</v>
+      </c>
+      <c t="s" r="C21">
         <v>570</v>
       </c>
-      <c t="s" r="C21">
+      <c t="s" r="D21">
         <v>571</v>
-      </c>
-      <c t="s" r="D21">
-        <v>572</v>
       </c>
     </row>
     <row r="22">
       <c t="s" r="A22">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c t="s" r="B22">
+        <v>572</v>
+      </c>
+      <c t="s" r="C22">
         <v>573</v>
       </c>
-      <c t="s" r="C22">
+      <c t="s" r="D22">
         <v>574</v>
-      </c>
-      <c t="s" r="D22">
-        <v>575</v>
       </c>
     </row>
     <row r="24">
@@ -6299,58 +6296,58 @@
     </row>
     <row r="25">
       <c t="s" s="2" r="A25">
+        <v>575</v>
+      </c>
+      <c t="s" s="2" r="B25">
+        <v>566</v>
+      </c>
+      <c t="s" s="2" r="C25">
         <v>576</v>
       </c>
-      <c t="s" s="2" r="B25">
-        <v>567</v>
-      </c>
-      <c t="s" s="2" r="C25">
+      <c t="s" r="D25">
         <v>577</v>
-      </c>
-      <c t="s" r="D25">
-        <v>578</v>
       </c>
     </row>
     <row r="26">
       <c t="s" s="2" r="A26">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c t="s" r="B26">
+        <v>578</v>
+      </c>
+      <c t="s" r="C26">
         <v>579</v>
       </c>
-      <c t="s" r="C26">
+      <c t="s" r="D26">
         <v>580</v>
-      </c>
-      <c t="s" r="D26">
-        <v>581</v>
       </c>
     </row>
     <row r="27">
       <c t="s" s="2" r="A27">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c t="s" r="B27">
+        <v>581</v>
+      </c>
+      <c t="s" r="C27">
         <v>582</v>
       </c>
-      <c t="s" r="C27">
+      <c t="s" r="D27">
         <v>583</v>
-      </c>
-      <c t="s" r="D27">
-        <v>584</v>
       </c>
     </row>
     <row r="30">
       <c t="s" r="A30">
+        <v>584</v>
+      </c>
+      <c t="s" r="B30">
         <v>585</v>
       </c>
-      <c t="s" r="B30">
+      <c t="s" s="3" r="C30">
         <v>586</v>
       </c>
-      <c t="s" s="3" r="C30">
+      <c t="s" r="D30">
         <v>587</v>
-      </c>
-      <c t="s" r="D30">
-        <v>588</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6358,16 +6355,16 @@
     </row>
     <row r="31">
       <c t="s" r="A31">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c t="s" r="B31">
+        <v>588</v>
+      </c>
+      <c t="s" s="3" r="C31">
         <v>589</v>
       </c>
-      <c t="s" s="3" r="C31">
+      <c t="s" r="D31">
         <v>590</v>
-      </c>
-      <c t="s" r="D31">
-        <v>591</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6375,16 +6372,16 @@
     </row>
     <row r="32">
       <c t="s" r="A32">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c t="s" r="B32">
+        <v>591</v>
+      </c>
+      <c t="s" s="3" r="C32">
         <v>592</v>
       </c>
-      <c t="s" s="3" r="C32">
+      <c t="s" r="D32">
         <v>593</v>
-      </c>
-      <c t="s" r="D32">
-        <v>594</v>
       </c>
       <c r="E32">
         <v>1.5</v>
@@ -6392,16 +6389,16 @@
     </row>
     <row r="33">
       <c t="s" r="A33">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c t="s" r="B33">
+        <v>594</v>
+      </c>
+      <c t="s" s="3" r="C33">
         <v>595</v>
       </c>
-      <c t="s" s="3" r="C33">
+      <c t="s" r="D33">
         <v>596</v>
-      </c>
-      <c t="s" r="D33">
-        <v>597</v>
       </c>
       <c r="E33">
         <v>1.5</v>
@@ -6409,366 +6406,366 @@
     </row>
     <row r="35">
       <c t="s" r="A35">
+        <v>597</v>
+      </c>
+      <c t="s" r="B35">
         <v>598</v>
       </c>
-      <c t="s" r="B35">
+      <c t="s" r="C35">
         <v>599</v>
       </c>
-      <c t="s" r="C35">
+      <c t="s" r="D35">
         <v>600</v>
-      </c>
-      <c t="s" r="D35">
-        <v>601</v>
       </c>
     </row>
     <row r="36">
       <c t="s" r="A36">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c t="s" r="B36">
+        <v>601</v>
+      </c>
+      <c t="s" r="C36">
         <v>602</v>
       </c>
-      <c t="s" r="C36">
+      <c t="s" r="D36">
         <v>603</v>
-      </c>
-      <c t="s" r="D36">
-        <v>604</v>
       </c>
     </row>
     <row r="37">
       <c t="s" r="A37">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c t="s" r="B37">
+        <v>604</v>
+      </c>
+      <c t="s" r="C37">
         <v>605</v>
       </c>
-      <c t="s" r="C37">
+      <c t="s" r="D37">
         <v>606</v>
-      </c>
-      <c t="s" r="D37">
-        <v>607</v>
       </c>
     </row>
     <row r="38">
       <c t="s" r="A38">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c t="s" s="2" r="B38">
+        <v>607</v>
+      </c>
+      <c t="s" s="2" r="C38">
         <v>608</v>
       </c>
-      <c t="s" s="2" r="C38">
+      <c t="s" r="D38">
         <v>609</v>
-      </c>
-      <c t="s" r="D38">
-        <v>610</v>
       </c>
     </row>
     <row r="39">
       <c t="s" r="A39">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c t="s" r="B39">
+        <v>610</v>
+      </c>
+      <c t="s" s="2" r="C39">
         <v>611</v>
       </c>
-      <c t="s" s="2" r="C39">
+      <c t="s" r="D39">
         <v>612</v>
-      </c>
-      <c t="s" r="D39">
-        <v>613</v>
       </c>
     </row>
     <row r="40">
       <c t="s" r="A40">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c t="s" r="B40">
+        <v>613</v>
+      </c>
+      <c t="s" r="C40">
         <v>614</v>
       </c>
-      <c t="s" r="C40">
+      <c t="s" r="D40">
         <v>615</v>
-      </c>
-      <c t="s" r="D40">
-        <v>616</v>
       </c>
     </row>
     <row r="41">
       <c t="s" r="A41">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c t="s" r="B41">
+        <v>616</v>
+      </c>
+      <c t="s" r="C41">
         <v>617</v>
       </c>
-      <c t="s" r="C41">
+      <c t="s" r="D41">
         <v>618</v>
-      </c>
-      <c t="s" r="D41">
-        <v>619</v>
       </c>
     </row>
     <row r="42">
       <c t="s" r="A42">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c t="s" r="B42">
+        <v>619</v>
+      </c>
+      <c t="s" r="C42">
         <v>620</v>
       </c>
-      <c t="s" r="C42">
+      <c t="s" r="D42">
         <v>621</v>
-      </c>
-      <c t="s" r="D42">
-        <v>622</v>
       </c>
     </row>
     <row r="43">
       <c t="s" r="A43">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c t="s" r="B43">
+        <v>622</v>
+      </c>
+      <c t="s" r="C43">
         <v>623</v>
       </c>
-      <c t="s" r="C43">
+      <c t="s" r="D43">
         <v>624</v>
-      </c>
-      <c t="s" r="D43">
-        <v>625</v>
       </c>
     </row>
     <row r="44">
       <c t="s" r="A44">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c t="s" r="B44">
+        <v>625</v>
+      </c>
+      <c t="s" r="C44">
         <v>626</v>
       </c>
-      <c t="s" r="C44">
+      <c t="s" r="D44">
         <v>627</v>
-      </c>
-      <c t="s" r="D44">
-        <v>628</v>
       </c>
     </row>
     <row r="45">
       <c t="s" r="A45">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c t="s" r="B45">
+        <v>628</v>
+      </c>
+      <c t="s" r="C45">
         <v>629</v>
       </c>
-      <c t="s" r="C45">
+      <c t="s" r="D45">
         <v>630</v>
-      </c>
-      <c t="s" r="D45">
-        <v>631</v>
       </c>
     </row>
     <row r="48">
       <c t="s" r="A48">
+        <v>631</v>
+      </c>
+      <c t="s" r="B48">
         <v>632</v>
       </c>
-      <c t="s" r="B48">
+      <c t="s" r="C48">
         <v>633</v>
       </c>
-      <c t="s" r="C48">
+      <c t="s" r="D48">
         <v>634</v>
-      </c>
-      <c t="s" r="D48">
-        <v>635</v>
       </c>
     </row>
     <row r="49">
       <c t="s" r="A49">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c t="s" r="B49">
+        <v>635</v>
+      </c>
+      <c t="s" r="C49">
         <v>636</v>
       </c>
-      <c t="s" r="C49">
+      <c t="s" r="D49">
         <v>637</v>
-      </c>
-      <c t="s" r="D49">
-        <v>638</v>
       </c>
     </row>
     <row r="50">
       <c t="s" r="A50">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c t="s" r="B50">
+        <v>638</v>
+      </c>
+      <c t="s" r="C50">
         <v>639</v>
       </c>
-      <c t="s" r="C50">
+      <c t="s" r="D50">
         <v>640</v>
-      </c>
-      <c t="s" r="D50">
-        <v>641</v>
       </c>
     </row>
     <row r="51">
       <c t="s" r="A51">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c t="s" r="B51">
+        <v>641</v>
+      </c>
+      <c t="s" r="C51">
         <v>642</v>
       </c>
-      <c t="s" r="C51">
+      <c t="s" r="D51">
         <v>643</v>
-      </c>
-      <c t="s" r="D51">
-        <v>644</v>
       </c>
     </row>
     <row r="54">
       <c t="s" r="A54">
+        <v>644</v>
+      </c>
+      <c t="s" r="B54">
         <v>645</v>
       </c>
-      <c t="s" r="B54">
+      <c t="s" r="C54">
         <v>646</v>
       </c>
-      <c t="s" r="C54">
+      <c t="s" r="D54">
         <v>647</v>
-      </c>
-      <c t="s" r="D54">
-        <v>648</v>
       </c>
     </row>
     <row r="55">
       <c t="s" r="A55">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c t="s" r="B55">
+        <v>648</v>
+      </c>
+      <c t="s" r="C55">
         <v>649</v>
       </c>
-      <c t="s" r="C55">
+      <c t="s" r="D55">
         <v>650</v>
-      </c>
-      <c t="s" r="D55">
-        <v>651</v>
       </c>
     </row>
     <row r="58">
       <c t="s" r="A58">
+        <v>651</v>
+      </c>
+      <c t="s" r="B58">
         <v>652</v>
       </c>
-      <c t="s" r="B58">
+      <c t="s" r="C58">
         <v>653</v>
       </c>
-      <c t="s" r="C58">
+      <c t="s" r="D58">
         <v>654</v>
-      </c>
-      <c t="s" r="D58">
-        <v>655</v>
       </c>
     </row>
     <row r="59">
       <c t="s" r="A59">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c t="s" r="B59">
+        <v>655</v>
+      </c>
+      <c t="s" r="C59">
         <v>656</v>
       </c>
-      <c t="s" r="C59">
-        <v>657</v>
-      </c>
       <c t="s" r="D59">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60">
       <c t="s" r="A60">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c t="s" r="B60">
+        <v>657</v>
+      </c>
+      <c t="s" r="C60">
         <v>658</v>
       </c>
-      <c t="s" r="C60">
+      <c t="s" r="D60">
         <v>659</v>
-      </c>
-      <c t="s" r="D60">
-        <v>660</v>
       </c>
     </row>
     <row r="61">
       <c t="s" r="A61">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c t="s" r="B61">
+        <v>660</v>
+      </c>
+      <c t="s" r="C61">
         <v>661</v>
       </c>
-      <c t="s" r="C61">
+      <c t="s" r="D61">
         <v>662</v>
-      </c>
-      <c t="s" r="D61">
-        <v>663</v>
       </c>
     </row>
     <row r="63">
       <c t="s" r="A63">
+        <v>663</v>
+      </c>
+      <c t="s" r="B63">
+        <v>566</v>
+      </c>
+      <c t="s" r="C63">
+        <v>566</v>
+      </c>
+      <c t="s" r="D63">
         <v>664</v>
-      </c>
-      <c t="s" r="B63">
-        <v>567</v>
-      </c>
-      <c t="s" r="C63">
-        <v>567</v>
-      </c>
-      <c t="s" r="D63">
-        <v>665</v>
       </c>
     </row>
     <row r="64">
       <c t="s" r="A64">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c t="s" r="B64">
+        <v>665</v>
+      </c>
+      <c t="s" r="C64">
+        <v>665</v>
+      </c>
+      <c t="s" r="D64">
         <v>666</v>
-      </c>
-      <c t="s" r="C64">
-        <v>666</v>
-      </c>
-      <c t="s" r="D64">
-        <v>667</v>
       </c>
     </row>
     <row r="65">
       <c t="s" r="A65">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c t="s" r="B65">
+        <v>667</v>
+      </c>
+      <c t="s" r="C65">
+        <v>667</v>
+      </c>
+      <c t="s" r="D65">
         <v>668</v>
-      </c>
-      <c t="s" r="C65">
-        <v>668</v>
-      </c>
-      <c t="s" r="D65">
-        <v>669</v>
       </c>
     </row>
     <row r="67">
       <c t="s" r="A67">
+        <v>669</v>
+      </c>
+      <c t="s" r="B67">
         <v>670</v>
       </c>
-      <c t="s" r="B67">
+      <c t="s" r="C67">
         <v>671</v>
       </c>
-      <c t="s" r="C67">
+      <c t="s" r="D67">
         <v>672</v>
-      </c>
-      <c t="s" r="D67">
-        <v>673</v>
       </c>
     </row>
     <row r="68">
       <c t="s" r="A68">
+        <v>673</v>
+      </c>
+      <c t="s" r="B68">
         <v>674</v>
       </c>
-      <c t="s" r="B68">
+      <c t="s" r="C68">
         <v>675</v>
       </c>
-      <c t="s" r="C68">
+      <c t="s" r="D68">
         <v>676</v>
-      </c>
-      <c t="s" r="D68">
-        <v>677</v>
       </c>
     </row>
     <row r="70">
@@ -6776,13 +6773,13 @@
         <v>100</v>
       </c>
       <c t="s" r="B70">
+        <v>677</v>
+      </c>
+      <c t="s" r="C70">
         <v>678</v>
       </c>
-      <c t="s" r="C70">
+      <c t="s" r="D70">
         <v>679</v>
-      </c>
-      <c t="s" r="D70">
-        <v>680</v>
       </c>
     </row>
     <row r="71">
@@ -6790,13 +6787,13 @@
         <v>100</v>
       </c>
       <c t="s" r="B71">
+        <v>680</v>
+      </c>
+      <c t="s" r="C71">
         <v>681</v>
       </c>
-      <c t="s" r="C71">
+      <c t="s" r="D71">
         <v>682</v>
-      </c>
-      <c t="s" r="D71">
-        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -6812,29 +6809,29 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
+        <v>683</v>
+      </c>
+      <c t="s" s="2" r="B1">
         <v>684</v>
       </c>
-      <c t="s" s="2" r="B1">
+      <c t="s" s="2" r="C1">
         <v>685</v>
-      </c>
-      <c t="s" s="2" r="C1">
-        <v>686</v>
       </c>
       <c s="2" r="D1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
+        <v>686</v>
+      </c>
+      <c t="s" s="2" r="B2">
         <v>687</v>
-      </c>
-      <c t="s" s="2" r="B2">
-        <v>688</v>
       </c>
       <c s="2" r="C2"/>
       <c s="2" r="D2"/>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6843,13 +6840,13 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
+        <v>689</v>
+      </c>
+      <c t="s" r="B4">
         <v>690</v>
       </c>
-      <c t="s" r="B4">
+      <c t="s" r="C4">
         <v>691</v>
-      </c>
-      <c t="s" r="C4">
-        <v>692</v>
       </c>
     </row>
     <row r="6">

--- a/form-files/IMNCI/breakdowns.xlsx
+++ b/form-files/IMNCI/breakdowns.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="516" yWindow="480" windowWidth="14076" windowHeight="7884" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="calculates" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="choices" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="settings" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="calculates" sheetId="2" r:id="rId2"/>
+    <sheet name="choices" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="710" count="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="710">
   <si>
     <t>comments</t>
   </si>
@@ -79,7 +82,7 @@
     <t>If the exact date is unknown use an approximate date.</t>
   </si>
   <si>
-    <t>अगर ठीक तारीक़ याद नही तो लगभग आस-पास की तारीक़ डालें. </t>
+    <t>अगर ठीक तारीक़ याद नही तो लगभग आस-पास की तारीक़ डालें.</t>
   </si>
   <si>
     <t>new Date(this.getValue()) &lt;= now()</t>
@@ -100,7 +103,7 @@
     <t>Weight in kilograms:</t>
   </si>
   <si>
-    <t>वज़न </t>
+    <t>वज़न</t>
   </si>
   <si>
     <t>Young infant breakdowns</t>
@@ -133,7 +136,7 @@
     <t>Determine the appropriate drugs and dosage for the child's age or weight.</t>
   </si>
   <si>
-    <t>बच्चे को वज़न ओर उम्र के हिसाब से द्वा दे </t>
+    <t>बच्चे को वज़न ओर उम्र के हिसाब से द्वा दे</t>
   </si>
   <si>
     <t>Infer the reason and display it?</t>
@@ -142,19 +145,19 @@
     <t>Tell the mother the reason for giving the drug to the child.</t>
   </si>
   <si>
-    <t>मा को द्वा देने का कारण बताएँ </t>
+    <t>मा को द्वा देने का कारण बताएँ</t>
   </si>
   <si>
     <t>Demonstrate how to measure a dose.</t>
   </si>
   <si>
-    <t>दवाई देना सिखाए </t>
+    <t>दवाई देना सिखाए</t>
   </si>
   <si>
     <t>Watch the mother practice measuring a dose by herself.</t>
   </si>
   <si>
-    <t>मा को द्वा देते हुए देखें </t>
+    <t>मा को द्वा देते हुए देखें</t>
   </si>
   <si>
     <t>Ask the mother to give the first dose to her child.</t>
@@ -172,7 +175,7 @@
     <t>Explain carefully how to give the drug, then label and package the drug.</t>
   </si>
   <si>
-    <t>द्वा ध्यान से देना सिखायें और ठीक से लेबल करके, बाँध के दें. </t>
+    <t>द्वा ध्यान से देना सिखायें और ठीक से लेबल करके, बाँध के दें.</t>
   </si>
   <si>
     <t>TODO: Infer</t>
@@ -181,7 +184,7 @@
     <t>If more than one drug will be given, collect, count and package each drug separately.</t>
   </si>
   <si>
-    <t>अगर एक से ज़्यादा द्वा सेनि है तो हर एक द्वा को अलग-अलग बांधें. </t>
+    <t>अगर एक से ज़्यादा द्वा सेनि है तो हर एक द्वा को अलग-अलग बांधें.</t>
   </si>
   <si>
     <t>grammatical issue.</t>
@@ -190,7 +193,7 @@
     <t>Explain that all the oral drug tablets or syrups must be used to finish the course of treatment, even if the child gets better.</t>
   </si>
   <si>
-    <t>समझाए: मूह से लेने वाली सारे द्वा की खुराक ख़तम करें </t>
+    <t>समझाए: मूह से लेने वाली सारे द्वा की खुराक ख़तम करें</t>
   </si>
   <si>
     <t>Page 37 of IMNCI booklet goes into more detail on how to do this.</t>
@@ -199,7 +202,7 @@
     <t>Check the mother's understanding before she leaves.</t>
   </si>
   <si>
-    <t>मा को सब ठीक से समझाए </t>
+    <t>मा को सब ठीक से समझाए</t>
   </si>
   <si>
     <t>label teach_keep_infant_warm</t>
@@ -214,7 +217,7 @@
     <t>Provide Skin to Skin contact (Kangaroo mother care) as much as possible, day and night.</t>
   </si>
   <si>
-    <t>दिन और रात, त्वचा से त्वचा लगा के रखें. </t>
+    <t>दिन और रात, त्वचा से त्वचा लगा के रखें.</t>
   </si>
   <si>
     <t>&lt;li&gt;Provide privacy to the mother.&lt;/li&gt;</t>
@@ -319,55 +322,55 @@
     <t>Show the mother how to hold her infant.</t>
   </si>
   <si>
-    <t>मा को शिशु को पकड़ना सिखाए </t>
+    <t>मा को शिशु को पकड़ना सिखाए</t>
   </si>
   <si>
     <t>with the infant's head and body straight.</t>
   </si>
   <si>
-    <t>शिशु का सर एवं शरिईर सीधा रखे. </t>
+    <t>शिशु का सर एवं शरिईर सीधा रखे.</t>
   </si>
   <si>
     <t>facing her breast, with the infant's nose opposite her nipple</t>
   </si>
   <si>
-    <t>शिशु का चेहरा स्तन की और हो तथा शिशु की नाक चुचक के सामने हो. </t>
+    <t>शिशु का चेहरा स्तन की और हो तथा शिशु की नाक चुचक के सामने हो.</t>
   </si>
   <si>
     <t>with the infant's body close to her body.</t>
   </si>
   <si>
-    <t>शिशु का शरीर मा के श्रोर के बिल्कुल निकट हो. </t>
+    <t>शिशु का शरीर मा के श्रोर के बिल्कुल निकट हो.</t>
   </si>
   <si>
     <t>supporting infant's whole body, not just neck and shoulders.</t>
   </si>
   <si>
-    <t>शिशु के संपूर्ण शरीर को मा शरा दें न की सिर्फ़ गले व कंधा को ही. </t>
+    <t>शिशु के संपूर्ण शरीर को मा शरा दें न की सिर्फ़ गले व कंधा को ही.</t>
   </si>
   <si>
     <t>Show her how to help the infant to attach. She should:</t>
   </si>
   <si>
-    <t>मा को शिशु को लगाव करना सिखाए </t>
+    <t>मा को शिशु को लगाव करना सिखाए</t>
   </si>
   <si>
     <t>touch her infant's lips with her nipple</t>
   </si>
   <si>
-    <t>शिशु के होठों को चुचक से चुआना चाहिए. </t>
+    <t>शिशु के होठों को चुचक से चुआना चाहिए.</t>
   </si>
   <si>
     <t>wait until her infant's mouth is opening wide</t>
   </si>
   <si>
-    <t>शिशु को पूरी तरह मूँह खोलने का इंतेज़ार करना छाईए, </t>
+    <t>शिशु को पूरी तरह मूँह खोलने का इंतेज़ार करना छाईए,</t>
   </si>
   <si>
     <t>move her infant quickly onto her breast, aiming the infant's lower lip well below the nipple.</t>
   </si>
   <si>
-    <t>मूँह खुलते ही शिशु को तुरंत रतान से लगाना चाहिए ताकि उसका निचला होंठ चुचक के नीचे आ जाए. </t>
+    <t>मूँह खुलते ही शिशु को तुरंत रतान से लगाना चाहिए ताकि उसका निचला होंठ चुचक के नीचे आ जाए.</t>
   </si>
   <si>
     <t>TODO: use the breastfeeding assessment questions above?</t>
@@ -376,25 +379,25 @@
     <t>Look for signs of good attachment and effective suckling. If the attachment or suckling is not good try again.</t>
   </si>
   <si>
-    <t>अच्छे लगाव के चिन्ह देखें, अगर नही तो फिर कोशिश करें. </t>
+    <t>अच्छे लगाव के चिन्ह देखें, अगर नही तो फिर कोशिश करें.</t>
   </si>
   <si>
     <t>If still not suckling effectively, ask the mother to express breast milk and feed with a cup and spoon in the clinic.</t>
   </si>
   <si>
-    <t>अगर स्तनपान ना हो तो मा से बोले कटोरी और चमच से दूध पिलाए. </t>
+    <t>अगर स्तनपान ना हो तो मा से बोले कटोरी और चमच से दूध पिलाए.</t>
   </si>
   <si>
     <t>If able to take with a cup and spoon advise mother to keep breastfeeding the young infant and at the end of each feed express breast milk and feed with a cup and spoon.</t>
   </si>
   <si>
-    <t>यदि कटोरी और चम्मच के साथ शिशु खा रहा है, मा को सलाह दें की स्तनपान जारी रखें, और स्तनपान के अंत मैं दूध को कटोरी और चम्मच से खिलायें.  </t>
+    <t>यदि कटोरी और चम्मच के साथ शिशु खा रहा है, मा को सलाह दें की स्तनपान जारी रखें, और स्तनपान के अंत मैं दूध को कटोरी और चम्मच से खिलायें.</t>
   </si>
   <si>
     <t>If not able to feed with a cup and spoon, refer to hospital.</t>
   </si>
   <si>
-    <t>अगर न होये तो अस्पताल रेफर करें तुरंत. </t>
+    <t>अगर न होये तो अस्पताल रेफर करें तुरंत.</t>
   </si>
   <si>
     <t>label breast_nipple_problems</t>
@@ -409,7 +412,7 @@
     <t>&lt;h3&gt;Teach mother to treat breast and nipple problems&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>&lt;h3&gt;मा को स्तन और चुचक की दिक्कतो को ठीक करना सिखाए.&lt;/h3&gt; </t>
+    <t>&lt;h3&gt;मा को स्तन और चुचक की दिक्कतो को ठीक करना सिखाए.&lt;/h3&gt;</t>
   </si>
   <si>
     <t>selected(data('breast_problems'), 'sore_nipple')</t>
@@ -418,7 +421,7 @@
     <t>If nipple is sore, apply breast milk for soothing effect and ensure correct positioning and attachment of the baby. If mother continues to have discomfort, feed expressed breast milk with katori and spoon.</t>
   </si>
   <si>
-    <t>अगर चुचक मैं धाव है तो दूध पिलाने से पहले चुचक पर दूध लगाए जिससे वह मुलायम हो जाए और शिशु की सही स्तिती व लगाव सुनिश्चत करें. अगर मा को फिर भी तकलीफ़ रहती है तो वह अपना दूध निकालकर कटोरी व चम्मच से पिलाए. </t>
+    <t>अगर चुचक मैं धाव है तो दूध पिलाने से पहले चुचक पर दूध लगाए जिससे वह मुलायम हो जाए और शिशु की सही स्तिती व लगाव सुनिश्चत करें. अगर मा को फिर भी तकलीफ़ रहती है तो वह अपना दूध निकालकर कटोरी व चम्मच से पिलाए.</t>
   </si>
   <si>
     <t>selected(data('breast_problems'), 'engorged_breasts')</t>
@@ -427,7 +430,7 @@
     <t>If breasts are engorged, let the baby continue to suck if possible. If the baby cannot suckle effectively, help the mother to express milk and then put the young infant to the breast. Putting a warm compress on the breast may help.</t>
   </si>
   <si>
-    <t>अगर स्तन मैं सूजन है, संभव हो तो शिशु को दूध पाइलेट रहें. शिशु प्रभावी रूप से चूस नही सके तो अपना दूध निकालकर फिर से शिशु को स्तन से लगाए. स्तन को गर्म सेक देने से आराम मिल सकता है. </t>
+    <t>अगर स्तन मैं सूजन है, संभव हो तो शिशु को दूध पाइलेट रहें. शिशु प्रभावी रूप से चूस नही सके तो अपना दूध निकालकर फिर से शिशु को स्तन से लगाए. स्तन को गर्म सेक देने से आराम मिल सकता है.</t>
   </si>
   <si>
     <t>selected(data('breast_problems'), 'breast_abscess')</t>
@@ -436,7 +439,7 @@
     <t>If breast abscess, advise the mother to feed from the other breast and refer to a surgeon. If the young infant wants more milk, feed undiluted animal milk with added sugar by cup and spoon.</t>
   </si>
   <si>
-    <t>अगर स्तन हो तो मा को दूसरे स्तन से दूष पिलाने की राय दें व सर्जन के पास भेजें. अगर शिशु को ज़्यादा दूध की ज़रूरत है तो ऊपरी दूध बिना मिले शक्कर मिलकर कटोरी चम्मच से पिलाए. </t>
+    <t>अगर स्तन हो तो मा को दूसरे स्तन से दूष पिलाने की राय दें व सर्जन के पास भेजें. अगर शिशु को ज़्यादा दूध की ज़रूरत है तो ऊपरी दूध बिना मिले शक्कर मिलकर कटोरी चम्मच से पिलाए.</t>
   </si>
   <si>
     <t>This is repeated on page 11 for some reason.</t>
@@ -454,31 +457,31 @@
     <t>Breastfeed frequently, as often and for as long as the infant wants, day or night, during sickness and health. Do not give water, other liquids or food.</t>
   </si>
   <si>
-    <t>स्तनपान बार-बार कराए, दिन और रात कराए, शिशु जितनी बार चाहे, पिलाए. बीमारी मैं भी पिलाए और शिशु स्वस्त हो तब भी पिलाए. पानी अन्य पेय या भोजन नही दें. </t>
+    <t>स्तनपान बार-बार कराए, दिन और रात कराए, शिशु जितनी बार चाहे, पिलाए. बीमारी मैं भी पिलाए और शिशु स्वस्त हो तब भी पिलाए. पानी अन्य पेय या भोजन नही दें.</t>
   </si>
   <si>
     <t>In cool weather, cover the infant's head and feed and dress the infant with extra clothing. Make sure the young infant stays warm at all times.</t>
   </si>
   <si>
-    <t>सर्दी के मौसम मैं शिशु के सिर व पेर को धक कर रखें एवं ज़्यादा कपढ़े पहनाकर रखें. यह सुनिश्चित कर लें की शिशु हमेशा गर्म है. </t>
+    <t>सर्दी के मौसम मैं शिशु के सिर व पेर को धक कर रखें एवं ज़्यादा कपढ़े पहनाकर रखें. यह सुनिश्चित कर लें की शिशु हमेशा गर्म है.</t>
   </si>
   <si>
     <t>Advise mother to wash hands with soap and water after defecation and after cleaning the bottom of the baby.</t>
   </si>
   <si>
-    <t>मा को सलाह दें की वह खुद शोच के बाद और शिशु के शोच को सॉफ करने के बाद अपने हाथ को साबुन पानी से धोए. </t>
+    <t>मा को सलाह दें की वह खुद शोच के बाद और शिशु के शोच को सॉफ करने के बाद अपने हाथ को साबुन पानी से धोए.</t>
   </si>
   <si>
     <t>Do not apply anything on the cord and keep the cord and umbilicus dry.</t>
   </si>
   <si>
-    <t>नाल ब नांभी पर कुछ नही लगाए एवं उनको सूखा रहने दें.  </t>
+    <t>नाल ब नांभी पर कुछ नही लगाए एवं उनको सूखा रहने दें.</t>
   </si>
   <si>
     <t>&lt;strong&gt;Advise the mother to return immediately if the young infant has any of these danger signs:&lt;/strong&gt;</t>
   </si>
   <si>
-    <t>&lt;strong&gt;मा को सलाह दें की शिशु मैं निम्न ख़तरे के लक्षानो के होते तुरंत वापस दिखाने आय.&lt;/strong&gt; </t>
+    <t>&lt;strong&gt;मा को सलाह दें की शिशु मैं निम्न ख़तरे के लक्षानो के होते तुरंत वापस दिखाने आय.&lt;/strong&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;
@@ -512,13 +515,13 @@
     <t>&lt;h3&gt;Plan B: Treat Dehydration with ORS&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>&lt;h3&gt;प्लान ब, निर्जलीकरण का इलाज ओऽअर.एस से करें.&lt;/h3&gt; </t>
+    <t>&lt;h3&gt;प्लान ब, निर्जलीकरण का इलाज ओऽअर.एस से करें.&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Give in clinic recommended amount of ORS over 4-hour period</t>
   </si>
   <si>
-    <t>ओ. आर. एस की मात्रा को निर्धारित कर स्वास्थ्य केन्द्रा मैं ४ घंटे मैं दे. </t>
+    <t>ओ. आर. एस की मात्रा को निर्धारित कर स्वास्थ्य केन्द्रा मैं ४ घंटे मैं दे.</t>
   </si>
   <si>
     <t>&lt;p&gt;Give {{calculates.planBORSAmntMl}} ml of ORS over 4 hour period&lt;/p&gt;
@@ -531,7 +534,7 @@
     <t>If the child wants more ORS than shown, give more.</t>
   </si>
   <si>
-    <t>अगर बच्चा ज़्यादा ओ. आर. एस चाहता है तो ज़्यादा दे. </t>
+    <t>अगर बच्चा ज़्यादा ओ. आर. एस चाहता है तो ज़्यादा दे.</t>
   </si>
   <si>
     <t>calculates.daysOld() &lt; 6 * 30</t>
@@ -540,13 +543,13 @@
     <t>For infants under 6 months who are not breastfed, also give 100-200 ml clean water during this period.</t>
   </si>
   <si>
-    <t>स्तनपान नही करने वाले ६ महीने से कम उम्र के बच्चों को १००-२०० मि.लि सॉफ पानी भी दें. </t>
+    <t>स्तनपान नही करने वाले ६ महीने से कम उम्र के बच्चों को १००-२०० मि.लि सॉफ पानी भी दें.</t>
   </si>
   <si>
     <t>SHOW THE MOTHER HOW TO GIVE ORS SOLUTION</t>
   </si>
   <si>
-    <t>मा को बताए ओ. आर. एस दिया जाता है. </t>
+    <t>मा को बताए ओ. आर. एस दिया जाता है.</t>
   </si>
   <si>
     <t>&lt;li&gt;Give frequent small sips from a cup.&lt;/li&gt;</t>
@@ -600,7 +603,7 @@
     <t>DOES THE MOTHER NEED TO LEAVE BEFORE COMPLETING TREATMENT?</t>
   </si>
   <si>
-    <t>अगर मा इलाज से पहले जाना चाहे </t>
+    <t>अगर मा इलाज से पहले जाना चाहे</t>
   </si>
   <si>
     <t>selected(data('leave_before_treatment_end'), 'yes')</t>
@@ -609,13 +612,13 @@
     <t>Show the mother how to prepare ORS solution at home.</t>
   </si>
   <si>
-    <t>मा को दिखाया कि वह ओ. आर. एस घर पर कैसे बनायाएगी.  </t>
+    <t>मा को दिखाया कि वह ओ. आर. एस घर पर कैसे बनायाएगी.</t>
   </si>
   <si>
     <t>Show her how much ORS to give to finish 4-hour treatment at home.</t>
   </si>
   <si>
-    <t>मा को समझाए की ४ घंटे पूरा करने के लिए कितना ओ. आर. एस देना है. </t>
+    <t>मा को समझाए की ४ घंटे पूरा करने के लिए कितना ओ. आर. एस देना है.</t>
   </si>
   <si>
     <t>&lt;p&gt;ओऽअर.एस की {{calculates "planBORSAmntMl"}} मि.लि ४ घंटे मैं दे. &lt;/p&gt; &lt;p&gt; {{calculates "planBORSAmntCups"}} कप्स. &lt;/p&gt;</t>
@@ -624,7 +627,7 @@
     <t>Give her enough ORS packets to complete rehydration. Also give her 2 packets as recommended in Plan A.</t>
   </si>
   <si>
-    <t>मा को सही मात्रा मैं ओ. आर. एस पॅकेट दें, जिससे निर्जलीकरण का इलाज हो जाय व २ पॅकेट अलग से दे जैसा की प्लान आ मैं बताया गया है. </t>
+    <t>मा को सही मात्रा मैं ओ. आर. एस पॅकेट दें, जिससे निर्जलीकरण का इलाज हो जाय व २ पॅकेट अलग से दे जैसा की प्लान आ मैं बताया गया है.</t>
   </si>
   <si>
     <t>TODO: Goto Plan A?</t>
@@ -633,7 +636,7 @@
     <t>Explain the 3 Rules of Home Treatment:</t>
   </si>
   <si>
-    <t>घर के इलाज के ३ नियम समझाए </t>
+    <t>घर के इलाज के ३ नियम समझाए</t>
   </si>
   <si>
     <t>&lt;ol&gt;
@@ -643,7 +646,7 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;ol&gt;&lt;li&gt;ज़्यादा पिलाए,&lt;li&gt;&lt;li&gt; स्तनपान करते रहें&lt;/li&gt;, &lt;li&gt;वापस कब आए.&lt;/li&gt;&lt;/ol&gt; </t>
+    <t>&lt;ol&gt;&lt;li&gt;ज़्यादा पिलाए,&lt;li&gt;&lt;li&gt; स्तनपान करते रहें&lt;/li&gt;, &lt;li&gt;वापस कब आए.&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>label plan_B_end</t>
@@ -655,7 +658,7 @@
     <t>&lt;h3&gt;Advise to Give Home Care for cough or cold&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>&lt;h3&gt;मा को सलाह दें खाँसी ज़ुकाम के लिए घर मैं देख भाल करें.&lt;/h3&gt; </t>
+    <t>&lt;h3&gt;मा को सलाह दें खाँसी ज़ुकाम के लिए घर मैं देख भाल करें.&lt;/h3&gt;</t>
   </si>
   <si>
     <t>&lt;strong&gt;TELL THE MOTHER:&lt;/strong&gt;</t>
@@ -683,7 +686,7 @@
 &lt;li&gt;Offer the child extra to drink. (See home fluids)&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;बच्चे को ज़्यादा पीने के लिए दें.&lt;/li&gt;&lt;li&gt; घर पर देने वाले पेय की सूची देखें.&lt;/li&gt; </t>
+    <t>&lt;ul&gt;&lt;li&gt;बच्चे को ज़्यादा पीने के लिए दें.&lt;/li&gt;&lt;li&gt; घर पर देने वाले पेय की सूची देखें.&lt;/li&gt;</t>
   </si>
   <si>
     <t>calculates.daysOld() &gt;= 30 * 6</t>
@@ -706,7 +709,7 @@
     <t>Avoid cough syrups.</t>
   </si>
   <si>
-    <t>खाँसी की दावा न पिलाए. </t>
+    <t>खाँसी की दावा न पिलाए.</t>
   </si>
   <si>
     <t>&lt;li&gt;If the child's nose is blocked and interferes with feeding clear the nose.&lt;/li&gt;</t>
@@ -793,13 +796,13 @@
     <t>Counsel the mother on the 3 Rules of Home Treatment:</t>
   </si>
   <si>
-    <t>मा को घर मैं दस्त ठीक करने के टीन नियम समझाए. </t>
+    <t>मा को घर मैं दस्त ठीक करने के टीन नियम समझाए.</t>
   </si>
   <si>
     <t>Give Extra Fluid, Continue Feeding, When to Return</t>
   </si>
   <si>
-    <t>ज़्यादा पिलाए, स्तनपान करते रहें, वापस कब आए. </t>
+    <t>ज़्यादा पिलाए, स्तनपान करते रहें, वापस कब आए.</t>
   </si>
   <si>
     <t>&lt;strong&gt;1. GIVE EXTRA FLUID&lt;/strong&gt; (as much as the child will take)</t>
@@ -814,13 +817,13 @@
     <t>If the child is exclusively breastfed: Breastfeed frequently and for longer at each feed.</t>
   </si>
   <si>
-    <t>अगर शिशु अकेला है स्तनपान लेने वाला तो ज़्यादा बार और ज़्यादा देर तक दें. </t>
+    <t>अगर शिशु अकेला है स्तनपान लेने वाला तो ज़्यादा बार और ज़्यादा देर तक दें.</t>
   </si>
   <si>
     <t>If passing frequent watery stools:</t>
   </si>
   <si>
-    <t>अगर बच्चा बार-बार पानी जैसे दस्त करता है. </t>
+    <t>अगर बच्चा बार-बार पानी जैसे दस्त करता है.</t>
   </si>
   <si>
     <t>calculates.daysOld() &lt; 2 * 30</t>
@@ -853,7 +856,7 @@
     <t>It is especially important to give ORS at home when:</t>
   </si>
   <si>
-    <t>ओऽअर.एस ज़रूरी से दें.  </t>
+    <t>ओऽअर.एस ज़रूरी से दें.</t>
   </si>
   <si>
     <t>&lt;ol&gt;&lt;li&gt;the child has been treated with Plan B or Plan C during the visit.&lt;/li&gt;
@@ -869,19 +872,19 @@
     <t>TEACH THE MOTHER HOW TO MIX AND GIVE ORS. GIVE THE MOTHER 2 PACKETS OF ORS TO USE AT HOME.</t>
   </si>
   <si>
-    <t>मा को ओऽअर.एस देना सिखाए, २ पॅकेट घर के लिए दें. </t>
+    <t>मा को ओऽअर.एस देना सिखाए, २ पॅकेट घर के लिए दें.</t>
   </si>
   <si>
     <t>SHOW THE MOTHER HOW MUCH FLUID TO GIVE IN ADDITION TO THE USUAL FLUID INTAKE:</t>
   </si>
   <si>
-    <t>मा को दिखे कितना अधिक पिलाने छाईए </t>
+    <t>मा को दिखे कितना अधिक पिलाने छाईए</t>
   </si>
   <si>
     <t>5 spoons after each loose stool.</t>
   </si>
   <si>
-    <t>पाँच चम्मच हर दस्त के बाद </t>
+    <t>पाँच चम्मच हर दस्त के बाद</t>
   </si>
   <si>
     <t>&lt; 2 months old</t>
@@ -923,7 +926,7 @@
     <t>Tell the mother to:</t>
   </si>
   <si>
-    <t>मा से बोलें. </t>
+    <t>मा से बोलें.</t>
   </si>
   <si>
     <t>&lt;ol&gt;
@@ -952,10 +955,10 @@
     <t>&lt;strong&gt;वापस कब आए &lt;/strong&gt;</t>
   </si>
   <si>
-    <t>बच्चा अधिक बीमार हो जाए. </t>
-  </si>
-  <si>
-    <t>स्तनपान या अन्य तरल पदार्थ नही ले सके. </t>
+    <t>बच्चा अधिक बीमार हो जाए.</t>
+  </si>
+  <si>
+    <t>स्तनपान या अन्य तरल पदार्थ नही ले सके.</t>
   </si>
   <si>
     <t>In accordance with the note, blood in stool and fever only appear if the child doesn't already have them</t>
@@ -964,7 +967,7 @@
     <t>selected(data('blood_in_stool'), 'yes')</t>
   </si>
   <si>
-    <t>मल मैं खून. </t>
+    <t>मल मैं खून.</t>
   </si>
   <si>
     <t>This seems like a duplicate and should these lists always be different?</t>
@@ -973,10 +976,10 @@
     <t>&lt;li&gt;Drinking poorly&lt;/li&gt;</t>
   </si>
   <si>
-    <t>बहुत कम पीना. </t>
-  </si>
-  <si>
-    <t>बुखार हो जाए. </t>
+    <t>बहुत कम पीना.</t>
+  </si>
+  <si>
+    <t>बुखार हो जाए.</t>
   </si>
   <si>
     <t>label plan_A_end</t>
@@ -1003,7 +1006,7 @@
     <t>ASSESS FEEDING IN ALL CHILDREN BELOW 2 YEARS AND ALSO IN CHILDREN WITH VERY LOW WEIGHT FOR AGE (Malnutrition grade 2, 3 or 4) OR ANAEMIA.</t>
   </si>
   <si>
-    <t>दो साल की कम उम्र के बच्चो का खाना पीना देखें और उन बच्चो मैं भी जिनका वज़न बहुत कम हो उम्र के लिए (कुपोषण ग्रेड २,३,४) या अनीमिया. </t>
+    <t>दो साल की कम उम्र के बच्चो का खाना पीना देखें और उन बच्चो मैं भी जिनका वज़न बहुत कम हो उम्र के लिए (कुपोषण ग्रेड २,३,४) या अनीमिया.</t>
   </si>
   <si>
     <t>breastfed</t>
@@ -1132,7 +1135,7 @@
     <t>If yes how?</t>
   </si>
   <si>
-    <t>अगर हा  तो कैसे? </t>
+    <t>अगर हा  तो कैसे?</t>
   </si>
   <si>
     <t>goto up_to_6mo_feeding_rec</t>
@@ -1168,7 +1171,7 @@
     <t>Breastfeeding at least 8 time in 24 hours.</t>
   </si>
   <si>
-    <t>२४ घंटो मैं कम-से-कम ८ बार स्तनपान करें. </t>
+    <t>२४ घंटो मैं कम-से-कम ८ बार स्तनपान करें.</t>
   </si>
   <si>
     <t>selected(data('breastfed_at_night'), 'yes')</t>
@@ -1216,7 +1219,7 @@
     <t>Remember:</t>
   </si>
   <si>
-    <t>याद रखें </t>
+    <t>याद रखें</t>
   </si>
   <si>
     <t>&lt;ol&gt;
@@ -1224,7 +1227,7 @@
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;ol&gt;&lt;li&gt;स्तनपान जारी रखें अगर बच्चा बीमार रहे फिर भी.&lt;/li&gt;&lt;/ol&gt; </t>
+    <t>&lt;ol&gt;&lt;li&gt;स्तनपान जारी रखें अगर बच्चा बीमार रहे फिर भी.&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>label 6mo_12mo_feeding_rec</t>
@@ -1242,7 +1245,7 @@
     <t>Breastfeed as often as the child wants.</t>
   </si>
   <si>
-    <t>बच्चा जितनी बारी चाहे स्तनपान करें. </t>
+    <t>बच्चा जितनी बारी चाहे स्तनपान करें.</t>
   </si>
   <si>
     <t>Give one katori serving* at a time of any of:</t>
@@ -1270,7 +1273,7 @@
     <t>Mashed roti/rice/bread/biscuit mixed in sweetened undiluted milk OR</t>
   </si>
   <si>
-    <t>मूसी हुई रोटी, चावल, ब्रेड, बिस्कुट या बिना मीठे का दूध दें </t>
+    <t>मूसी हुई रोटी, चावल, ब्रेड, बिस्कुट या बिना मीठे का दूध दें</t>
   </si>
   <si>
     <t>Mashed roti/rice/bread mixed in thick dal with added ghee/oil or khichri with added oil/ghee. Add cooked vegetables also in the servings OR</t>
@@ -1282,13 +1285,13 @@
     <t>Sevian/dalia/halwa/kheer prepared in milk or any cereal porridge cooked in milk OR</t>
   </si>
   <si>
-    <t>सेवीयन, हलवा, खीर, दूध मैं बना हुआ. </t>
+    <t>सेवीयन, हलवा, खीर, दूध मैं बना हुआ.</t>
   </si>
   <si>
     <t>Mashed boiled/fried potatoes or give one banana/cheeko/mango</t>
   </si>
   <si>
-    <t>म्यूज़्ज़ हुआ या तले हुए आलू या केला, छीकू या आम. </t>
+    <t>म्यूज़्ज़ हुआ या तले हुए आलू या केला, छीकू या आम.</t>
   </si>
   <si>
     <t>&lt;ol&gt;
@@ -1303,7 +1306,7 @@
     <t>label 1yo_2yo_feeding_rec</t>
   </si>
   <si>
-    <t>&lt;h3&gt;मा को शाबाशी दें.&lt;/h3&gt; </t>
+    <t>&lt;h3&gt;मा को शाबाशी दें.&lt;/h3&gt;</t>
   </si>
   <si>
     <t>&lt;h3&gt;स्तनपानस लाह&lt;/h3&gt;</t>
@@ -1312,19 +1315,19 @@
     <t>Offer food from the family pot</t>
   </si>
   <si>
-    <t>पारिवारिक पोत से दें. </t>
+    <t>पारिवारिक पोत से दें.</t>
   </si>
   <si>
     <t>Give 1 1/2 katori serving* at a time of any of:</t>
   </si>
   <si>
-    <t>एक कटोरी </t>
+    <t>एक कटोरी</t>
   </si>
   <si>
     <t>*5 times per day</t>
   </si>
   <si>
-    <t>दिन मैं पाँच बार </t>
+    <t>दिन मैं पाँच बार</t>
   </si>
   <si>
     <t>Mashed boiled/fried potatoes or give at least one banana/cheeko/mango</t>
@@ -1357,7 +1360,7 @@
     <t>Twice daily, give nutritious food between meals, such as: banana/biscuit/cheeko/mango/papaya/egg as snacks</t>
   </si>
   <si>
-    <t>दिन मैं दो बार छीकू , केला, बिस्कुट, आम, पपाइया, अंडा दें </t>
+    <t>दिन मैं दो बार छीकू , केला, बिस्कुट, आम, पपाइया, अंडा दें</t>
   </si>
   <si>
     <t>&lt;ol&gt;
@@ -1381,19 +1384,19 @@
     <t>Give Iron Folic Acid therapy</t>
   </si>
   <si>
-    <t>आइरन फॉलिक आसिड थेरपी दें. </t>
+    <t>आइरन फॉलिक आसिड थेरपी दें.</t>
   </si>
   <si>
     <t>Give one dose daily for 14 days.</t>
   </si>
   <si>
-    <t>१४ दिन के लिए रोज़ एक डोस. </t>
+    <t>१४ दिन के लिए रोज़ एक डोस.</t>
   </si>
   <si>
     <t>Dosage instructions:</t>
   </si>
   <si>
-    <t>डोसेज देने के निर्देशन: </t>
+    <t>डोसेज देने के निर्देशन:</t>
   </si>
   <si>
     <t>calculates.daysOld() &lt; 30 * 4</t>
@@ -1402,7 +1405,7 @@
     <t>No IFA dosage instructions for children under 4 months.</t>
   </si>
   <si>
-    <t>४ महीने की कम उम्र के बच्चों के लिए इ.एफ.ए के कोई निर्देशन नही है. </t>
+    <t>४ महीने की कम उम्र के बच्चों के लिए इ.एफ.ए के कोई निर्देशन नही है.</t>
   </si>
   <si>
     <t>TODO: Mention age/weight in instructions.</t>
@@ -1414,7 +1417,7 @@
     <t>Give 1 IFA pediatric tablet.</t>
   </si>
   <si>
-    <t>१ बच्चों वाली इ.एक.ए. टॅबलेट दें. </t>
+    <t>१ बच्चों वाली इ.एक.ए. टॅबलेट दें.</t>
   </si>
   <si>
     <t>calculates.daysOld() &gt;= 30 * 24</t>
@@ -1423,7 +1426,7 @@
     <t>Give 2 IFA pediatric tablets.</t>
   </si>
   <si>
-    <t>२ बच्चों वाली इ.एक.ए. टॅबलेट दें. </t>
+    <t>२ बच्चों वाली इ.एक.ए. टॅबलेट दें.</t>
   </si>
   <si>
     <t>TODO: Vitamin A section does not specify anything about the dosage timing</t>
@@ -1438,7 +1441,7 @@
     <t>No vitamin A dosage instructions for children under 6 months.</t>
   </si>
   <si>
-    <t>६ महीन से कम उम्र के बच्चों के लिए विटामिन ए  के लिए कोई निर्देशन नही है. </t>
+    <t>६ महीन से कम उम्र के बच्चों के लिए विटामिन ए  के लिए कोई निर्देशन नही है.</t>
   </si>
   <si>
     <t>acknowledge</t>
@@ -1477,7 +1480,7 @@
     <t>Treat High Fever (&gt; 38.5°C) With Paracetamol</t>
   </si>
   <si>
-    <t>तेज़्ज़ बुखार (&gt;३८.५ एग सी) को प्रेसेटमल के साथ ठीक करें. </t>
+    <t>तेज़्ज़ बुखार (&gt;३८.५ एग सी) को प्रेसेटमल के साथ ठीक करें.</t>
   </si>
   <si>
     <t>&lt;ul&gt;
@@ -1495,7 +1498,7 @@
     <t>No dosage instructions for children under 2 months.</t>
   </si>
   <si>
-    <t>२ महीन से कम उम्र के बच्चों के लिए कोई निर्देशन नही है. </t>
+    <t>२ महीन से कम उम्र के बच्चों के लिए कोई निर्देशन नही है.</t>
   </si>
   <si>
     <t>calculates.daysOld() &gt;= 30 * 2 &amp;&amp; calculates.daysOld() &lt; 3 * 365</t>
@@ -1504,7 +1507,7 @@
     <t>Give 1/4 500mg tablet</t>
   </si>
   <si>
-    <t>५०० मी ग्राम का १/४ टॅबलेट दें </t>
+    <t>५०० मी ग्राम का १/४ टॅबलेट दें</t>
   </si>
   <si>
     <t>calculates.daysOld() &gt;= 3 * 365</t>
@@ -1513,7 +1516,7 @@
     <t>Give 1/2 500mg tablet</t>
   </si>
   <si>
-    <t>५०० मी ग्राम का १/२ टॅबलेट दें </t>
+    <t>५०० मी ग्राम का १/२ टॅबलेट दें</t>
   </si>
   <si>
     <t>TODO: Use weight before age to determine dosage.
@@ -1571,7 +1574,7 @@
     <t>Avoid cotrimoxazole in infants less than 1 month of age who are premature or jaundiced.</t>
   </si>
   <si>
-    <t>कोटरिमोक्षज़ोल एक महीने से कम के शिशु को या पीलिया से पीढ़ीत का ना दे. </t>
+    <t>कोटरिमोक्षज़ोल एक महीने से कम के शिशु को या पीलिया से पीढ़ीत का ना दे.</t>
   </si>
   <si>
     <t>It would be best to infer this however, it sound like we'll be switching to amox, so it's a moot point</t>
@@ -1586,7 +1589,7 @@
     <t>Choose a cotrimoxazole tablet type:</t>
   </si>
   <si>
-    <t>कोटरिमोक्षज़ोल टॅबलेट चुनें </t>
+    <t>कोटरिमोक्षज़ोल टॅबलेट चुनें</t>
   </si>
   <si>
     <t>selected(data('cotrimoxazole_type'), 'pediatric' )</t>
@@ -1598,7 +1601,7 @@
     <t>Give 1/2 Pediatric Tablet</t>
   </si>
   <si>
-    <t>बच्चों की आधी टॅबलेट दें </t>
+    <t>बच्चों की आधी टॅबलेट दें</t>
   </si>
   <si>
     <t>I added this label for the black square in the dosage grid.</t>
@@ -1622,13 +1625,13 @@
     <t>Give 1/4 Adult Tablet</t>
   </si>
   <si>
-    <t>बढ़ों की १/४ टॅबलेट दें </t>
+    <t>बढ़ों की १/४ टॅबलेट दें</t>
   </si>
   <si>
     <t>Give 1 Pediatric Tablet</t>
   </si>
   <si>
-    <t>बच्चों की १ टॅबलेट दें </t>
+    <t>बच्चों की १ टॅबलेट दें</t>
   </si>
   <si>
     <t>label give_cotrimoxazole_2mo-12mo</t>
@@ -1637,13 +1640,13 @@
     <t>Give 1/2 Adult Tablet</t>
   </si>
   <si>
-    <t>बढ़ों की १/२ टॅबलेट दें </t>
+    <t>बढ़ों की १/२ टॅबलेट दें</t>
   </si>
   <si>
     <t>Give 2 Pediatric Tablets</t>
   </si>
   <si>
-    <t>बच्चों की २ टॅबलेट दें </t>
+    <t>बच्चों की २ टॅबलेट दें</t>
   </si>
   <si>
     <t>label give_cotrimoxazole_12mo-5yo</t>
@@ -1652,13 +1655,13 @@
     <t>Give 1 Adult Tablet</t>
   </si>
   <si>
-    <t>बढ़ों की १ टॅबलेट दें </t>
+    <t>बढ़ों की १ टॅबलेट दें</t>
   </si>
   <si>
     <t>Give 3 Pediatric Tablets</t>
   </si>
   <si>
-    <t>बच्चों की ३ टॅबलेट दें </t>
+    <t>बच्चों की ३ टॅबलेट दें</t>
   </si>
   <si>
     <t>label give_cotrimoxazole_end</t>
@@ -1715,7 +1718,7 @@
     <t>label.english</t>
   </si>
   <si>
-    <t>age_months </t>
+    <t>age_months</t>
   </si>
   <si>
     <t>yes_no</t>
@@ -1745,7 +1748,7 @@
     <t>Present</t>
   </si>
   <si>
-    <t>है </t>
+    <t>है</t>
   </si>
   <si>
     <t>not_present</t>
@@ -1763,7 +1766,7 @@
     <t>Agree</t>
   </si>
   <si>
-    <t>राज़ी </t>
+    <t>राज़ी</t>
   </si>
   <si>
     <t>disagree</t>
@@ -1784,7 +1787,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>पुरुष </t>
+    <t>पुरुष</t>
   </si>
   <si>
     <t>female</t>
@@ -1802,16 +1805,16 @@
     <t>very_slow</t>
   </si>
   <si>
-    <t>Very slowly (longer than 2 seconds)? </t>
-  </si>
-  <si>
-    <t>बहुत धीरे (२ सेकेंड से ज़्यादा) </t>
+    <t>Very slowly (longer than 2 seconds)?</t>
+  </si>
+  <si>
+    <t>बहुत धीरे (२ सेकेंड से ज़्यादा)</t>
   </si>
   <si>
     <t>slow</t>
   </si>
   <si>
-    <t>     Slowly?</t>
+    <t>Slowly?</t>
   </si>
   <si>
     <t>धीरे?</t>
@@ -1853,7 +1856,7 @@
     <t>Good attachment.</t>
   </si>
   <si>
-    <t>अच्छा लगाव </t>
+    <t>अच्छा लगाव</t>
   </si>
   <si>
     <t>sucking_effectiveness</t>
@@ -1880,7 +1883,7 @@
     <t>Suckling effectively.</t>
   </si>
   <si>
-    <t>स्तन को प्रभावी डांग से चूसना </t>
+    <t>स्तन को प्रभावी डांग से चूसना</t>
   </si>
   <si>
     <t>needed_vaccinations</t>
@@ -1892,7 +1895,7 @@
     <t>BCG</t>
   </si>
   <si>
-    <t>बी. सी. गी </t>
+    <t>बी. सी. गी</t>
   </si>
   <si>
     <t>opv0</t>
@@ -1901,7 +1904,7 @@
     <t>OPV-0</t>
   </si>
   <si>
-    <t>ओ. पी. वी.-०  </t>
+    <t>ओ. पी. वी.-०</t>
   </si>
   <si>
     <t>dpt1</t>
@@ -1919,7 +1922,7 @@
     <t>OPV-1 + Hepatitis B-1</t>
   </si>
   <si>
-    <t>ओ. पी. वी.-१ + हेपतितस बी-१ </t>
+    <t>ओ. पी. वी.-१ + हेपतितस बी-१</t>
   </si>
   <si>
     <t>food</t>
@@ -1976,7 +1979,7 @@
     <t>Cooked wheat/rice based with undiluted milk and sugar</t>
   </si>
   <si>
-    <t>पक्की हुई रोति / चावल शूध दूष और चीनी के साथ. </t>
+    <t>पक्की हुई रोति / चावल शूध दूष और चीनी के साथ.</t>
   </si>
   <si>
     <t>water_based_wheat/rice</t>
@@ -1985,7 +1988,7 @@
     <t>Cooked wheat/rice based with dal/lentil water</t>
   </si>
   <si>
-    <t>पक्की हुई रोति / चावल डाल और पानी के साथ.  </t>
+    <t>पक्की हुई रोति / चावल डाल और पानी के साथ.</t>
   </si>
   <si>
     <t>khichri</t>
@@ -2012,7 +2015,7 @@
     <t>Boiled or cooked vegetables</t>
   </si>
   <si>
-    <t>उबली या पक्की हुई सब्ज़ियाँ. </t>
+    <t>उबली या पक्की हुई सब्ज़ियाँ.</t>
   </si>
   <si>
     <t>mixed_food</t>
@@ -2021,7 +2024,7 @@
     <t>Normal mixed food as adults</t>
   </si>
   <si>
-    <t>बढ़ों जैसे सामान्य खाना. </t>
+    <t>बढ़ों जैसे सामान्य खाना.</t>
   </si>
   <si>
     <t>attachment_quality_sign</t>
@@ -2033,7 +2036,7 @@
     <t>Chin touching breast</t>
   </si>
   <si>
-    <t>तोढी स्तन को चू रही है. </t>
+    <t>तोढी स्तन को चू रही है.</t>
   </si>
   <si>
     <t>mouth_wide_open</t>
@@ -2042,7 +2045,7 @@
     <t>Mouth wide open</t>
   </si>
   <si>
-    <t>मूँह पूरा खुला हुआ है. </t>
+    <t>मूँह पूरा खुला हुआ है.</t>
   </si>
   <si>
     <t>lower_lip_outward</t>
@@ -2051,7 +2054,7 @@
     <t>Lower lip turned outward</t>
   </si>
   <si>
-    <t>निचला होंठ बाहर की तरफ मूधा हुआ है. </t>
+    <t>निचला होंठ बाहर की तरफ मूधा हुआ है.</t>
   </si>
   <si>
     <t>visible_areola</t>
@@ -2061,7 +2064,7 @@
 mouth</t>
   </si>
   <si>
-    <t>नीचे की अपेक्षा उपर एरियोला अधिक दिख रहा है. </t>
+    <t>नीचे की अपेक्षा उपर एरियोला अधिक दिख रहा है.</t>
   </si>
   <si>
     <t>visit_type</t>
@@ -2073,7 +2076,7 @@
     <t>Initial vist</t>
   </si>
   <si>
-    <t>प्रथम भेट. </t>
+    <t>प्रथम भेट.</t>
   </si>
   <si>
     <t>followup</t>
@@ -2082,7 +2085,7 @@
     <t>Follow-up</t>
   </si>
   <si>
-    <t>पुन: भेट </t>
+    <t>पुन: भेट</t>
   </si>
   <si>
     <t>breast_problems</t>
@@ -2094,7 +2097,7 @@
     <t>Flat/inverted nipple</t>
   </si>
   <si>
-    <t>चुचक के घाव </t>
+    <t>चुचक के घाव</t>
   </si>
   <si>
     <t>sore_nipple</t>
@@ -2109,7 +2112,7 @@
     <t>Engorged breasts</t>
   </si>
   <si>
-    <t>स्तानो मैं सूजन </t>
+    <t>स्तानो मैं सूजन</t>
   </si>
   <si>
     <t>breast_abscess</t>
@@ -2118,7 +2121,7 @@
     <t>Breast abscess</t>
   </si>
   <si>
-    <t>स्तानो मैं फोड़े </t>
+    <t>स्तानो मैं फोड़े</t>
   </si>
   <si>
     <t>no_some_severe</t>
@@ -2139,7 +2142,7 @@
     <t>बहुत</t>
   </si>
   <si>
-    <t> katori_teaspoon</t>
+    <t>katori_teaspoon</t>
   </si>
   <si>
     <t>katori</t>
@@ -2148,7 +2151,7 @@
     <t>Katori</t>
   </si>
   <si>
-    <t>कटोरी </t>
+    <t>कटोरी</t>
   </si>
   <si>
     <t>katori_teaspoon</t>
@@ -2211,80 +2214,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="18.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2301,18 +2254,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2340,18 +2281,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2365,4778 +2294,5062 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" xfId="0" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="2" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="2" fillId="3" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="4" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="5" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="4" fillId="6" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="7" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="8" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="9" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="5" fillId="10" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="11" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="6" fillId="12" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W322"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="34.29"/>
-    <col max="2" min="2" customWidth="1" width="35.0"/>
-    <col max="3" min="3" customWidth="1" width="40.57"/>
-    <col max="4" min="4" customWidth="1" width="32.71"/>
-    <col max="6" min="6" customWidth="1" width="37.71"/>
-    <col max="7" min="7" customWidth="1" width="42.57"/>
-    <col max="8" min="8" customWidth="1" width="22.71"/>
-    <col max="14" min="14" customWidth="1" width="24.0"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="13" r="A1">
+    <row r="1" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="3" r="O1">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c s="13" r="A2"/>
-      <c t="s" s="3" r="B2">
+    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c s="3" r="C2"/>
-      <c t="s" s="3" r="D2">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="3" r="F2">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="4" r="G2">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c t="s" s="3" r="H2">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="I2">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="L2">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="M2">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="11" r="N2">
+      <c r="N2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c s="13" r="A3"/>
-      <c t="s" s="4" r="B3">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c s="4" r="C3"/>
-      <c t="s" s="4" r="D3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="F3">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="4" r="G3">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c s="4" r="H3"/>
-      <c s="4" r="I3"/>
-      <c s="11" r="J3"/>
-      <c s="11" r="L3"/>
-      <c s="11" r="M3"/>
-      <c s="11" r="N3"/>
-      <c s="11" r="O3"/>
-      <c s="11" r="P3"/>
-    </row>
-    <row r="4">
-      <c t="s" s="2" r="A4">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c s="2" r="B4"/>
-      <c s="2" r="C4"/>
-      <c s="2" r="D4"/>
-      <c s="2" r="E4"/>
-      <c s="2" r="F4"/>
-      <c s="2" r="G4"/>
-      <c s="2" r="H4"/>
-      <c s="2" r="I4"/>
-      <c s="2" r="J4"/>
-      <c s="2" r="K4"/>
-      <c s="2" r="L4"/>
-      <c s="2" r="M4"/>
-      <c s="2" r="N4"/>
-      <c s="2" r="O4"/>
-      <c s="2" r="P4"/>
-      <c s="2" r="Q4"/>
-      <c s="2" r="R4"/>
-      <c s="2" r="S4"/>
-      <c s="2" r="T4"/>
-      <c s="2" r="U4"/>
-      <c s="2" r="V4"/>
-      <c s="2" r="W4"/>
-    </row>
-    <row r="5">
-      <c s="13" r="A5"/>
-      <c t="s" s="9" r="B5">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" s="13" r="A6">
+    <row r="6" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="9" r="B6">
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7">
-      <c s="13" r="A7"/>
-      <c t="s" s="4" r="B7">
+    <row r="7" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c s="4" r="C7"/>
-      <c s="4" r="D7"/>
-      <c s="4" r="F7"/>
-      <c s="4" r="G7"/>
-      <c s="4" r="H7"/>
-      <c s="4" r="J7"/>
-      <c s="11" r="L7"/>
-    </row>
-    <row r="8">
-      <c s="13" r="A8"/>
-      <c t="s" r="B8">
-        <v>34</v>
-      </c>
-      <c t="s" r="F8">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="11" r="G8">
+      <c r="G8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9">
-      <c t="s" s="13" r="A9">
+    <row r="9" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="4" r="B9">
-        <v>34</v>
-      </c>
-      <c t="b" s="4" r="C9">
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="b">
         <v>0</v>
       </c>
-      <c s="4" r="D9"/>
-      <c t="s" s="4" r="F9">
+      <c r="D9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="4" r="G9">
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c s="4" r="H9"/>
-      <c s="4" r="J9"/>
-      <c s="11" r="L9"/>
-    </row>
-    <row r="10">
-      <c t="s" s="13" r="A10">
+      <c r="H9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="4" r="B10">
-        <v>34</v>
-      </c>
-      <c s="4" r="C10"/>
-      <c s="4" r="D10"/>
-      <c t="s" s="4" r="F10">
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="4" r="G10">
+      <c r="G10" s="3" t="s">
         <v>42</v>
       </c>
-      <c s="4" r="H10"/>
-      <c s="4" r="J10"/>
-      <c s="11" r="L10"/>
-    </row>
-    <row r="11">
-      <c s="13" r="A11"/>
-      <c t="s" s="4" r="B11">
-        <v>34</v>
-      </c>
-      <c s="4" r="C11"/>
-      <c s="4" r="D11"/>
-      <c t="s" s="4" r="F11">
+      <c r="H10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="4" r="G11">
+      <c r="G11" s="3" t="s">
         <v>44</v>
       </c>
-      <c s="4" r="H11"/>
-      <c s="4" r="J11"/>
-      <c s="11" r="L11"/>
-    </row>
-    <row r="12">
-      <c s="13" r="A12"/>
-      <c t="s" s="4" r="B12">
-        <v>34</v>
-      </c>
-      <c s="4" r="C12"/>
-      <c s="4" r="D12"/>
-      <c t="s" s="4" r="F12">
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
-      <c t="s" s="4" r="G12">
+      <c r="G12" s="3" t="s">
         <v>46</v>
       </c>
-      <c s="4" r="H12"/>
-      <c s="4" r="J12"/>
-      <c s="11" r="L12"/>
-    </row>
-    <row r="13">
-      <c s="13" r="A13"/>
-      <c t="s" s="4" r="B13">
-        <v>34</v>
-      </c>
-      <c s="4" r="C13"/>
-      <c s="4" r="D13"/>
-      <c t="s" s="4" r="F13">
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="4" r="G13">
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
-      <c s="4" r="H13"/>
-      <c s="4" r="J13"/>
-      <c s="11" r="L13"/>
-    </row>
-    <row r="14">
-      <c s="13" r="A14"/>
-      <c t="s" s="4" r="B14">
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
-      <c s="4" r="C14"/>
-      <c s="4" r="D14"/>
-      <c s="4" r="F14"/>
-      <c s="4" r="G14"/>
-      <c s="4" r="H14"/>
-      <c s="4" r="J14"/>
-      <c s="11" r="L14"/>
-    </row>
-    <row r="15">
-      <c s="13" r="A15"/>
-      <c t="s" s="4" r="B15">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c s="4" r="C15"/>
-      <c s="4" r="D15"/>
-      <c s="4" r="F15"/>
-      <c s="4" r="G15"/>
-      <c s="4" r="H15"/>
-      <c s="4" r="J15"/>
-      <c s="11" r="L15"/>
-    </row>
-    <row r="16">
-      <c t="s" s="13" r="A16">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c t="s" s="4" r="B16">
-        <v>34</v>
-      </c>
-      <c s="4" r="C16"/>
-      <c s="4" r="D16"/>
-      <c t="s" s="4" r="F16">
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="4" r="G16">
+      <c r="G16" s="3" t="s">
         <v>52</v>
       </c>
-      <c s="4" r="H16"/>
-      <c s="4" r="J16"/>
-      <c s="11" r="L16"/>
-    </row>
-    <row r="17">
-      <c t="s" s="13" r="A17">
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
-      <c t="s" s="4" r="B17">
-        <v>34</v>
-      </c>
-      <c s="4" r="C17"/>
-      <c s="4" r="D17"/>
-      <c t="s" s="4" r="F17">
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="4" r="G17">
+      <c r="G17" s="3" t="s">
         <v>55</v>
       </c>
-      <c s="4" r="H17"/>
-      <c s="11" r="I17"/>
-      <c s="4" r="J17"/>
-      <c s="11" r="K17"/>
-      <c s="11" r="L17"/>
-    </row>
-    <row r="18">
-      <c t="s" s="13" r="A18">
+      <c r="H17" s="3"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>56</v>
       </c>
-      <c t="s" s="4" r="B18">
-        <v>34</v>
-      </c>
-      <c s="4" r="C18"/>
-      <c s="4" r="D18"/>
-      <c t="s" s="4" r="F18">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="4" r="G18">
+      <c r="G18" s="3" t="s">
         <v>58</v>
       </c>
-      <c s="4" r="H18"/>
-      <c s="11" r="I18"/>
-      <c s="4" r="J18"/>
-      <c s="11" r="K18"/>
-      <c s="11" r="L18"/>
-    </row>
-    <row r="19">
-      <c t="s" s="13" r="A19">
+      <c r="H18" s="3"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="4" r="B19">
-        <v>34</v>
-      </c>
-      <c t="s" r="F19">
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="G19">
+      <c r="G19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20">
-      <c s="13" r="A20"/>
-      <c t="s" s="4" r="B20">
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
-      <c s="4" r="C20"/>
-      <c s="4" r="D20"/>
-      <c s="4" r="F20"/>
-      <c s="4" r="G20"/>
-      <c s="4" r="H20"/>
-      <c s="11" r="I20"/>
-      <c s="4" r="J20"/>
-      <c s="11" r="K20"/>
-      <c s="11" r="L20"/>
-    </row>
-    <row r="21">
-      <c s="13" r="A21"/>
-    </row>
-    <row r="22">
-      <c s="13" r="A22"/>
-      <c t="s" s="9" r="B22">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23">
-      <c s="13" r="A23"/>
-      <c t="s" r="B23">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24">
-      <c s="13" r="A24"/>
-      <c t="s" r="B24">
-        <v>34</v>
-      </c>
-      <c t="s" r="F24">
+    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="11" r="G24">
+      <c r="G24" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25">
-      <c s="13" r="A25"/>
-      <c t="s" r="B25">
-        <v>34</v>
-      </c>
-      <c t="s" r="F25">
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
         <v>65</v>
       </c>
-      <c t="s" r="G25">
+      <c r="G25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26">
-      <c s="13" r="A26"/>
-      <c t="s" r="B26">
-        <v>34</v>
-      </c>
-      <c t="s" r="H26">
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="I26">
+      <c r="I26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27">
-      <c s="13" r="A27"/>
-      <c t="s" r="B27">
-        <v>34</v>
-      </c>
-      <c t="s" r="H27">
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="I27">
+      <c r="I27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28">
-      <c s="13" r="A28"/>
-      <c t="s" r="B28">
-        <v>34</v>
-      </c>
-      <c t="s" r="H28">
+    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="I28">
+      <c r="I28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29">
-      <c s="13" r="A29"/>
-      <c t="s" r="B29">
-        <v>34</v>
-      </c>
-      <c t="s" r="H29">
+    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="I29">
+      <c r="I29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30">
-      <c s="13" r="A30"/>
-      <c t="s" r="B30">
-        <v>34</v>
-      </c>
-      <c t="s" r="H30">
+    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
         <v>75</v>
       </c>
-      <c t="s" r="I30">
+      <c r="I30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31">
-      <c s="13" r="A31"/>
-      <c t="s" r="B31">
-        <v>34</v>
-      </c>
-      <c t="s" r="H31">
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="I31">
+      <c r="I31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32">
-      <c s="13" r="A32"/>
-      <c t="s" r="B32">
-        <v>34</v>
-      </c>
-      <c t="s" r="H32">
+    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
         <v>79</v>
       </c>
-      <c t="s" r="I32">
+      <c r="I32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33">
-      <c s="13" r="A33"/>
-      <c t="s" r="B33">
-        <v>34</v>
-      </c>
-      <c t="s" r="H33">
+    <row r="33" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
         <v>81</v>
       </c>
-      <c t="s" r="I33">
+      <c r="I33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34">
-      <c s="13" r="A34"/>
-      <c t="s" r="B34">
+    <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35">
-      <c s="13" r="A35"/>
-      <c t="s" r="B35">
+    <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36">
-      <c t="s" s="13" r="A36">
+    <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>83</v>
       </c>
-      <c t="s" r="B36">
-        <v>34</v>
-      </c>
-      <c t="s" r="F36">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
         <v>84</v>
       </c>
-      <c t="s" r="G36">
+      <c r="G36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37">
-      <c s="13" r="A37"/>
-      <c t="s" r="B37">
-        <v>34</v>
-      </c>
-      <c t="s" r="H37">
+    <row r="37" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s">
         <v>86</v>
       </c>
-      <c t="s" r="I37">
+      <c r="I37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38">
-      <c s="13" r="A38"/>
-      <c t="s" r="B38">
-        <v>34</v>
-      </c>
-      <c t="s" r="H38">
+    <row r="38" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s">
         <v>88</v>
       </c>
-      <c t="s" r="I38">
+      <c r="I38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39">
-      <c s="13" r="A39"/>
-      <c t="s" r="B39">
-        <v>34</v>
-      </c>
-      <c t="s" r="H39">
+    <row r="39" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
         <v>90</v>
       </c>
-      <c t="s" r="I39">
+      <c r="I39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40">
-      <c s="13" r="A40"/>
-      <c t="s" r="B40">
-        <v>34</v>
-      </c>
-      <c t="s" r="H40">
+    <row r="40" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s">
         <v>92</v>
       </c>
-      <c t="s" r="I40">
+      <c r="I40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41">
-      <c s="13" r="A41"/>
-      <c t="s" r="B41">
-        <v>34</v>
-      </c>
-      <c t="s" r="H41">
+    <row r="41" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s">
         <v>94</v>
       </c>
-      <c t="s" r="I41">
+      <c r="I41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42">
-      <c s="13" r="A42"/>
-      <c t="s" r="B42">
+    <row r="42" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43">
-      <c s="13" r="A43"/>
-      <c t="s" s="9" r="B43">
+    <row r="43" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44">
-      <c s="13" r="A44"/>
-      <c t="s" r="B44">
+    <row r="44" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45">
-      <c s="13" r="A45"/>
-      <c t="s" r="B45">
-        <v>34</v>
-      </c>
-      <c t="s" r="F45">
+    <row r="45" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
         <v>97</v>
       </c>
-      <c t="s" s="11" r="G45">
+      <c r="G45" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46">
-      <c t="s" s="13" r="A46">
+    <row r="46" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>99</v>
       </c>
-      <c t="s" r="B46">
-        <v>34</v>
-      </c>
-      <c t="s" r="F46">
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
         <v>100</v>
       </c>
-      <c t="s" r="G46">
+      <c r="G46" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47">
-      <c s="13" r="A47"/>
-      <c t="s" r="B47">
-        <v>34</v>
-      </c>
-      <c t="s" r="H47">
+    <row r="47" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" t="s">
         <v>102</v>
       </c>
-      <c t="s" r="I47">
+      <c r="I47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48">
-      <c s="13" r="A48"/>
-      <c t="s" r="B48">
-        <v>34</v>
-      </c>
-      <c t="s" r="H48">
+    <row r="48" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s">
         <v>104</v>
       </c>
-      <c t="s" r="I48">
+      <c r="I48" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49">
-      <c s="13" r="A49"/>
-      <c t="s" r="B49">
-        <v>34</v>
-      </c>
-      <c t="s" r="H49">
+    <row r="49" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s">
         <v>106</v>
       </c>
-      <c t="s" r="I49">
+      <c r="I49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50">
-      <c s="13" r="A50"/>
-      <c t="s" r="B50">
-        <v>34</v>
-      </c>
-      <c t="s" r="H50">
+    <row r="50" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s">
         <v>108</v>
       </c>
-      <c t="s" r="I50">
+      <c r="I50" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51">
-      <c s="13" r="A51"/>
-      <c t="s" r="B51">
+    <row r="51" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52">
-      <c s="13" r="A52"/>
-      <c t="s" r="B52">
+    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53">
-      <c s="13" r="A53"/>
-      <c t="s" r="B53">
-        <v>34</v>
-      </c>
-      <c t="s" r="F53">
+    <row r="53" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
         <v>110</v>
       </c>
-      <c t="s" r="G53">
+      <c r="G53" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54">
-      <c s="13" r="A54"/>
-      <c t="s" r="B54">
-        <v>34</v>
-      </c>
-      <c t="s" r="H54">
+    <row r="54" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" t="s">
         <v>112</v>
       </c>
-      <c t="s" r="I54">
+      <c r="I54" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55">
-      <c s="13" r="A55"/>
-      <c t="s" r="B55">
-        <v>34</v>
-      </c>
-      <c t="s" r="H55">
+    <row r="55" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s">
         <v>114</v>
       </c>
-      <c t="s" r="I55">
+      <c r="I55" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56">
-      <c s="13" r="A56"/>
-      <c t="s" r="B56">
-        <v>34</v>
-      </c>
-      <c t="s" r="H56">
+    <row r="56" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s">
         <v>116</v>
       </c>
-      <c t="s" r="I56">
+      <c r="I56" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57">
-      <c t="s" s="13" r="A57">
+    <row r="57" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>118</v>
       </c>
-      <c t="s" r="B57">
-        <v>34</v>
-      </c>
-      <c t="s" r="F57">
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s">
         <v>119</v>
       </c>
-      <c t="s" r="G57">
+      <c r="G57" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58">
-      <c s="13" r="A58"/>
-      <c t="s" r="B58">
+    <row r="58" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59">
-      <c s="13" r="A59"/>
-      <c t="s" r="B59">
+    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60">
-      <c t="s" s="13" r="A60">
+    <row r="60" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>99</v>
       </c>
-      <c t="s" r="B60">
-        <v>34</v>
-      </c>
-      <c t="s" r="F60">
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
         <v>121</v>
       </c>
-      <c t="s" r="G60">
+      <c r="G60" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="61">
-      <c s="13" r="A61"/>
-      <c t="s" r="B61">
-        <v>34</v>
-      </c>
-      <c t="s" s="11" r="F61">
+    <row r="61" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>123</v>
       </c>
-      <c t="s" s="11" r="G61">
+      <c r="G61" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62">
-      <c s="13" r="A62"/>
-      <c t="s" r="B62">
-        <v>34</v>
-      </c>
-      <c t="s" r="F62">
+    <row r="62" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
         <v>125</v>
       </c>
-      <c t="s" r="G62">
+      <c r="G62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63">
-      <c s="13" r="A63"/>
-      <c t="s" r="B63">
+    <row r="63" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64">
-      <c s="13" r="A64"/>
-      <c t="s" s="9" r="B64">
+    <row r="64" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65">
-      <c t="s" s="13" r="A65">
+    <row r="65" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>128</v>
       </c>
-      <c t="s" r="B65">
+      <c r="B65" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="C65">
+      <c r="C65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
-      <c s="13" r="A66"/>
-      <c t="s" r="B66">
-        <v>34</v>
-      </c>
-      <c t="s" r="F66">
+    <row r="66" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
         <v>130</v>
       </c>
-      <c t="s" r="G66">
+      <c r="G66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67">
-      <c s="13" r="A67"/>
-      <c t="s" r="B67">
-        <v>34</v>
-      </c>
-      <c t="s" r="C67">
+    <row r="67" spans="1:23" ht="66" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
         <v>132</v>
       </c>
-      <c t="s" r="F67">
+      <c r="F67" t="s">
         <v>133</v>
       </c>
-      <c t="s" r="G67">
+      <c r="G67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68">
-      <c s="13" r="A68"/>
-      <c t="s" r="B68">
-        <v>34</v>
-      </c>
-      <c t="s" r="C68">
+    <row r="68" spans="1:23" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
         <v>135</v>
       </c>
-      <c t="s" r="F68">
+      <c r="F68" t="s">
         <v>136</v>
       </c>
-      <c t="s" r="G68">
+      <c r="G68" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69">
-      <c s="13" r="A69"/>
-      <c t="s" r="B69">
-        <v>34</v>
-      </c>
-      <c t="s" r="C69">
+    <row r="69" spans="1:23" ht="66" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
         <v>138</v>
       </c>
-      <c t="s" r="F69">
+      <c r="F69" t="s">
         <v>139</v>
       </c>
-      <c t="s" r="G69">
+      <c r="G69" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70">
-      <c s="13" r="A70"/>
-      <c t="s" r="B70">
+    <row r="70" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71">
-      <c t="s" s="13" r="A71">
+    <row r="71" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="9" r="B71">
+      <c r="B71" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72">
-      <c s="13" r="A72"/>
-      <c t="s" r="B72">
+    <row r="72" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73">
-      <c s="13" r="A73"/>
-      <c t="s" r="B73">
-        <v>34</v>
-      </c>
-      <c t="s" r="F73">
+    <row r="73" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
       </c>
-      <c t="s" r="G73">
+      <c r="G73" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74">
-      <c s="13" r="A74"/>
-      <c t="s" r="B74">
-        <v>34</v>
-      </c>
-      <c t="s" r="F74">
+    <row r="74" spans="1:23" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
       </c>
-      <c t="s" r="G74">
+      <c r="G74" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75">
-      <c s="13" r="A75"/>
-      <c t="s" r="B75">
-        <v>34</v>
-      </c>
-      <c t="s" r="F75">
+    <row r="75" spans="1:23" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
       </c>
-      <c t="s" r="G75">
+      <c r="G75" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="76">
-      <c s="13" r="A76"/>
-      <c t="s" r="B76">
-        <v>34</v>
-      </c>
-      <c t="s" r="F76">
+    <row r="76" spans="1:23" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
       </c>
-      <c t="s" r="G76">
+      <c r="G76" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77">
-      <c s="13" r="A77"/>
-      <c t="s" r="B77">
-        <v>34</v>
-      </c>
-      <c t="s" r="F77">
+    <row r="77" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
       </c>
-      <c t="s" r="G77">
+      <c r="G77" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78">
-      <c s="13" r="A78"/>
-      <c t="s" r="B78">
-        <v>34</v>
-      </c>
-      <c t="s" r="F78">
+    <row r="78" spans="1:23" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="G78">
+      <c r="G78" t="s">
         <v>154</v>
       </c>
-      <c t="s" r="H78">
+      <c r="H78" t="s">
         <v>155</v>
       </c>
-      <c t="s" s="11" r="I78">
+      <c r="I78" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="79">
-      <c s="13" r="A79"/>
-      <c t="s" r="B79">
+    <row r="79" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="80">
-      <c t="s" s="2" r="A80">
+    <row r="80" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>157</v>
       </c>
-      <c s="2" r="B80"/>
-      <c s="2" r="C80"/>
-      <c s="2" r="D80"/>
-      <c s="2" r="E80"/>
-      <c s="2" r="F80"/>
-      <c s="2" r="G80"/>
-      <c s="2" r="H80"/>
-      <c s="2" r="I80"/>
-      <c s="2" r="J80"/>
-      <c s="2" r="K80"/>
-      <c s="2" r="L80"/>
-      <c s="2" r="M80"/>
-      <c s="2" r="N80"/>
-      <c s="2" r="O80"/>
-      <c s="2" r="P80"/>
-      <c s="2" r="Q80"/>
-      <c s="2" r="R80"/>
-      <c s="2" r="S80"/>
-      <c s="2" r="T80"/>
-      <c s="2" r="U80"/>
-      <c s="2" r="V80"/>
-      <c s="2" r="W80"/>
-    </row>
-    <row r="81">
-      <c s="13" r="A81"/>
-      <c t="s" s="9" r="B81">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="82">
-      <c s="13" r="A82"/>
-      <c t="s" r="B82">
+    <row r="82" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" t="s">
         <v>159</v>
       </c>
-      <c t="s" r="C82">
+      <c r="C82" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="83">
-      <c s="13" r="A83"/>
-      <c t="s" s="9" r="B83">
+    <row r="83" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84">
-      <c s="13" r="A84"/>
-      <c t="s" r="B84">
-        <v>34</v>
-      </c>
-      <c t="s" r="F84">
+    <row r="84" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" t="s">
         <v>162</v>
       </c>
-      <c t="s" r="G84">
+      <c r="G84" t="s">
         <v>163</v>
       </c>
-      <c t="s" r="H84">
+      <c r="H84" t="s">
         <v>164</v>
       </c>
-      <c t="s" r="I84">
+      <c r="I84" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="85">
-      <c s="13" r="A85"/>
-      <c t="s" r="B85">
+    <row r="85" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86">
-      <c s="13" r="A86"/>
-      <c t="s" r="B86">
-        <v>34</v>
-      </c>
-      <c t="s" s="5" r="F86">
+    <row r="86" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>166</v>
       </c>
-      <c t="s" s="5" r="G86">
+      <c r="G86" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="87">
-      <c s="13" r="A87"/>
-      <c t="s" r="B87">
-        <v>34</v>
-      </c>
-      <c t="s" r="H87">
+    <row r="87" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" t="s">
         <v>168</v>
       </c>
-      <c t="s" r="I87">
+      <c r="I87" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88">
-      <c s="13" r="A88"/>
-      <c t="s" r="B88">
-        <v>34</v>
-      </c>
-      <c t="s" r="C88">
+    <row r="88" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
         <v>170</v>
       </c>
-      <c t="s" r="H88">
+      <c r="H88" t="s">
         <v>171</v>
       </c>
-      <c t="s" r="I88">
+      <c r="I88" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89">
-      <c s="13" r="A89"/>
-      <c t="s" r="B89">
+    <row r="89" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90">
-      <c s="13" r="A90"/>
-      <c t="s" r="B90">
+    <row r="90" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91">
-      <c s="13" r="A91"/>
-      <c t="s" r="B91">
-        <v>34</v>
-      </c>
-      <c t="s" r="F91">
+    <row r="91" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
       </c>
-      <c t="s" r="G91">
+      <c r="G91" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="92">
-      <c s="13" r="A92"/>
-      <c t="s" r="B92">
-        <v>34</v>
-      </c>
-      <c t="s" r="F92">
+    <row r="92" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
       </c>
-      <c t="s" r="G92">
+      <c r="G92" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="93">
-      <c s="13" r="A93"/>
-      <c t="s" r="B93">
-        <v>34</v>
-      </c>
-      <c t="s" r="F93">
+    <row r="93" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
       </c>
-      <c t="s" r="G93">
+      <c r="G93" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="94">
-      <c s="13" r="A94"/>
-      <c t="s" r="B94">
-        <v>34</v>
-      </c>
-      <c t="s" r="F94">
+    <row r="94" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
       </c>
-      <c t="s" r="G94">
+      <c r="G94" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="95">
-      <c s="13" r="A95"/>
-      <c t="s" r="B95">
+    <row r="95" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96">
-      <c s="13" r="A96"/>
-      <c t="s" r="B96">
+    <row r="96" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="97">
-      <c s="13" r="A97"/>
-      <c t="s" r="B97">
-        <v>34</v>
-      </c>
-      <c t="s" r="F97">
+    <row r="97" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
         <v>181</v>
       </c>
-      <c t="s" r="G97">
+      <c r="G97" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="98">
-      <c s="13" r="A98"/>
-      <c t="s" r="B98">
-        <v>34</v>
-      </c>
-      <c t="s" r="F98">
+    <row r="98" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" t="s">
         <v>183</v>
       </c>
-      <c t="s" r="G98">
+      <c r="G98" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="99">
-      <c s="13" r="A99"/>
-      <c t="s" r="B99">
-        <v>34</v>
-      </c>
-      <c t="s" r="F99">
+    <row r="99" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" t="s">
         <v>185</v>
       </c>
-      <c t="s" r="G99">
+      <c r="G99" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="100">
-      <c s="13" r="A100"/>
-      <c t="s" r="B100">
-        <v>34</v>
-      </c>
-      <c t="s" r="F100">
+    <row r="100" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" t="s">
         <v>187</v>
       </c>
-      <c t="s" r="G100">
+      <c r="G100" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="101">
-      <c s="13" r="A101"/>
-      <c t="s" r="B101">
+    <row r="101" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" t="s">
         <v>189</v>
       </c>
-      <c t="s" r="D101">
+      <c r="D101" t="s">
         <v>190</v>
       </c>
-      <c t="s" s="11" r="F101">
+      <c r="F101" s="7" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="11" r="G101">
+      <c r="G101" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="102">
-      <c s="13" r="A102"/>
-      <c t="s" r="B102">
+    <row r="102" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="103">
-      <c s="13" r="A103"/>
-      <c t="s" r="B103">
+    <row r="103" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="C103">
+      <c r="C103" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="104">
-      <c s="13" r="A104"/>
-      <c t="s" r="B104">
-        <v>34</v>
-      </c>
-      <c t="s" s="11" r="F104">
+    <row r="104" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>194</v>
       </c>
-      <c t="s" s="11" r="G104">
+      <c r="G104" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="105">
-      <c s="13" r="A105"/>
-      <c t="s" r="B105">
-        <v>34</v>
-      </c>
-      <c t="s" r="F105">
+    <row r="105" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
         <v>196</v>
       </c>
-      <c t="s" r="G105">
+      <c r="G105" t="s">
         <v>197</v>
       </c>
-      <c t="s" s="5" r="H105">
+      <c r="H105" s="4" t="s">
         <v>166</v>
       </c>
-      <c t="s" s="5" r="I105">
+      <c r="I105" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="106">
-      <c s="13" r="A106"/>
-      <c t="s" r="B106">
-        <v>34</v>
-      </c>
-      <c t="s" r="F106">
+    <row r="106" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" t="s">
         <v>199</v>
       </c>
-      <c t="s" r="G106">
+      <c r="G106" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="107">
-      <c t="s" s="13" r="A107">
+    <row r="107" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
         <v>201</v>
       </c>
-      <c t="s" r="B107">
-        <v>34</v>
-      </c>
-      <c t="s" r="F107">
+      <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" t="s">
         <v>202</v>
       </c>
-      <c t="s" r="G107">
+      <c r="G107" t="s">
         <v>203</v>
       </c>
-      <c t="s" r="H107">
+      <c r="H107" t="s">
         <v>204</v>
       </c>
-      <c t="s" r="I107">
+      <c r="I107" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="108">
-      <c s="13" r="A108"/>
-      <c t="s" r="B108">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109">
-      <c s="13" r="A109"/>
-      <c t="s" r="B109">
+    <row r="108" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110">
-      <c s="13" r="A110"/>
-      <c t="s" s="10" r="B110">
+    <row r="110" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="111">
-      <c s="13" r="A111"/>
-      <c t="s" s="9" r="B111">
+    <row r="111" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="112">
-      <c s="13" r="A112"/>
-      <c t="s" r="B112">
+    <row r="112" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113">
-      <c s="13" r="A113"/>
-      <c t="s" r="B113">
-        <v>34</v>
-      </c>
-      <c t="s" r="F113">
+    <row r="113" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" t="s">
         <v>208</v>
       </c>
-      <c t="s" r="G113">
+      <c r="G113" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="114">
-      <c s="13" r="A114"/>
-      <c t="s" r="B114">
-        <v>34</v>
-      </c>
-      <c t="s" r="F114">
+    <row r="114" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" t="s">
         <v>210</v>
       </c>
-      <c t="s" r="G114">
+      <c r="G114" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="115">
-      <c s="13" r="A115"/>
-      <c t="s" r="B115">
-        <v>34</v>
-      </c>
-      <c t="s" r="F115">
+    <row r="115" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" t="s">
         <v>212</v>
       </c>
-      <c t="s" r="G115">
+      <c r="G115" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="116">
-      <c t="s" s="13" r="A116">
+    <row r="116" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
         <v>214</v>
       </c>
-      <c t="s" r="B116">
-        <v>34</v>
-      </c>
-      <c t="s" r="F116">
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" t="s">
         <v>215</v>
       </c>
-      <c t="s" r="G116">
+      <c r="G116" t="s">
         <v>216</v>
       </c>
-      <c t="s" r="H116">
+      <c r="H116" t="s">
         <v>217</v>
       </c>
-      <c t="s" s="11" r="I116">
+      <c r="I116" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="117">
-      <c s="13" r="A117"/>
-      <c t="s" r="B117">
-        <v>34</v>
-      </c>
-      <c t="s" r="C117">
+    <row r="117" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" t="s">
         <v>219</v>
       </c>
-      <c t="s" r="F117">
+      <c r="F117" t="s">
         <v>220</v>
       </c>
-      <c t="s" r="G117">
+      <c r="G117" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="118">
-      <c s="13" r="A118"/>
-      <c t="s" r="B118">
-        <v>34</v>
-      </c>
-      <c t="s" r="C118">
+    <row r="118" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" t="s">
         <v>219</v>
       </c>
-      <c t="s" r="H118">
+      <c r="H118" t="s">
         <v>222</v>
       </c>
-      <c t="s" s="11" r="I118">
+      <c r="I118" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="119">
-      <c s="13" r="A119"/>
-      <c t="s" r="B119">
-        <v>34</v>
-      </c>
-      <c t="s" r="C119">
+    <row r="119" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" t="s">
         <v>219</v>
       </c>
-      <c t="s" r="H119">
+      <c r="H119" t="s">
         <v>224</v>
       </c>
-      <c t="s" r="I119">
+      <c r="I119" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="120">
-      <c s="13" r="A120"/>
-      <c t="s" r="B120">
-        <v>34</v>
-      </c>
-      <c t="s" r="F120">
+    <row r="120" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" t="s">
         <v>226</v>
       </c>
-      <c t="s" r="G120">
+      <c r="G120" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="121">
-      <c s="13" r="A121"/>
-      <c t="s" r="B121">
-        <v>34</v>
-      </c>
-      <c t="s" r="F121">
+    <row r="121" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121" t="s">
         <v>228</v>
       </c>
-      <c t="s" r="G121">
+      <c r="G121" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="122">
-      <c s="13" r="A122"/>
-      <c t="s" r="B122">
-        <v>34</v>
-      </c>
-      <c t="s" r="H122">
+    <row r="122" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="H122" t="s">
         <v>230</v>
       </c>
-      <c t="s" r="I122">
+      <c r="I122" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="123">
-      <c s="13" r="A123"/>
-      <c t="s" r="B123">
-        <v>34</v>
-      </c>
-      <c t="s" r="H123">
+    <row r="123" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="H123" t="s">
         <v>232</v>
       </c>
-      <c t="s" r="I123">
+      <c r="I123" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="124">
-      <c t="s" s="13" r="A124">
+    <row r="124" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
         <v>234</v>
       </c>
-      <c t="s" r="B124">
-        <v>34</v>
-      </c>
-      <c t="s" r="C124">
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
         <v>235</v>
       </c>
-      <c t="s" r="H124">
+      <c r="H124" t="s">
         <v>236</v>
       </c>
-      <c t="s" r="I124">
+      <c r="I124" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="125">
-      <c s="13" r="A125"/>
-      <c t="s" r="B125">
-        <v>34</v>
-      </c>
-      <c t="s" r="C125">
+    <row r="125" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" t="s">
         <v>238</v>
       </c>
-      <c t="s" r="H125">
+      <c r="H125" t="s">
         <v>239</v>
       </c>
-      <c t="s" r="I125">
+      <c r="I125" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="126">
-      <c t="s" s="13" r="A126">
+    <row r="126" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
         <v>241</v>
       </c>
-      <c t="s" r="B126">
-        <v>34</v>
-      </c>
-      <c t="s" r="C126">
+      <c r="B126" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" t="s">
         <v>242</v>
       </c>
-      <c t="s" r="H126">
+      <c r="H126" t="s">
         <v>243</v>
       </c>
-      <c t="s" r="I126">
+      <c r="I126" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="127">
-      <c t="s" s="13" r="A127">
+    <row r="127" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
         <v>245</v>
       </c>
-      <c t="s" r="B127">
-        <v>34</v>
-      </c>
-      <c t="b" r="C127">
+      <c r="B127" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" t="b">
         <v>0</v>
       </c>
-      <c t="s" r="H127">
+      <c r="H127" t="s">
         <v>246</v>
       </c>
-      <c t="s" r="I127">
+      <c r="I127" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="128">
-      <c s="13" r="A128"/>
-      <c t="s" r="B128">
+    <row r="128" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="129">
-      <c s="13" r="A129"/>
-      <c t="s" r="B129">
+    <row r="129" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="B129" t="s">
         <v>248</v>
       </c>
-      <c t="s" r="C129">
+      <c r="C129" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="130">
-      <c s="13" r="A130"/>
-      <c t="s" s="9" r="B130">
+    <row r="130" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="B130" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="131">
-      <c s="13" r="A131"/>
-      <c t="s" r="B131">
+    <row r="131" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="132">
-      <c s="13" r="A132"/>
-      <c t="s" r="B132">
-        <v>34</v>
-      </c>
-      <c t="s" r="F132">
+    <row r="132" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
       </c>
-      <c t="s" r="G132">
+      <c r="G132" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="133">
-      <c s="13" r="A133"/>
-      <c t="s" r="B133">
-        <v>34</v>
-      </c>
-      <c t="s" r="F133">
+    <row r="133" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="B133" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
       </c>
-      <c t="s" r="G133">
+      <c r="G133" t="s">
         <v>254</v>
       </c>
-      <c t="s" r="H133">
+      <c r="H133" t="s">
         <v>255</v>
       </c>
-      <c t="s" r="I133">
+      <c r="I133" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="134">
-      <c s="13" r="A134"/>
-      <c t="s" r="B134">
+    <row r="134" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="135">
-      <c s="13" r="A135"/>
-      <c t="s" r="B135">
-        <v>34</v>
-      </c>
-      <c t="s" r="F135">
+    <row r="135" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
       </c>
-      <c t="s" r="G135">
+      <c r="G135" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="136">
-      <c s="13" r="A136"/>
-      <c t="s" r="B136">
+    <row r="136" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="137">
-      <c s="13" r="A137"/>
-      <c t="s" r="B137">
-        <v>34</v>
-      </c>
-      <c t="s" r="F137">
+    <row r="137" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" t="s">
+        <v>34</v>
+      </c>
+      <c r="F137" t="s">
         <v>210</v>
       </c>
-      <c t="s" r="G137">
+      <c r="G137" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="138">
-      <c t="s" s="13" r="A138">
+    <row r="138" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
         <v>259</v>
       </c>
-      <c t="s" r="B138">
-        <v>34</v>
-      </c>
-      <c t="s" r="F138">
+      <c r="B138" t="s">
+        <v>34</v>
+      </c>
+      <c r="F138" t="s">
         <v>260</v>
       </c>
-      <c t="s" r="G138">
+      <c r="G138" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="139">
-      <c s="13" r="A139"/>
-      <c t="s" r="B139">
-        <v>34</v>
-      </c>
-      <c t="s" r="F139">
+    <row r="139" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" t="s">
         <v>262</v>
       </c>
-      <c t="s" r="G139">
+      <c r="G139" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="140">
-      <c s="13" r="A140"/>
-      <c t="s" r="B140">
-        <v>34</v>
-      </c>
-      <c t="s" r="C140">
+    <row r="140" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" t="s">
         <v>264</v>
       </c>
-      <c t="s" r="H140">
+      <c r="H140" t="s">
         <v>265</v>
       </c>
-      <c t="s" r="I140">
+      <c r="I140" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="141">
-      <c s="13" r="A141"/>
-      <c t="s" r="B141">
-        <v>34</v>
-      </c>
-      <c t="s" r="C141">
+    <row r="141" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" t="s">
         <v>267</v>
       </c>
-      <c t="s" r="H141">
+      <c r="H141" t="s">
         <v>268</v>
       </c>
-      <c t="s" r="I141">
+      <c r="I141" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="142">
-      <c t="s" s="13" r="A142">
+    <row r="142" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
         <v>270</v>
       </c>
-      <c t="s" r="B142">
-        <v>34</v>
-      </c>
-      <c t="s" r="F142">
+      <c r="B142" t="s">
+        <v>34</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
       </c>
-      <c t="s" r="G142">
+      <c r="G142" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="143">
-      <c s="13" r="A143"/>
-      <c t="s" r="B143">
-        <v>34</v>
-      </c>
-      <c t="s" r="F143">
+    <row r="143" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" t="s">
+        <v>34</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
       </c>
-      <c t="s" r="G143">
+      <c r="G143" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="144">
-      <c s="13" r="A144"/>
-      <c t="s" r="B144">
-        <v>34</v>
-      </c>
-      <c t="s" r="H144">
+    <row r="144" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H144" t="s">
         <v>275</v>
       </c>
-      <c t="s" s="11" r="I144">
+      <c r="I144" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="145">
-      <c s="13" r="A145"/>
-      <c t="s" r="B145">
+    <row r="145" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="B145" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="146">
-      <c s="13" r="A146"/>
-      <c t="s" r="B146">
+    <row r="146" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="147">
-      <c t="s" s="13" r="A147">
+    <row r="147" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
         <v>277</v>
       </c>
-      <c t="s" r="B147">
-        <v>34</v>
-      </c>
-      <c t="s" r="F147">
+      <c r="B147" t="s">
+        <v>34</v>
+      </c>
+      <c r="F147" t="s">
         <v>278</v>
       </c>
-      <c t="s" r="G147">
+      <c r="G147" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="148">
-      <c s="13" r="A148"/>
-      <c t="s" r="B148">
-        <v>34</v>
-      </c>
-      <c t="s" r="F148">
+    <row r="148" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" t="s">
+        <v>34</v>
+      </c>
+      <c r="F148" t="s">
         <v>280</v>
       </c>
-      <c t="s" r="G148">
+      <c r="G148" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="149">
-      <c s="13" r="A149"/>
-      <c t="s" r="B149">
-        <v>34</v>
-      </c>
-      <c t="s" r="C149">
+    <row r="149" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" t="s">
         <v>264</v>
       </c>
-      <c t="s" r="F149">
+      <c r="F149" t="s">
         <v>282</v>
       </c>
-      <c t="s" r="G149">
+      <c r="G149" t="s">
         <v>283</v>
       </c>
-      <c t="s" r="H149">
+      <c r="H149" t="s">
         <v>284</v>
       </c>
-      <c t="s" r="I149">
+      <c r="I149" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="150">
-      <c s="13" r="A150"/>
-      <c t="s" r="B150">
-        <v>34</v>
-      </c>
-      <c t="s" r="C150">
+    <row r="150" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" t="s">
         <v>286</v>
       </c>
-      <c t="s" r="F150">
+      <c r="F150" t="s">
         <v>287</v>
       </c>
-      <c t="s" r="G150">
+      <c r="G150" t="s">
         <v>288</v>
       </c>
-      <c t="s" r="H150">
+      <c r="H150" t="s">
         <v>289</v>
       </c>
-      <c t="s" r="I150">
+      <c r="I150" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="151">
-      <c s="13" r="A151"/>
-      <c t="s" r="B151">
-        <v>34</v>
-      </c>
-      <c t="s" r="C151">
+    <row r="151" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" t="s">
         <v>291</v>
       </c>
-      <c t="s" r="F151">
+      <c r="F151" t="s">
         <v>292</v>
       </c>
-      <c t="s" r="G151">
+      <c r="G151" t="s">
         <v>293</v>
       </c>
-      <c t="s" r="H151">
+      <c r="H151" t="s">
         <v>294</v>
       </c>
-      <c t="s" r="I151">
+      <c r="I151" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="152">
-      <c s="13" r="A152"/>
-      <c t="s" r="B152">
+    <row r="152" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="153">
-      <c s="13" r="A153"/>
-      <c t="s" r="B153">
-        <v>34</v>
-      </c>
-      <c t="s" r="F153">
+    <row r="153" spans="1:9" ht="198" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" t="s">
+        <v>34</v>
+      </c>
+      <c r="F153" t="s">
         <v>296</v>
       </c>
-      <c t="s" s="11" r="G153">
+      <c r="G153" s="7" t="s">
         <v>297</v>
       </c>
-      <c t="s" r="H153">
+      <c r="H153" t="s">
         <v>298</v>
       </c>
-      <c t="s" s="11" r="I153">
+      <c r="I153" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="154">
-      <c s="13" r="A154"/>
-      <c t="s" r="B154">
-        <v>34</v>
-      </c>
-      <c t="s" r="F154">
+    <row r="154" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="8"/>
+      <c r="B154" t="s">
+        <v>34</v>
+      </c>
+      <c r="F154" t="s">
         <v>300</v>
       </c>
-      <c t="s" r="G154">
+      <c r="G154" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="155">
-      <c s="13" r="A155"/>
-      <c t="s" r="B155">
+    <row r="155" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="156">
-      <c s="13" r="A156"/>
-      <c t="s" r="B156">
-        <v>34</v>
-      </c>
-      <c t="s" r="F156">
+    <row r="156" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" t="s">
         <v>302</v>
       </c>
-      <c t="s" r="G156">
+      <c r="G156" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="157">
-      <c s="13" r="A157"/>
-      <c t="s" r="B157">
-        <v>34</v>
-      </c>
-      <c t="s" r="H157">
+    <row r="157" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157" t="s">
         <v>230</v>
       </c>
-      <c t="s" r="I157">
+      <c r="I157" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="158">
-      <c s="13" r="A158"/>
-      <c t="s" r="B158">
-        <v>34</v>
-      </c>
-      <c t="s" r="H158">
+    <row r="158" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A158" s="8"/>
+      <c r="B158" t="s">
+        <v>34</v>
+      </c>
+      <c r="H158" t="s">
         <v>232</v>
       </c>
-      <c t="s" r="I158">
+      <c r="I158" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="159">
-      <c t="s" s="13" r="A159">
+    <row r="159" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
         <v>306</v>
       </c>
-      <c t="s" r="B159">
-        <v>34</v>
-      </c>
-      <c t="s" r="C159">
+      <c r="B159" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" t="s">
         <v>307</v>
       </c>
-      <c t="s" r="H159">
+      <c r="H159" t="s">
         <v>246</v>
       </c>
-      <c t="s" r="I159">
+      <c r="I159" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="160">
-      <c t="s" s="13" r="A160">
+    <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
         <v>309</v>
       </c>
-      <c t="s" r="B160">
-        <v>34</v>
-      </c>
-      <c t="s" r="H160">
+      <c r="B160" t="s">
+        <v>34</v>
+      </c>
+      <c r="H160" t="s">
         <v>310</v>
       </c>
-      <c t="s" r="I160">
+      <c r="I160" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="161">
-      <c s="13" r="A161"/>
-      <c t="s" r="B161">
-        <v>34</v>
-      </c>
-      <c t="s" r="C161">
+    <row r="161" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" t="s">
         <v>242</v>
       </c>
-      <c t="s" r="H161">
+      <c r="H161" t="s">
         <v>243</v>
       </c>
-      <c t="s" r="I161">
+      <c r="I161" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="162">
-      <c s="13" r="A162"/>
-      <c t="s" r="B162">
+    <row r="162" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="163">
-      <c s="13" r="A163"/>
-      <c t="s" s="10" r="B163">
+    <row r="163" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="164">
-      <c t="s" s="13" r="A164">
+    <row r="164" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
         <v>314</v>
       </c>
-      <c t="s" r="B164">
+      <c r="B164" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="165">
-      <c s="13" r="A165"/>
-      <c t="s" s="9" r="B165">
+    <row r="165" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="B165" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="166">
-      <c t="s" s="13" r="A166">
+    <row r="166" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
         <v>317</v>
       </c>
-      <c t="s" r="B166">
+      <c r="B166" t="s">
         <v>33</v>
       </c>
-      <c t="b" r="C166">
+      <c r="C166" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="167">
-      <c s="13" r="A167"/>
-      <c t="s" r="B167">
-        <v>34</v>
-      </c>
-      <c t="s" r="F167">
+    <row r="167" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" t="s">
         <v>318</v>
       </c>
-      <c t="s" s="11" r="G167">
+      <c r="G167" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="168">
-      <c s="13" r="A168"/>
-      <c t="s" r="B168">
-        <v>34</v>
-      </c>
-      <c t="s" r="F168">
+    <row r="168" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+      <c r="B168" t="s">
+        <v>34</v>
+      </c>
+      <c r="F168" t="s">
         <v>320</v>
       </c>
-      <c t="s" s="11" r="G168">
+      <c r="G168" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="169">
-      <c s="13" r="A169"/>
-      <c t="s" r="B169">
+    <row r="169" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+      <c r="B169" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="170">
-      <c s="13" r="A170"/>
-      <c t="s" r="B170">
+    <row r="170" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A170" s="8"/>
+      <c r="B170" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="171">
-      <c s="13" r="A171"/>
-      <c t="s" r="B171">
+    <row r="171" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+      <c r="B171" t="s">
         <v>189</v>
       </c>
-      <c t="s" r="D171">
+      <c r="D171" t="s">
         <v>322</v>
       </c>
-      <c t="s" r="F171">
+      <c r="F171" t="s">
         <v>323</v>
       </c>
-      <c t="s" r="G171">
+      <c r="G171" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="172">
-      <c s="13" r="A172"/>
-      <c t="s" r="B172">
+    <row r="172" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A172" s="8"/>
+      <c r="B172" t="s">
         <v>325</v>
       </c>
-      <c t="s" r="C172">
+      <c r="C172" t="s">
         <v>326</v>
       </c>
-      <c t="s" r="D172">
+      <c r="D172" t="s">
         <v>327</v>
       </c>
-      <c t="s" r="F172">
+      <c r="F172" t="s">
         <v>328</v>
       </c>
-      <c t="s" s="11" r="G172">
+      <c r="G172" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="173">
-      <c s="13" r="A173"/>
-      <c t="s" r="B173">
+    <row r="173" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A173" s="8"/>
+      <c r="B173" t="s">
         <v>189</v>
       </c>
-      <c t="s" r="C173">
+      <c r="C173" t="s">
         <v>326</v>
       </c>
-      <c t="s" r="D173">
+      <c r="D173" t="s">
         <v>330</v>
       </c>
-      <c t="s" r="F173">
+      <c r="F173" t="s">
         <v>331</v>
       </c>
-      <c t="s" r="G173">
+      <c r="G173" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="174">
-      <c s="13" r="A174"/>
-      <c t="s" r="B174">
+    <row r="174" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A174" s="8"/>
+      <c r="B174" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="175">
-      <c s="13" r="A175"/>
-      <c t="s" r="B175">
+    <row r="175" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+      <c r="B175" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="176">
-      <c t="s" s="13" r="A176">
+    <row r="176" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
         <v>333</v>
       </c>
-      <c t="s" r="B176">
+      <c r="B176" t="s">
         <v>189</v>
       </c>
-      <c t="s" r="D176">
+      <c r="D176" t="s">
         <v>334</v>
       </c>
-      <c t="s" r="F176">
+      <c r="F176" t="s">
         <v>335</v>
       </c>
-      <c t="s" r="G176">
+      <c r="G176" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="177">
-      <c t="s" s="13" r="A177">
+    <row r="177" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
         <v>337</v>
       </c>
-      <c t="s" r="B177">
+      <c r="B177" t="s">
         <v>338</v>
       </c>
-      <c t="s" r="C177">
+      <c r="C177" t="s">
         <v>339</v>
       </c>
-      <c t="s" r="D177">
+      <c r="D177" t="s">
         <v>340</v>
       </c>
-      <c t="s" r="F177">
+      <c r="F177" t="s">
         <v>341</v>
       </c>
-      <c t="s" r="G177">
+      <c r="G177" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="178">
-      <c s="13" r="A178"/>
-      <c t="s" r="B178">
+    <row r="178" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A178" s="8"/>
+      <c r="B178" t="s">
         <v>325</v>
       </c>
-      <c t="s" r="C178">
+      <c r="C178" t="s">
         <v>339</v>
       </c>
-      <c t="s" r="D178">
+      <c r="D178" t="s">
         <v>343</v>
       </c>
-      <c t="s" r="F178">
+      <c r="F178" t="s">
         <v>328</v>
       </c>
-      <c t="s" s="11" r="G178">
+      <c r="G178" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="179">
-      <c s="13" r="A179"/>
-      <c t="s" r="B179">
+    <row r="179" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
+      <c r="B179" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="C179">
+      <c r="C179" t="s">
         <v>339</v>
       </c>
-      <c t="s" r="D179">
+      <c r="D179" t="s">
         <v>344</v>
       </c>
-      <c t="s" r="F179">
+      <c r="F179" t="s">
         <v>345</v>
       </c>
-      <c t="s" r="G179">
+      <c r="G179" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="180">
-      <c t="s" s="13" r="A180">
+    <row r="180" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
         <v>347</v>
       </c>
-      <c t="s" r="B180">
+      <c r="B180" t="s">
         <v>348</v>
       </c>
-      <c t="s" r="C180">
+      <c r="C180" t="s">
         <v>339</v>
       </c>
-      <c t="s" r="D180">
+      <c r="D180" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="181">
-      <c s="13" r="A181"/>
-      <c t="s" r="B181">
+    <row r="181" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A181" s="8"/>
+      <c r="B181" t="s">
         <v>189</v>
       </c>
-      <c t="s" r="C181">
+      <c r="C181" t="s">
         <v>339</v>
       </c>
-      <c t="s" r="D181">
+      <c r="D181" t="s">
         <v>350</v>
       </c>
-      <c t="s" r="F181">
+      <c r="F181" t="s">
         <v>351</v>
       </c>
-      <c t="s" r="G181">
+      <c r="G181" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="182">
-      <c t="s" s="13" r="A182">
+    <row r="182" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
         <v>353</v>
       </c>
-      <c t="s" r="B182">
+      <c r="B182" t="s">
         <v>354</v>
       </c>
-      <c t="s" r="C182">
+      <c r="C182" t="s">
         <v>339</v>
       </c>
-      <c t="s" r="D182">
+      <c r="D182" t="s">
         <v>355</v>
       </c>
-      <c t="s" r="F182">
+      <c r="F182" t="s">
         <v>356</v>
       </c>
-      <c t="s" r="G182">
+      <c r="G182" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="183">
-      <c s="13" r="A183"/>
-      <c t="s" r="B183">
+    <row r="183" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A183" s="8"/>
+      <c r="B183" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="184">
-      <c s="13" r="A184"/>
-      <c t="s" r="B184">
+    <row r="184" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+      <c r="B184" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="185">
-      <c s="13" r="A185"/>
-      <c t="s" r="B185">
+    <row r="185" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="B185" t="s">
         <v>189</v>
       </c>
-      <c t="s" r="D185">
+      <c r="D185" t="s">
         <v>358</v>
       </c>
-      <c t="s" r="F185">
+      <c r="F185" t="s">
         <v>359</v>
       </c>
-      <c t="s" r="G185">
+      <c r="G185" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="186">
-      <c t="s" s="13" r="A186">
+    <row r="186" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
         <v>353</v>
       </c>
-      <c t="s" r="B186">
+      <c r="B186" t="s">
         <v>354</v>
       </c>
-      <c t="s" r="C186">
+      <c r="C186" t="s">
         <v>361</v>
       </c>
-      <c t="s" r="D186">
+      <c r="D186" t="s">
         <v>362</v>
       </c>
-      <c t="s" r="F186">
+      <c r="F186" t="s">
         <v>363</v>
       </c>
-      <c t="s" r="G186">
+      <c r="G186" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="187">
-      <c s="13" r="A187"/>
-      <c t="s" r="B187">
+    <row r="187" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A187" s="8"/>
+      <c r="B187" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="188">
-      <c s="13" r="A188"/>
-      <c t="s" r="B188">
+    <row r="188" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A188" s="8"/>
+      <c r="B188" t="s">
         <v>365</v>
       </c>
-      <c t="s" r="C188">
+      <c r="C188" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="189">
-      <c s="13" r="A189"/>
-      <c t="s" r="B189">
+    <row r="189" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A189" s="8"/>
+      <c r="B189" t="s">
         <v>366</v>
       </c>
-      <c t="s" r="C189">
+      <c r="C189" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="190">
-      <c s="13" r="A190"/>
-      <c t="s" r="B190">
+    <row r="190" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A190" s="8"/>
+      <c r="B190" t="s">
         <v>368</v>
       </c>
-      <c t="s" r="C190">
+      <c r="C190" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="191">
-      <c s="13" r="A191"/>
-      <c t="s" r="B191">
+    <row r="191" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A191" s="8"/>
+      <c r="B191" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="192">
-      <c s="13" r="A192"/>
-      <c t="s" s="9" r="B192">
+    <row r="192" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A192" s="8"/>
+      <c r="B192" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="193">
-      <c s="13" r="A193"/>
-      <c t="s" r="B193">
+    <row r="193" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A193" s="8"/>
+      <c r="B193" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="194">
-      <c s="13" r="A194"/>
-      <c t="s" r="B194">
-        <v>34</v>
-      </c>
-      <c t="s" r="F194">
+    <row r="194" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A194" s="8"/>
+      <c r="B194" t="s">
+        <v>34</v>
+      </c>
+      <c r="F194" t="s">
         <v>372</v>
       </c>
-      <c t="s" r="G194">
+      <c r="G194" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="195">
-      <c s="13" r="A195"/>
-      <c t="s" r="B195">
-        <v>34</v>
-      </c>
-      <c t="s" r="C195">
+    <row r="195" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A195" s="8"/>
+      <c r="B195" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" t="s">
         <v>374</v>
       </c>
-      <c t="s" r="F195">
+      <c r="F195" t="s">
         <v>375</v>
       </c>
-      <c t="s" r="G195">
+      <c r="G195" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="196">
-      <c s="13" r="A196"/>
-      <c t="s" r="B196">
-        <v>34</v>
-      </c>
-      <c t="s" r="C196">
+    <row r="196" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A196" s="8"/>
+      <c r="B196" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" t="s">
         <v>377</v>
       </c>
-      <c t="s" r="F196">
+      <c r="F196" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="G196">
+      <c r="G196" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="197">
-      <c s="13" r="A197"/>
-      <c t="s" r="B197">
-        <v>34</v>
-      </c>
-      <c t="s" r="C197">
+    <row r="197" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A197" s="8"/>
+      <c r="B197" t="s">
+        <v>34</v>
+      </c>
+      <c r="C197" t="s">
         <v>380</v>
       </c>
-      <c t="s" r="F197">
+      <c r="F197" t="s">
         <v>381</v>
       </c>
-      <c t="s" r="G197">
+      <c r="G197" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="198">
-      <c s="13" r="A198"/>
-      <c t="s" r="B198">
+    <row r="198" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A198" s="8"/>
+      <c r="B198" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="199">
-      <c s="13" r="A199"/>
-      <c t="s" r="B199">
+    <row r="199" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A199" s="8"/>
+      <c r="B199" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="200">
-      <c s="13" r="A200"/>
-      <c t="s" r="B200">
-        <v>34</v>
-      </c>
-      <c t="s" r="F200">
+    <row r="200" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A200" s="8"/>
+      <c r="B200" t="s">
+        <v>34</v>
+      </c>
+      <c r="F200" t="s">
         <v>383</v>
       </c>
-      <c t="s" r="G200">
+      <c r="G200" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="201">
-      <c s="13" r="A201"/>
-      <c t="s" r="B201">
-        <v>34</v>
-      </c>
-      <c t="s" r="F201">
+    <row r="201" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A201" s="8"/>
+      <c r="B201" t="s">
+        <v>34</v>
+      </c>
+      <c r="F201" t="s">
         <v>385</v>
       </c>
-      <c t="s" s="11" r="G201">
+      <c r="G201" s="7" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="202">
-      <c s="13" r="A202"/>
-      <c t="s" r="B202">
-        <v>34</v>
-      </c>
-      <c t="s" r="C202">
+    <row r="202" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A202" s="8"/>
+      <c r="B202" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" t="s">
         <v>387</v>
       </c>
-      <c t="s" r="F202">
+      <c r="F202" t="s">
         <v>388</v>
       </c>
-      <c t="s" r="G202">
+      <c r="G202" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="203">
-      <c s="13" r="A203"/>
-      <c t="s" r="B203">
-        <v>34</v>
-      </c>
-      <c t="s" r="C203">
+    <row r="203" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A203" s="8"/>
+      <c r="B203" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203" t="s">
         <v>389</v>
       </c>
-      <c t="s" r="F203">
+      <c r="F203" t="s">
         <v>390</v>
       </c>
-      <c t="s" r="G203">
+      <c r="G203" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="204">
-      <c s="13" r="A204"/>
-      <c t="s" r="B204">
+    <row r="204" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A204" s="8"/>
+      <c r="B204" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="205">
-      <c s="13" r="A205"/>
-      <c t="s" r="B205">
-        <v>34</v>
-      </c>
-      <c t="s" r="F205">
+    <row r="205" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A205" s="8"/>
+      <c r="B205" t="s">
+        <v>34</v>
+      </c>
+      <c r="F205" t="s">
         <v>391</v>
       </c>
-      <c t="s" r="G205">
+      <c r="G205" t="s">
         <v>392</v>
       </c>
-      <c t="s" r="H205">
+      <c r="H205" t="s">
         <v>393</v>
       </c>
-      <c t="s" r="I205">
+      <c r="I205" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="206">
-      <c s="13" r="A206"/>
-      <c t="s" r="B206">
+    <row r="206" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A206" s="8"/>
+      <c r="B206" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="207">
-      <c s="13" r="A207"/>
-      <c t="s" s="9" r="B207">
+    <row r="207" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A207" s="8"/>
+      <c r="B207" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="208">
-      <c t="s" s="13" r="A208">
+    <row r="208" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
         <v>396</v>
       </c>
-      <c t="s" r="B208">
+      <c r="B208" t="s">
         <v>33</v>
       </c>
-      <c t="b" r="C208">
+      <c r="C208" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="209">
-      <c s="13" r="A209"/>
-      <c t="s" r="B209">
-        <v>34</v>
-      </c>
-      <c t="s" r="F209">
+    <row r="209" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A209" s="8"/>
+      <c r="B209" t="s">
+        <v>34</v>
+      </c>
+      <c r="F209" t="s">
         <v>372</v>
       </c>
-      <c t="s" r="G209">
+      <c r="G209" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="210">
-      <c s="13" r="A210"/>
-      <c t="s" r="B210">
+    <row r="210" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A210" s="8"/>
+      <c r="B210" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="211">
-      <c t="s" s="13" r="A211">
+    <row r="211" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
         <v>396</v>
       </c>
-      <c t="s" r="B211">
+      <c r="B211" t="s">
         <v>33</v>
       </c>
-      <c t="b" r="C211">
+      <c r="C211" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="212">
-      <c s="13" r="A212"/>
-      <c t="s" r="B212">
-        <v>34</v>
-      </c>
-      <c t="s" r="F212">
+    <row r="212" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A212" s="8"/>
+      <c r="B212" t="s">
+        <v>34</v>
+      </c>
+      <c r="F212" t="s">
         <v>383</v>
       </c>
-      <c t="s" r="G212">
+      <c r="G212" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="213">
-      <c s="13" r="A213"/>
-      <c t="s" r="B213">
+    <row r="213" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A213" s="8"/>
+      <c r="B213" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="214">
-      <c s="13" r="A214"/>
-      <c t="s" r="B214">
+    <row r="214" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A214" s="8"/>
+      <c r="B214" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="215">
-      <c s="13" r="A215"/>
-      <c t="s" r="B215">
-        <v>34</v>
-      </c>
-      <c t="s" r="F215">
+    <row r="215" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A215" s="8"/>
+      <c r="B215" t="s">
+        <v>34</v>
+      </c>
+      <c r="F215" t="s">
         <v>397</v>
       </c>
-      <c t="s" r="G215">
+      <c r="G215" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="216">
-      <c s="13" r="A216"/>
-      <c t="s" r="B216">
-        <v>34</v>
-      </c>
-      <c t="s" r="F216">
+    <row r="216" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A216" s="8"/>
+      <c r="B216" t="s">
+        <v>34</v>
+      </c>
+      <c r="F216" t="s">
         <v>399</v>
       </c>
-      <c t="s" r="G216">
+      <c r="G216" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="217">
-      <c s="13" r="A217"/>
-      <c t="s" r="B217">
-        <v>34</v>
-      </c>
-      <c t="s" r="F217">
+    <row r="217" spans="1:9" ht="132" x14ac:dyDescent="0.25">
+      <c r="A217" s="8"/>
+      <c r="B217" t="s">
+        <v>34</v>
+      </c>
+      <c r="F217" t="s">
         <v>401</v>
       </c>
-      <c t="s" s="11" r="G217">
+      <c r="G217" s="7" t="s">
         <v>402</v>
       </c>
-      <c t="s" r="H217">
+      <c r="H217" t="s">
         <v>403</v>
       </c>
-      <c t="s" s="11" r="I217">
+      <c r="I217" s="7" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="218">
-      <c s="13" r="A218"/>
-      <c t="s" r="B218">
-        <v>34</v>
-      </c>
-      <c t="s" r="F218">
+    <row r="218" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A218" s="8"/>
+      <c r="B218" t="s">
+        <v>34</v>
+      </c>
+      <c r="F218" t="s">
         <v>405</v>
       </c>
-      <c t="s" r="G218">
+      <c r="G218" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="219">
-      <c s="13" r="A219"/>
-      <c t="s" r="B219">
-        <v>34</v>
-      </c>
-      <c t="s" r="F219">
+    <row r="219" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A219" s="8"/>
+      <c r="B219" t="s">
+        <v>34</v>
+      </c>
+      <c r="F219" t="s">
         <v>407</v>
       </c>
-      <c t="s" r="G219">
+      <c r="G219" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="220">
-      <c s="13" r="A220"/>
-      <c t="s" r="B220">
-        <v>34</v>
-      </c>
-      <c t="s" r="F220">
+    <row r="220" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A220" s="8"/>
+      <c r="B220" t="s">
+        <v>34</v>
+      </c>
+      <c r="F220" t="s">
         <v>409</v>
       </c>
-      <c t="s" r="G220">
+      <c r="G220" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="221">
-      <c s="13" r="A221"/>
-      <c t="s" r="B221">
-        <v>34</v>
-      </c>
-      <c t="s" r="F221">
+    <row r="221" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A221" s="8"/>
+      <c r="B221" t="s">
+        <v>34</v>
+      </c>
+      <c r="F221" t="s">
         <v>411</v>
       </c>
-      <c t="s" r="G221">
+      <c r="G221" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="222">
-      <c s="13" r="A222"/>
-      <c t="s" r="B222">
+    <row r="222" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A222" s="8"/>
+      <c r="B222" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="223">
-      <c s="13" r="A223"/>
-      <c t="s" r="B223">
-        <v>34</v>
-      </c>
-      <c t="s" r="F223">
+    <row r="223" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A223" s="8"/>
+      <c r="B223" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223" t="s">
         <v>391</v>
       </c>
-      <c t="s" r="G223">
+      <c r="G223" t="s">
         <v>392</v>
       </c>
-      <c t="s" r="H223">
+      <c r="H223" t="s">
         <v>413</v>
       </c>
-      <c t="s" r="I223">
+      <c r="I223" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="224">
-      <c s="13" r="A224"/>
-      <c t="s" r="B224">
+    <row r="224" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A224" s="8"/>
+      <c r="B224" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="225">
-      <c s="13" r="A225"/>
-      <c t="s" s="9" r="B225">
+    <row r="225" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A225" s="8"/>
+      <c r="B225" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="226">
-      <c t="s" s="13" r="A226">
+    <row r="226" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A226" s="8" t="s">
         <v>396</v>
       </c>
-      <c t="s" r="B226">
+      <c r="B226" t="s">
         <v>33</v>
       </c>
-      <c t="b" r="C226">
+      <c r="C226" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="227">
-      <c s="13" r="A227"/>
-      <c t="s" r="F227">
+    <row r="227" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A227" s="8"/>
+      <c r="F227" t="s">
         <v>372</v>
       </c>
-      <c t="s" r="G227">
+      <c r="G227" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="228">
-      <c s="13" r="A228"/>
-      <c t="s" r="B228">
+    <row r="228" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A228" s="8"/>
+      <c r="B228" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="229">
-      <c t="s" s="13" r="A229">
+    <row r="229" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
         <v>396</v>
       </c>
-      <c t="s" r="B229">
+      <c r="B229" t="s">
         <v>33</v>
       </c>
-      <c t="b" r="C229">
+      <c r="C229" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="230">
-      <c s="13" r="A230"/>
-      <c t="s" r="F230">
+    <row r="230" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A230" s="8"/>
+      <c r="F230" t="s">
         <v>383</v>
       </c>
-      <c t="s" r="G230">
+      <c r="G230" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="231">
-      <c s="13" r="A231"/>
-      <c t="s" r="B231">
+    <row r="231" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A231" s="8"/>
+      <c r="B231" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="232">
-      <c s="13" r="A232"/>
-      <c t="s" r="B232">
+    <row r="232" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A232" s="8"/>
+      <c r="B232" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="233">
-      <c s="13" r="A233"/>
-      <c t="s" r="B233">
-        <v>34</v>
-      </c>
-      <c t="s" r="F233">
+    <row r="233" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A233" s="8"/>
+      <c r="B233" t="s">
+        <v>34</v>
+      </c>
+      <c r="F233" t="s">
         <v>397</v>
       </c>
-      <c t="s" r="G233">
+      <c r="G233" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="234">
-      <c s="13" r="A234"/>
-      <c t="s" r="B234">
-        <v>34</v>
-      </c>
-      <c t="s" r="F234">
+    <row r="234" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A234" s="8"/>
+      <c r="B234" t="s">
+        <v>34</v>
+      </c>
+      <c r="F234" t="s">
         <v>399</v>
       </c>
-      <c t="s" r="G234">
+      <c r="G234" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="235">
-      <c s="13" r="A235"/>
-      <c t="s" r="B235">
-        <v>34</v>
-      </c>
-      <c t="s" r="F235">
+    <row r="235" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A235" s="8"/>
+      <c r="B235" t="s">
+        <v>34</v>
+      </c>
+      <c r="F235" t="s">
         <v>418</v>
       </c>
-      <c t="s" r="G235">
+      <c r="G235" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="236">
-      <c s="13" r="A236"/>
-      <c t="s" r="B236">
-        <v>34</v>
-      </c>
-      <c t="s" r="F236">
+    <row r="236" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A236" s="8"/>
+      <c r="B236" t="s">
+        <v>34</v>
+      </c>
+      <c r="F236" t="s">
         <v>420</v>
       </c>
-      <c t="s" r="G236">
+      <c r="G236" t="s">
         <v>421</v>
       </c>
-      <c t="s" r="H236">
+      <c r="H236" t="s">
         <v>422</v>
       </c>
-      <c t="s" r="I236">
+      <c r="I236" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="237">
-      <c s="13" r="A237"/>
-      <c t="s" r="B237">
-        <v>34</v>
-      </c>
-      <c t="s" r="F237">
+    <row r="237" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A237" s="8"/>
+      <c r="B237" t="s">
+        <v>34</v>
+      </c>
+      <c r="F237" t="s">
         <v>407</v>
       </c>
-      <c t="s" r="G237">
+      <c r="G237" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="238">
-      <c s="13" r="A238"/>
-      <c t="s" r="B238">
-        <v>34</v>
-      </c>
-      <c t="s" r="F238">
+    <row r="238" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A238" s="8"/>
+      <c r="B238" t="s">
+        <v>34</v>
+      </c>
+      <c r="F238" t="s">
         <v>405</v>
       </c>
-      <c t="s" r="G238">
+      <c r="G238" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="239">
-      <c s="13" r="A239"/>
-      <c t="s" r="B239">
-        <v>34</v>
-      </c>
-      <c t="s" r="F239">
+    <row r="239" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A239" s="8"/>
+      <c r="B239" t="s">
+        <v>34</v>
+      </c>
+      <c r="F239" t="s">
         <v>409</v>
       </c>
-      <c t="s" r="G239">
+      <c r="G239" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="240">
-      <c s="13" r="A240"/>
-      <c t="s" r="B240">
-        <v>34</v>
-      </c>
-      <c t="s" r="F240">
+    <row r="240" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A240" s="8"/>
+      <c r="B240" t="s">
+        <v>34</v>
+      </c>
+      <c r="F240" t="s">
         <v>424</v>
       </c>
-      <c t="s" r="G240">
+      <c r="G240" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="241">
-      <c s="13" r="A241"/>
-      <c t="s" r="B241">
-        <v>34</v>
-      </c>
-      <c t="s" r="F241">
+    <row r="241" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A241" s="8"/>
+      <c r="B241" t="s">
+        <v>34</v>
+      </c>
+      <c r="F241" t="s">
         <v>391</v>
       </c>
-      <c t="s" r="G241">
+      <c r="G241" t="s">
         <v>392</v>
       </c>
-      <c t="s" r="H241">
+      <c r="H241" t="s">
         <v>425</v>
       </c>
-      <c t="s" r="I241">
+      <c r="I241" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="242">
-      <c s="13" r="A242"/>
-      <c t="s" r="B242">
+    <row r="242" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A242" s="8"/>
+      <c r="B242" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="243">
-      <c s="13" r="A243"/>
-      <c t="s" r="B243">
+    <row r="243" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A243" s="8"/>
+      <c r="B243" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="244">
-      <c s="13" r="A244"/>
-      <c t="s" s="9" r="B244">
+    <row r="244" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A244" s="8"/>
+      <c r="B244" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="245">
-      <c s="13" r="A245"/>
-      <c t="s" r="B245">
+    <row r="245" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A245" s="8"/>
+      <c r="B245" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="C245">
+      <c r="C245" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="246">
-      <c s="13" r="A246"/>
-      <c t="s" r="B246">
-        <v>34</v>
-      </c>
-      <c t="s" r="F246">
+    <row r="246" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A246" s="8"/>
+      <c r="B246" t="s">
+        <v>34</v>
+      </c>
+      <c r="F246" t="s">
         <v>372</v>
       </c>
-      <c t="s" r="G246">
+      <c r="G246" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="247">
-      <c s="13" r="A247"/>
-      <c t="s" r="B247">
-        <v>34</v>
-      </c>
-      <c t="s" r="F247">
+    <row r="247" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A247" s="8"/>
+      <c r="B247" t="s">
+        <v>34</v>
+      </c>
+      <c r="F247" t="s">
         <v>428</v>
       </c>
-      <c t="s" s="11" r="G247">
+      <c r="G247" s="7" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="248">
-      <c s="13" r="A248"/>
-      <c t="s" r="B248">
+    <row r="248" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A248" s="8"/>
+      <c r="B248" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="249">
-      <c s="13" r="A249"/>
-      <c t="s" r="B249">
+    <row r="249" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A249" s="8"/>
+      <c r="B249" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="C249">
+      <c r="C249" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="250">
-      <c s="13" r="A250"/>
-      <c t="s" r="B250">
-        <v>34</v>
-      </c>
-      <c t="s" r="F250">
+    <row r="250" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A250" s="8"/>
+      <c r="B250" t="s">
+        <v>34</v>
+      </c>
+      <c r="F250" t="s">
         <v>383</v>
       </c>
-      <c t="s" r="G250">
+      <c r="G250" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="251">
-      <c s="13" r="A251"/>
-      <c t="s" r="B251">
-        <v>34</v>
-      </c>
-      <c t="s" r="F251">
+    <row r="251" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A251" s="8"/>
+      <c r="B251" t="s">
+        <v>34</v>
+      </c>
+      <c r="F251" t="s">
         <v>385</v>
       </c>
-      <c t="s" s="11" r="G251">
+      <c r="G251" s="7" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="252">
-      <c s="13" r="A252"/>
-      <c t="s" r="B252">
-        <v>34</v>
-      </c>
-      <c t="s" r="F252">
+    <row r="252" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A252" s="8"/>
+      <c r="B252" t="s">
+        <v>34</v>
+      </c>
+      <c r="F252" t="s">
         <v>431</v>
       </c>
-      <c t="s" s="11" r="G252">
+      <c r="G252" s="7" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="253">
-      <c s="13" r="A253"/>
-      <c t="s" r="B253">
+    <row r="253" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A253" s="8"/>
+      <c r="B253" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="254">
-      <c s="13" r="A254"/>
-      <c t="s" r="B254">
+    <row r="254" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A254" s="8"/>
+      <c r="B254" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="255">
-      <c s="13" r="A255"/>
-      <c t="s" r="B255">
-        <v>34</v>
-      </c>
-      <c t="s" r="F255">
+    <row r="255" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A255" s="8"/>
+      <c r="B255" t="s">
+        <v>34</v>
+      </c>
+      <c r="F255" t="s">
         <v>397</v>
       </c>
-      <c t="s" r="G255">
+      <c r="G255" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="256">
-      <c s="13" r="A256"/>
-      <c t="s" r="B256">
-        <v>34</v>
-      </c>
-      <c t="s" r="F256">
+    <row r="256" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A256" s="8"/>
+      <c r="B256" t="s">
+        <v>34</v>
+      </c>
+      <c r="F256" t="s">
         <v>432</v>
       </c>
-      <c t="s" r="G256">
+      <c r="G256" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="257">
-      <c s="13" r="A257"/>
-      <c t="s" r="B257">
-        <v>34</v>
-      </c>
-      <c t="s" r="F257">
+    <row r="257" spans="1:23" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A257" s="8"/>
+      <c r="B257" t="s">
+        <v>34</v>
+      </c>
+      <c r="F257" t="s">
         <v>391</v>
       </c>
-      <c t="s" r="G257">
+      <c r="G257" t="s">
         <v>392</v>
       </c>
-      <c t="s" r="H257">
+      <c r="H257" t="s">
         <v>434</v>
       </c>
-      <c t="s" r="I257">
+      <c r="I257" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="258">
-      <c s="13" r="A258"/>
-      <c t="s" r="B258">
+    <row r="258" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A258" s="8"/>
+      <c r="B258" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="259">
-      <c s="13" r="A259"/>
-      <c t="s" s="10" r="B259">
+    <row r="259" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A259" s="8"/>
+      <c r="B259" s="6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="260">
-      <c t="s" s="2" r="A260">
+    <row r="260" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>436</v>
       </c>
-      <c s="2" r="B260"/>
-      <c s="2" r="C260"/>
-      <c s="2" r="D260"/>
-      <c s="2" r="E260"/>
-      <c s="2" r="F260"/>
-      <c s="2" r="G260"/>
-      <c s="2" r="H260"/>
-      <c s="2" r="I260"/>
-      <c s="2" r="J260"/>
-      <c s="2" r="K260"/>
-      <c s="2" r="L260"/>
-      <c s="2" r="M260"/>
-      <c s="2" r="N260"/>
-      <c s="2" r="O260"/>
-      <c s="2" r="P260"/>
-      <c s="2" r="Q260"/>
-      <c s="2" r="R260"/>
-      <c s="2" r="S260"/>
-      <c s="2" r="T260"/>
-      <c s="2" r="U260"/>
-      <c s="2" r="V260"/>
-      <c s="2" r="W260"/>
-    </row>
-    <row r="261">
-      <c s="13" r="A261"/>
-      <c t="s" s="9" r="B261">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+      <c r="U260" s="1"/>
+      <c r="V260" s="1"/>
+      <c r="W260" s="1"/>
+    </row>
+    <row r="261" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A261" s="8"/>
+      <c r="B261" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="262">
-      <c s="13" r="A262"/>
-      <c t="s" r="B262">
+    <row r="262" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A262" s="8"/>
+      <c r="B262" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="263">
-      <c s="13" r="A263"/>
-      <c t="s" r="B263">
-        <v>34</v>
-      </c>
-      <c t="s" r="D263">
+    <row r="263" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A263" s="8"/>
+      <c r="B263" t="s">
+        <v>34</v>
+      </c>
+      <c r="D263" t="s">
         <v>438</v>
       </c>
-      <c t="s" r="F263">
+      <c r="F263" t="s">
         <v>439</v>
       </c>
-      <c t="s" r="G263">
+      <c r="G263" t="s">
         <v>440</v>
       </c>
-      <c t="s" r="H263">
+      <c r="H263" t="s">
         <v>441</v>
       </c>
-      <c t="s" r="I263">
+      <c r="I263" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="264">
-      <c s="13" r="A264"/>
-      <c t="s" r="B264">
-        <v>34</v>
-      </c>
-      <c t="s" r="F264">
+    <row r="264" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A264" s="8"/>
+      <c r="B264" t="s">
+        <v>34</v>
+      </c>
+      <c r="F264" t="s">
         <v>443</v>
       </c>
-      <c t="s" r="G264">
+      <c r="G264" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="265">
-      <c s="13" r="A265"/>
-      <c t="s" r="B265">
-        <v>34</v>
-      </c>
-      <c t="s" r="C265">
+    <row r="265" spans="1:23" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A265" s="8"/>
+      <c r="B265" t="s">
+        <v>34</v>
+      </c>
+      <c r="C265" t="s">
         <v>445</v>
       </c>
-      <c t="s" r="H265">
+      <c r="H265" t="s">
         <v>446</v>
       </c>
-      <c t="s" r="I265">
+      <c r="I265" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="266">
-      <c t="s" s="13" r="A266">
+    <row r="266" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A266" s="8" t="s">
         <v>448</v>
       </c>
-      <c t="s" r="B266">
-        <v>34</v>
-      </c>
-      <c t="s" r="C266">
+      <c r="B266" t="s">
+        <v>34</v>
+      </c>
+      <c r="C266" t="s">
         <v>449</v>
       </c>
-      <c t="s" r="H266">
+      <c r="H266" t="s">
         <v>450</v>
       </c>
-      <c t="s" r="I266">
+      <c r="I266" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="267">
-      <c s="13" r="A267"/>
-      <c t="s" r="B267">
-        <v>34</v>
-      </c>
-      <c t="s" r="C267">
+    <row r="267" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A267" s="8"/>
+      <c r="B267" t="s">
+        <v>34</v>
+      </c>
+      <c r="C267" t="s">
         <v>452</v>
       </c>
-      <c t="s" r="H267">
+      <c r="H267" t="s">
         <v>453</v>
       </c>
-      <c t="s" r="I267">
+      <c r="I267" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="268">
-      <c s="13" r="A268"/>
-      <c t="s" r="B268">
+    <row r="268" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A268" s="8"/>
+      <c r="B268" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="269">
-      <c t="s" s="13" r="A269">
+    <row r="269" spans="1:23" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A269" s="8" t="s">
         <v>455</v>
       </c>
-      <c t="s" s="9" r="B269">
+      <c r="B269" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="270">
-      <c s="13" r="A270"/>
-      <c t="s" r="B270">
-        <v>34</v>
-      </c>
-      <c t="s" r="C270">
+    <row r="270" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A270" s="8"/>
+      <c r="B270" t="s">
+        <v>34</v>
+      </c>
+      <c r="C270" t="s">
         <v>457</v>
       </c>
-      <c t="s" r="F270">
+      <c r="F270" t="s">
         <v>458</v>
       </c>
-      <c t="s" r="G270">
+      <c r="G270" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="271">
-      <c s="13" r="A271"/>
-      <c t="s" r="B271">
+    <row r="271" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A271" s="8"/>
+      <c r="B271" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="C271">
+      <c r="C271" t="s">
         <v>461</v>
       </c>
-      <c t="s" r="D271">
+      <c r="D271" t="s">
         <v>462</v>
       </c>
-      <c t="s" r="F271">
+      <c r="F271" t="s">
         <v>463</v>
       </c>
-      <c t="s" r="G271">
+      <c r="G271" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="272">
-      <c s="13" r="A272"/>
-      <c t="s" r="B272">
+    <row r="272" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A272" s="8"/>
+      <c r="B272" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="C272">
+      <c r="C272" t="s">
         <v>465</v>
       </c>
-      <c t="s" r="D272">
+      <c r="D272" t="s">
         <v>466</v>
       </c>
-      <c t="s" r="F272">
+      <c r="F272" t="s">
         <v>467</v>
       </c>
-      <c t="s" r="G272">
+      <c r="G272" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="273">
-      <c s="13" r="A273"/>
-      <c t="s" s="9" r="B273">
+    <row r="273" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A273" s="8"/>
+      <c r="B273" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="274">
-      <c s="13" r="A274"/>
-      <c t="s" r="B274">
+    <row r="274" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A274" s="8"/>
+      <c r="B274" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="275">
-      <c s="13" r="A275"/>
-      <c t="s" r="B275">
+    <row r="275" spans="1:9" ht="132" x14ac:dyDescent="0.25">
+      <c r="A275" s="8"/>
+      <c r="B275" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="D275">
+      <c r="D275" t="s">
         <v>470</v>
       </c>
-      <c t="s" r="F275">
+      <c r="F275" t="s">
         <v>471</v>
       </c>
-      <c t="s" r="G275">
+      <c r="G275" t="s">
         <v>472</v>
       </c>
-      <c t="s" r="H275">
+      <c r="H275" t="s">
         <v>473</v>
       </c>
-      <c t="s" r="I275">
+      <c r="I275" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="276">
-      <c s="13" r="A276"/>
-      <c t="s" r="B276">
-        <v>34</v>
-      </c>
-      <c t="s" r="F276">
+    <row r="276" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A276" s="8"/>
+      <c r="B276" t="s">
+        <v>34</v>
+      </c>
+      <c r="F276" t="s">
         <v>443</v>
       </c>
-      <c t="s" r="G276">
+      <c r="G276" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="277">
-      <c s="13" r="A277"/>
-      <c t="s" r="B277">
-        <v>34</v>
-      </c>
-      <c t="s" r="C277">
+    <row r="277" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A277" s="8"/>
+      <c r="B277" t="s">
+        <v>34</v>
+      </c>
+      <c r="C277" t="s">
         <v>475</v>
       </c>
-      <c t="s" r="H277">
+      <c r="H277" t="s">
         <v>476</v>
       </c>
-      <c t="s" r="I277">
+      <c r="I277" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="278">
-      <c s="13" r="A278"/>
-      <c t="s" r="B278">
-        <v>34</v>
-      </c>
-      <c t="s" r="C278">
+    <row r="278" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A278" s="8"/>
+      <c r="B278" t="s">
+        <v>34</v>
+      </c>
+      <c r="C278" t="s">
         <v>478</v>
       </c>
-      <c t="s" r="H278">
+      <c r="H278" t="s">
         <v>479</v>
       </c>
-      <c t="s" r="I278">
+      <c r="I278" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="279">
-      <c s="13" r="A279"/>
-      <c t="s" r="B279">
-        <v>34</v>
-      </c>
-      <c t="s" r="C279">
+    <row r="279" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A279" s="8"/>
+      <c r="B279" t="s">
+        <v>34</v>
+      </c>
+      <c r="C279" t="s">
         <v>481</v>
       </c>
-      <c t="s" r="H279">
+      <c r="H279" t="s">
         <v>482</v>
       </c>
-      <c t="s" r="I279">
+      <c r="I279" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="280">
-      <c s="13" r="A280"/>
-      <c t="s" r="B280">
+    <row r="280" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A280" s="8"/>
+      <c r="B280" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="281">
-      <c s="13" r="A281"/>
-    </row>
-    <row r="282">
-      <c t="s" s="13" r="A282">
+    <row r="281" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A281" s="8"/>
+    </row>
+    <row r="282" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A282" s="8" t="s">
         <v>484</v>
       </c>
-      <c t="s" s="9" r="B282">
+      <c r="B282" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="283">
-      <c s="13" r="A283"/>
-      <c t="s" r="B283">
+    <row r="283" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A283" s="8"/>
+      <c r="B283" t="s">
         <v>486</v>
       </c>
-      <c t="s" r="C283">
+      <c r="C283" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="284">
-      <c s="13" r="A284"/>
-      <c t="s" r="B284">
+    <row r="284" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A284" s="8"/>
+      <c r="B284" t="s">
         <v>488</v>
       </c>
-      <c t="s" r="C284">
+      <c r="C284" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="285">
-      <c s="13" r="A285"/>
-      <c t="s" r="B285">
+    <row r="285" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A285" s="8"/>
+      <c r="B285" t="s">
         <v>490</v>
       </c>
-      <c t="s" r="C285">
+      <c r="C285" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="286">
-      <c s="13" r="A286"/>
-      <c t="s" r="B286">
+    <row r="286" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A286" s="8"/>
+      <c r="B286" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="287">
-      <c s="13" r="A287"/>
-    </row>
-    <row r="288">
-      <c s="13" r="A288"/>
-      <c t="s" s="9" r="B288">
+    <row r="287" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A287" s="8"/>
+    </row>
+    <row r="288" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A288" s="8"/>
+      <c r="B288" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="289">
-      <c s="13" r="A289"/>
-      <c t="s" r="B289">
+    <row r="289" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A289" s="8"/>
+      <c r="B289" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="290">
-      <c s="13" r="A290"/>
-      <c t="s" r="B290">
-        <v>34</v>
-      </c>
-      <c t="s" r="F290">
+    <row r="290" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A290" s="8"/>
+      <c r="B290" t="s">
+        <v>34</v>
+      </c>
+      <c r="F290" t="s">
         <v>494</v>
       </c>
-      <c t="s" r="G290">
+      <c r="G290" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="291">
-      <c s="13" r="A291"/>
-      <c t="s" r="B291">
+    <row r="291" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A291" s="8"/>
+      <c r="B291" t="s">
         <v>189</v>
       </c>
-      <c t="s" r="D291">
+      <c r="D291" t="s">
         <v>496</v>
       </c>
-      <c t="s" r="F291">
+      <c r="F291" t="s">
         <v>497</v>
       </c>
-      <c t="s" r="G291">
+      <c r="G291" t="s">
         <v>498</v>
       </c>
-      <c t="b" r="K291">
+      <c r="K291" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="292">
-      <c s="13" r="A292"/>
-      <c t="s" r="B292">
+    <row r="292" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A292" s="8"/>
+      <c r="B292" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="C292">
+      <c r="C292" t="s">
         <v>499</v>
       </c>
-      <c t="s" r="D292">
+      <c r="D292" t="s">
         <v>500</v>
       </c>
-      <c t="s" r="F292">
+      <c r="F292" t="s">
         <v>501</v>
       </c>
-      <c t="s" r="G292">
+      <c r="G292" t="s">
         <v>502</v>
       </c>
-      <c t="b" r="K292">
+      <c r="K292" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="293">
-      <c t="s" s="13" r="A293">
+    <row r="293" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A293" s="8" t="s">
         <v>503</v>
       </c>
-      <c t="s" r="B293">
+      <c r="B293" t="s">
         <v>504</v>
       </c>
-      <c t="s" r="D293">
+      <c r="D293" t="s">
         <v>505</v>
       </c>
-      <c t="s" r="F293">
+      <c r="F293" t="s">
         <v>506</v>
       </c>
-      <c t="s" r="G293">
+      <c r="G293" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="294">
-      <c s="13" r="A294"/>
-      <c t="s" r="B294">
+    <row r="294" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A294" s="8"/>
+      <c r="B294" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="C294">
+      <c r="C294" t="s">
         <v>508</v>
       </c>
-      <c t="s" r="D294">
+      <c r="D294" t="s">
         <v>509</v>
       </c>
-      <c t="s" r="F294">
+      <c r="F294" t="s">
         <v>510</v>
       </c>
-      <c t="s" r="G294">
+      <c r="G294" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="295">
-      <c t="s" s="13" r="A295">
+    <row r="295" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A295" s="8" t="s">
         <v>512</v>
       </c>
-      <c t="s" r="B295">
-        <v>34</v>
-      </c>
-      <c t="s" r="C295">
+      <c r="B295" t="s">
+        <v>34</v>
+      </c>
+      <c r="C295" t="s">
         <v>513</v>
       </c>
-      <c t="s" r="F295">
+      <c r="F295" t="s">
         <v>514</v>
       </c>
-      <c t="s" r="G295">
+      <c r="G295" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="296">
-      <c s="13" r="A296"/>
-      <c t="s" r="B296">
+    <row r="296" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A296" s="8"/>
+      <c r="B296" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="297">
-      <c s="13" r="A297"/>
-      <c t="s" r="B297">
+    <row r="297" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A297" s="8"/>
+      <c r="B297" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="298">
-      <c s="13" r="A298"/>
-      <c t="s" s="9" r="B298">
+    <row r="298" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A298" s="8"/>
+      <c r="B298" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="299">
-      <c s="13" r="A299"/>
-      <c t="s" r="B299">
+    <row r="299" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A299" s="8"/>
+      <c r="B299" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="300">
-      <c s="13" r="A300"/>
-      <c t="s" r="B300">
-        <v>34</v>
-      </c>
-      <c t="s" r="F300">
+    <row r="300" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A300" s="8"/>
+      <c r="B300" t="s">
+        <v>34</v>
+      </c>
+      <c r="F300" t="s">
         <v>494</v>
       </c>
-      <c t="s" r="G300">
+      <c r="G300" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="301">
-      <c s="13" r="A301"/>
-      <c t="s" r="B301">
+    <row r="301" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A301" s="8"/>
+      <c r="B301" t="s">
         <v>504</v>
       </c>
-      <c t="s" r="D301">
+      <c r="D301" t="s">
         <v>505</v>
       </c>
-      <c t="s" r="F301">
+      <c r="F301" t="s">
         <v>506</v>
       </c>
-      <c t="s" r="G301">
+      <c r="G301" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="302">
-      <c s="13" r="A302"/>
-      <c t="s" r="B302">
+    <row r="302" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A302" s="8"/>
+      <c r="B302" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="C302">
+      <c r="C302" t="s">
         <v>508</v>
       </c>
-      <c t="s" r="D302">
+      <c r="D302" t="s">
         <v>509</v>
       </c>
-      <c t="s" r="F302">
+      <c r="F302" t="s">
         <v>518</v>
       </c>
-      <c t="s" r="G302">
+      <c r="G302" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="303">
-      <c s="13" r="A303"/>
-      <c t="s" r="B303">
+    <row r="303" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A303" s="8"/>
+      <c r="B303" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="C303">
+      <c r="C303" t="s">
         <v>513</v>
       </c>
-      <c t="s" r="D303">
+      <c r="D303" t="s">
         <v>509</v>
       </c>
-      <c t="s" r="F303">
+      <c r="F303" t="s">
         <v>520</v>
       </c>
-      <c t="s" r="G303">
+      <c r="G303" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="304">
-      <c s="13" r="A304"/>
-      <c t="s" r="B304">
+    <row r="304" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A304" s="8"/>
+      <c r="B304" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="305">
-      <c s="13" r="A305"/>
-      <c t="s" r="B305">
+    <row r="305" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A305" s="8"/>
+      <c r="B305" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="306">
-      <c s="13" r="A306"/>
-      <c t="s" s="9" r="B306">
+    <row r="306" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A306" s="8"/>
+      <c r="B306" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="307">
-      <c s="13" r="A307"/>
-      <c t="s" r="B307">
+    <row r="307" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A307" s="8"/>
+      <c r="B307" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="308">
-      <c s="13" r="A308"/>
-      <c t="s" r="B308">
-        <v>34</v>
-      </c>
-      <c t="s" r="F308">
+    <row r="308" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A308" s="8"/>
+      <c r="B308" t="s">
+        <v>34</v>
+      </c>
+      <c r="F308" t="s">
         <v>494</v>
       </c>
-      <c t="s" r="G308">
+      <c r="G308" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="309">
-      <c s="13" r="A309"/>
-      <c t="s" r="B309">
+    <row r="309" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A309" s="8"/>
+      <c r="B309" t="s">
         <v>504</v>
       </c>
-      <c t="s" r="D309">
+      <c r="D309" t="s">
         <v>505</v>
       </c>
-      <c t="s" r="F309">
+      <c r="F309" t="s">
         <v>506</v>
       </c>
-      <c t="s" r="G309">
+      <c r="G309" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="310">
-      <c s="13" r="A310"/>
-      <c t="s" r="B310">
+    <row r="310" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A310" s="8"/>
+      <c r="B310" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="C310">
+      <c r="C310" t="s">
         <v>508</v>
       </c>
-      <c t="s" r="D310">
+      <c r="D310" t="s">
         <v>509</v>
       </c>
-      <c t="s" r="F310">
+      <c r="F310" t="s">
         <v>523</v>
       </c>
-      <c t="s" r="G310">
+      <c r="G310" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="311">
-      <c s="13" r="A311"/>
-      <c t="s" r="B311">
+    <row r="311" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A311" s="8"/>
+      <c r="B311" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="C311">
+      <c r="C311" t="s">
         <v>513</v>
       </c>
-      <c t="s" r="D311">
+      <c r="D311" t="s">
         <v>509</v>
       </c>
-      <c t="s" r="F311">
+      <c r="F311" t="s">
         <v>525</v>
       </c>
-      <c t="s" r="G311">
+      <c r="G311" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="312">
-      <c s="13" r="A312"/>
-      <c t="s" r="B312">
+    <row r="312" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A312" s="8"/>
+      <c r="B312" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="313">
-      <c s="13" r="A313"/>
-      <c t="s" r="B313">
+    <row r="313" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A313" s="8"/>
+      <c r="B313" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="314">
-      <c s="13" r="A314"/>
-      <c t="s" s="9" r="B314">
+    <row r="314" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A314" s="8"/>
+      <c r="B314" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="315">
-      <c s="13" r="A315"/>
-      <c t="s" r="B315">
+    <row r="315" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A315" s="8"/>
+      <c r="B315" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="316">
-      <c s="13" r="A316"/>
-      <c t="s" r="B316">
-        <v>34</v>
-      </c>
-      <c t="s" r="F316">
+    <row r="316" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A316" s="8"/>
+      <c r="B316" t="s">
+        <v>34</v>
+      </c>
+      <c r="F316" t="s">
         <v>494</v>
       </c>
-      <c t="s" r="G316">
+      <c r="G316" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="317">
-      <c s="13" r="A317"/>
-      <c t="s" r="B317">
+    <row r="317" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A317" s="8"/>
+      <c r="B317" t="s">
         <v>504</v>
       </c>
-      <c t="s" r="D317">
+      <c r="D317" t="s">
         <v>505</v>
       </c>
-      <c t="s" r="F317">
+      <c r="F317" t="s">
         <v>506</v>
       </c>
-      <c t="s" r="G317">
+      <c r="G317" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="318">
-      <c s="13" r="A318"/>
-      <c t="s" r="B318">
+    <row r="318" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A318" s="8"/>
+      <c r="B318" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="C318">
+      <c r="C318" t="s">
         <v>508</v>
       </c>
-      <c t="s" r="D318">
+      <c r="D318" t="s">
         <v>509</v>
       </c>
-      <c t="s" r="F318">
+      <c r="F318" t="s">
         <v>528</v>
       </c>
-      <c t="s" r="G318">
+      <c r="G318" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="319">
-      <c s="13" r="A319"/>
-      <c t="s" r="B319">
+    <row r="319" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A319" s="8"/>
+      <c r="B319" t="s">
         <v>460</v>
       </c>
-      <c t="s" r="C319">
+      <c r="C319" t="s">
         <v>513</v>
       </c>
-      <c t="s" r="D319">
+      <c r="D319" t="s">
         <v>509</v>
       </c>
-      <c t="s" r="F319">
+      <c r="F319" t="s">
         <v>530</v>
       </c>
-      <c t="s" r="G319">
+      <c r="G319" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="320">
-      <c s="13" r="A320"/>
-      <c t="s" r="B320">
+    <row r="320" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A320" s="8"/>
+      <c r="B320" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="321">
-      <c s="13" r="A321"/>
-      <c t="s" s="10" r="B321">
+    <row r="321" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A321" s="8"/>
+      <c r="B321" s="6" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="322">
-      <c s="13" r="A322"/>
+    <row r="322" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A322" s="8"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="22.0"/>
-    <col max="2" min="2" customWidth="1" width="56.29"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>534</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>536</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>538</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>540</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>542</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>543</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c t="s" s="3" r="A1">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>544</v>
       </c>
-      <c t="s" s="3" r="B1">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="3" r="C1">
+      <c r="C1" s="2" t="s">
         <v>545</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" s="3" r="A2">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>547</v>
       </c>
-      <c t="s" s="3" r="B2">
+      <c r="B2" s="2" t="s">
         <v>548</v>
       </c>
-      <c t="s" s="3" r="C2">
+      <c r="C2" s="2" t="s">
         <v>549</v>
       </c>
-      <c t="s" r="D2">
+      <c r="D2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" s="3" r="A3">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>547</v>
       </c>
-      <c t="s" s="3" r="B3">
+      <c r="B3" s="2" t="s">
         <v>551</v>
       </c>
-      <c t="s" s="3" r="C3">
+      <c r="C3" s="2" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="D3">
+      <c r="D3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="4">
-      <c s="3" r="A4"/>
-      <c s="3" r="B4"/>
-      <c s="3" r="C4"/>
-    </row>
-    <row r="5">
-      <c t="s" s="3" r="A5">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>554</v>
       </c>
-      <c t="s" s="3" r="B5">
+      <c r="B5" s="2" t="s">
         <v>554</v>
       </c>
-      <c t="s" s="3" r="C5">
+      <c r="C5" s="2" t="s">
         <v>555</v>
       </c>
-      <c t="s" r="D5">
+      <c r="D5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" s="3" r="A6">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>554</v>
       </c>
-      <c t="s" s="3" r="B6">
+      <c r="B6" s="2" t="s">
         <v>557</v>
       </c>
-      <c t="s" s="3" r="C6">
+      <c r="C6" s="2" t="s">
         <v>558</v>
       </c>
-      <c t="s" r="D6">
+      <c r="D6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="7">
-      <c s="3" r="A7"/>
-      <c s="3" r="B7"/>
-      <c s="3" r="C7"/>
-    </row>
-    <row r="8">
-      <c t="s" s="3" r="A8">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>560</v>
       </c>
-      <c t="s" s="3" r="B8">
+      <c r="B8" s="2" t="s">
         <v>560</v>
       </c>
-      <c t="s" s="3" r="C8">
+      <c r="C8" s="2" t="s">
         <v>561</v>
       </c>
-      <c t="s" r="D8">
+      <c r="D8" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="9">
-      <c t="s" s="3" r="A9">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>560</v>
       </c>
-      <c t="s" s="3" r="B9">
+      <c r="B9" s="2" t="s">
         <v>563</v>
       </c>
-      <c t="s" s="3" r="C9">
+      <c r="C9" s="2" t="s">
         <v>564</v>
       </c>
-      <c t="s" r="D9">
+      <c r="D9" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="10">
-      <c s="3" r="A10"/>
-      <c s="3" r="B10"/>
-      <c s="3" r="C10"/>
-    </row>
-    <row r="11">
-      <c t="s" s="3" r="A11">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>566</v>
       </c>
-      <c t="s" s="3" r="B11">
+      <c r="B11" s="2" t="s">
         <v>567</v>
       </c>
-      <c t="s" s="3" r="C11">
+      <c r="C11" s="2" t="s">
         <v>568</v>
       </c>
-      <c t="s" r="D11">
+      <c r="D11" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="12">
-      <c t="s" s="3" r="A12">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>566</v>
       </c>
-      <c t="s" s="3" r="B12">
+      <c r="B12" s="2" t="s">
         <v>570</v>
       </c>
-      <c t="s" s="3" r="C12">
+      <c r="C12" s="2" t="s">
         <v>571</v>
       </c>
-      <c t="s" r="D12">
+      <c r="D12" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="13">
-      <c s="3" r="B13"/>
-      <c s="3" r="C13"/>
-    </row>
-    <row r="14">
-      <c s="3" r="A14"/>
-      <c s="3" r="B14"/>
-      <c s="3" r="C14"/>
-    </row>
-    <row r="15">
-      <c t="s" s="3" r="A15">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>573</v>
       </c>
-      <c t="s" s="3" r="B15">
+      <c r="B15" s="2" t="s">
         <v>574</v>
       </c>
-      <c t="s" r="C15">
+      <c r="C15" t="s">
         <v>575</v>
       </c>
-      <c t="s" r="D15">
+      <c r="D15" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="16">
-      <c t="s" s="3" r="A16">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>573</v>
       </c>
-      <c t="s" s="3" r="B16">
+      <c r="B16" s="2" t="s">
         <v>577</v>
       </c>
-      <c t="s" r="C16">
+      <c r="C16" t="s">
         <v>578</v>
       </c>
-      <c t="s" r="D16">
+      <c r="D16" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="17">
-      <c t="s" s="3" r="A17">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>573</v>
       </c>
-      <c t="s" r="B17">
+      <c r="B17" t="s">
         <v>580</v>
       </c>
-      <c t="s" r="C17">
+      <c r="C17" t="s">
         <v>581</v>
       </c>
-      <c t="s" r="D17">
+      <c r="D17" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="20">
-      <c t="s" r="A20">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>583</v>
       </c>
-      <c t="s" r="B20">
+      <c r="B20" t="s">
         <v>584</v>
       </c>
-      <c t="s" r="C20">
+      <c r="C20" t="s">
         <v>585</v>
       </c>
-      <c t="s" r="D20">
+      <c r="D20" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="21">
-      <c t="s" r="A21">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>583</v>
       </c>
-      <c t="s" r="B21">
+      <c r="B21" t="s">
         <v>587</v>
       </c>
-      <c t="s" r="C21">
+      <c r="C21" t="s">
         <v>588</v>
       </c>
-      <c t="s" r="D21">
+      <c r="D21" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="22">
-      <c t="s" r="A22">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>583</v>
       </c>
-      <c t="s" r="B22">
+      <c r="B22" t="s">
         <v>590</v>
       </c>
-      <c t="s" r="C22">
+      <c r="C22" t="s">
         <v>591</v>
       </c>
-      <c t="s" r="D22">
+      <c r="D22" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="24">
-      <c s="3" r="A24"/>
-      <c s="3" r="B24"/>
-      <c s="3" r="C24"/>
-    </row>
-    <row r="25">
-      <c t="s" s="3" r="A25">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>593</v>
       </c>
-      <c t="s" s="3" r="B25">
+      <c r="B25" s="2" t="s">
         <v>584</v>
       </c>
-      <c t="s" s="3" r="C25">
+      <c r="C25" s="2" t="s">
         <v>594</v>
       </c>
-      <c t="s" r="D25">
+      <c r="D25" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="26">
-      <c t="s" s="3" r="A26">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>593</v>
       </c>
-      <c t="s" r="B26">
+      <c r="B26" t="s">
         <v>596</v>
       </c>
-      <c t="s" r="C26">
+      <c r="C26" t="s">
         <v>597</v>
       </c>
-      <c t="s" r="D26">
+      <c r="D26" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="27">
-      <c t="s" s="3" r="A27">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>593</v>
       </c>
-      <c t="s" r="B27">
+      <c r="B27" t="s">
         <v>599</v>
       </c>
-      <c t="s" r="C27">
+      <c r="C27" t="s">
         <v>600</v>
       </c>
-      <c t="s" r="D27">
+      <c r="D27" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="30">
-      <c t="s" r="A30">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>602</v>
       </c>
-      <c t="s" r="B30">
+      <c r="B30" t="s">
         <v>603</v>
       </c>
-      <c t="s" s="4" r="C30">
+      <c r="C30" s="3" t="s">
         <v>604</v>
       </c>
-      <c t="s" r="D30">
+      <c r="D30" t="s">
         <v>605</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c t="s" r="A31">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>602</v>
       </c>
-      <c t="s" r="B31">
+      <c r="B31" t="s">
         <v>606</v>
       </c>
-      <c t="s" s="4" r="C31">
+      <c r="C31" s="3" t="s">
         <v>607</v>
       </c>
-      <c t="s" r="D31">
+      <c r="D31" t="s">
         <v>608</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c t="s" r="A32">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>602</v>
       </c>
-      <c t="s" r="B32">
+      <c r="B32" t="s">
         <v>609</v>
       </c>
-      <c t="s" s="4" r="C32">
+      <c r="C32" s="3" t="s">
         <v>610</v>
       </c>
-      <c t="s" r="D32">
+      <c r="D32" t="s">
         <v>611</v>
       </c>
       <c r="E32">
         <v>1.5</v>
       </c>
     </row>
-    <row r="33">
-      <c t="s" r="A33">
+    <row r="33" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>602</v>
       </c>
-      <c t="s" r="B33">
+      <c r="B33" t="s">
         <v>612</v>
       </c>
-      <c t="s" s="4" r="C33">
+      <c r="C33" s="3" t="s">
         <v>613</v>
       </c>
-      <c t="s" r="D33">
+      <c r="D33" t="s">
         <v>614</v>
       </c>
       <c r="E33">
         <v>1.5</v>
       </c>
     </row>
-    <row r="35">
-      <c t="s" r="A35">
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="B35">
+      <c r="B35" t="s">
         <v>616</v>
       </c>
-      <c t="s" r="C35">
+      <c r="C35" t="s">
         <v>617</v>
       </c>
-      <c t="s" r="D35">
+      <c r="D35" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="36">
-      <c t="s" r="A36">
+    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="B36">
+      <c r="B36" t="s">
         <v>619</v>
       </c>
-      <c t="s" r="C36">
+      <c r="C36" t="s">
         <v>620</v>
       </c>
-      <c t="s" r="D36">
+      <c r="D36" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="37">
-      <c t="s" r="A37">
+    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="B37">
+      <c r="B37" t="s">
         <v>622</v>
       </c>
-      <c t="s" r="C37">
+      <c r="C37" t="s">
         <v>623</v>
       </c>
-      <c t="s" r="D37">
+      <c r="D37" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="38">
-      <c t="s" r="A38">
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>615</v>
       </c>
-      <c t="s" s="3" r="B38">
+      <c r="B38" s="2" t="s">
         <v>625</v>
       </c>
-      <c t="s" s="3" r="C38">
+      <c r="C38" s="2" t="s">
         <v>626</v>
       </c>
-      <c t="s" r="D38">
+      <c r="D38" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="39">
-      <c t="s" r="A39">
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="B39">
+      <c r="B39" t="s">
         <v>628</v>
       </c>
-      <c t="s" s="3" r="C39">
+      <c r="C39" s="2" t="s">
         <v>629</v>
       </c>
-      <c t="s" r="D39">
+      <c r="D39" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="40">
-      <c t="s" r="A40">
+    <row r="40" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="B40">
+      <c r="B40" t="s">
         <v>631</v>
       </c>
-      <c t="s" r="C40">
+      <c r="C40" t="s">
         <v>632</v>
       </c>
-      <c t="s" r="D40">
+      <c r="D40" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="41">
-      <c t="s" r="A41">
+    <row r="41" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="B41">
+      <c r="B41" t="s">
         <v>634</v>
       </c>
-      <c t="s" r="C41">
+      <c r="C41" t="s">
         <v>635</v>
       </c>
-      <c t="s" r="D41">
+      <c r="D41" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="42">
-      <c t="s" r="A42">
+    <row r="42" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="B42">
+      <c r="B42" t="s">
         <v>637</v>
       </c>
-      <c t="s" r="C42">
+      <c r="C42" t="s">
         <v>638</v>
       </c>
-      <c t="s" r="D42">
+      <c r="D42" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="43">
-      <c t="s" r="A43">
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="B43">
+      <c r="B43" t="s">
         <v>640</v>
       </c>
-      <c t="s" r="C43">
+      <c r="C43" t="s">
         <v>641</v>
       </c>
-      <c t="s" r="D43">
+      <c r="D43" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="44">
-      <c t="s" r="A44">
+    <row r="44" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="B44">
+      <c r="B44" t="s">
         <v>643</v>
       </c>
-      <c t="s" r="C44">
+      <c r="C44" t="s">
         <v>644</v>
       </c>
-      <c t="s" r="D44">
+      <c r="D44" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="45">
-      <c t="s" r="A45">
+    <row r="45" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>615</v>
       </c>
-      <c t="s" r="B45">
+      <c r="B45" t="s">
         <v>646</v>
       </c>
-      <c t="s" r="C45">
+      <c r="C45" t="s">
         <v>647</v>
       </c>
-      <c t="s" r="D45">
+      <c r="D45" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="48">
-      <c t="s" r="A48">
+    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>649</v>
       </c>
-      <c t="s" r="B48">
+      <c r="B48" t="s">
         <v>650</v>
       </c>
-      <c t="s" r="C48">
+      <c r="C48" t="s">
         <v>651</v>
       </c>
-      <c t="s" r="D48">
+      <c r="D48" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="49">
-      <c t="s" r="A49">
+    <row r="49" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>649</v>
       </c>
-      <c t="s" r="B49">
+      <c r="B49" t="s">
         <v>653</v>
       </c>
-      <c t="s" r="C49">
+      <c r="C49" t="s">
         <v>654</v>
       </c>
-      <c t="s" r="D49">
+      <c r="D49" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="50">
-      <c t="s" r="A50">
+    <row r="50" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>649</v>
       </c>
-      <c t="s" r="B50">
+      <c r="B50" t="s">
         <v>656</v>
       </c>
-      <c t="s" r="C50">
+      <c r="C50" t="s">
         <v>657</v>
       </c>
-      <c t="s" r="D50">
+      <c r="D50" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="51">
-      <c t="s" r="A51">
+    <row r="51" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>649</v>
       </c>
-      <c t="s" r="B51">
+      <c r="B51" t="s">
         <v>659</v>
       </c>
-      <c t="s" r="C51">
+      <c r="C51" t="s">
         <v>660</v>
       </c>
-      <c t="s" r="D51">
+      <c r="D51" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="54">
-      <c t="s" r="A54">
+    <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>662</v>
       </c>
-      <c t="s" r="B54">
+      <c r="B54" t="s">
         <v>663</v>
       </c>
-      <c t="s" r="C54">
+      <c r="C54" t="s">
         <v>664</v>
       </c>
-      <c t="s" r="D54">
+      <c r="D54" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="55">
-      <c t="s" r="A55">
+    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>662</v>
       </c>
-      <c t="s" r="B55">
+      <c r="B55" t="s">
         <v>666</v>
       </c>
-      <c t="s" r="C55">
+      <c r="C55" t="s">
         <v>667</v>
       </c>
-      <c t="s" r="D55">
+      <c r="D55" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="58">
-      <c t="s" r="A58">
+    <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>669</v>
       </c>
-      <c t="s" r="B58">
+      <c r="B58" t="s">
         <v>670</v>
       </c>
-      <c t="s" r="C58">
+      <c r="C58" t="s">
         <v>671</v>
       </c>
-      <c t="s" r="D58">
+      <c r="D58" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="59">
-      <c t="s" r="A59">
+    <row r="59" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>669</v>
       </c>
-      <c t="s" r="B59">
+      <c r="B59" t="s">
         <v>673</v>
       </c>
-      <c t="s" r="C59">
+      <c r="C59" t="s">
         <v>674</v>
       </c>
-      <c t="s" r="D59">
+      <c r="D59" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="60">
-      <c t="s" r="A60">
+    <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>669</v>
       </c>
-      <c t="s" r="B60">
+      <c r="B60" t="s">
         <v>675</v>
       </c>
-      <c t="s" r="C60">
+      <c r="C60" t="s">
         <v>676</v>
       </c>
-      <c t="s" r="D60">
+      <c r="D60" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="61">
-      <c t="s" r="A61">
+    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>669</v>
       </c>
-      <c t="s" r="B61">
+      <c r="B61" t="s">
         <v>678</v>
       </c>
-      <c t="s" r="C61">
+      <c r="C61" t="s">
         <v>679</v>
       </c>
-      <c t="s" r="D61">
+      <c r="D61" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="63">
-      <c t="s" r="A63">
+    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>681</v>
       </c>
-      <c t="s" r="B63">
+      <c r="B63" t="s">
         <v>584</v>
       </c>
-      <c t="s" r="C63">
+      <c r="C63" t="s">
         <v>584</v>
       </c>
-      <c t="s" r="D63">
+      <c r="D63" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="64">
-      <c t="s" r="A64">
+    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>681</v>
       </c>
-      <c t="s" r="B64">
+      <c r="B64" t="s">
         <v>683</v>
       </c>
-      <c t="s" r="C64">
+      <c r="C64" t="s">
         <v>683</v>
       </c>
-      <c t="s" r="D64">
+      <c r="D64" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="65">
-      <c t="s" r="A65">
+    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>681</v>
       </c>
-      <c t="s" r="B65">
+      <c r="B65" t="s">
         <v>685</v>
       </c>
-      <c t="s" r="C65">
+      <c r="C65" t="s">
         <v>685</v>
       </c>
-      <c t="s" r="D65">
+      <c r="D65" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="67">
-      <c t="s" r="A67">
+    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>687</v>
       </c>
-      <c t="s" r="B67">
+      <c r="B67" t="s">
         <v>688</v>
       </c>
-      <c t="s" r="C67">
+      <c r="C67" t="s">
         <v>689</v>
       </c>
-      <c t="s" r="D67">
+      <c r="D67" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="68">
-      <c t="s" r="A68">
+    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>691</v>
       </c>
-      <c t="s" r="B68">
+      <c r="B68" t="s">
         <v>692</v>
       </c>
-      <c t="s" r="C68">
+      <c r="C68" t="s">
         <v>693</v>
       </c>
-      <c t="s" r="D68">
+      <c r="D68" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="70">
-      <c t="s" r="A70">
+    <row r="70" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>505</v>
       </c>
-      <c t="s" r="B70">
+      <c r="B70" t="s">
         <v>695</v>
       </c>
-      <c t="s" r="C70">
+      <c r="C70" t="s">
         <v>696</v>
       </c>
-      <c t="s" r="D70">
+      <c r="D70" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="71">
-      <c t="s" r="A71">
+    <row r="71" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>505</v>
       </c>
-      <c t="s" r="B71">
+      <c r="B71" t="s">
         <v>698</v>
       </c>
-      <c t="s" r="C71">
+      <c r="C71" t="s">
         <v>699</v>
       </c>
-      <c t="s" r="D71">
+      <c r="D71" t="s">
         <v>700</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c t="s" s="3" r="A1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>701</v>
       </c>
-      <c t="s" s="3" r="B1">
+      <c r="B1" s="2" t="s">
         <v>702</v>
       </c>
-      <c t="s" s="3" r="C1">
+      <c r="C1" s="2" t="s">
         <v>703</v>
       </c>
-      <c s="3" r="D1"/>
-    </row>
-    <row r="2">
-      <c t="s" s="3" r="A2">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>704</v>
       </c>
-      <c t="s" s="3" r="B2">
+      <c r="B2" s="2" t="s">
         <v>705</v>
       </c>
-      <c s="3" r="C2"/>
-      <c s="3" r="D2"/>
-    </row>
-    <row r="3">
-      <c t="s" s="3" r="A3">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>706</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c s="3" r="C3"/>
-    </row>
-    <row r="4">
-      <c t="s" r="A4">
+        <v>20130408</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>707</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>708</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="6">
-      <c s="3" r="A6"/>
-      <c s="3" r="B6"/>
-      <c s="3" r="C6"/>
-      <c s="3" r="D6"/>
-    </row>
-    <row r="7">
-      <c s="3" r="A7"/>
-      <c s="3" r="B7"/>
-      <c s="3" r="C7"/>
-      <c s="3" r="D7"/>
-    </row>
-    <row r="8">
-      <c s="3" r="A8"/>
-      <c s="3" r="C8"/>
-    </row>
-    <row r="9">
-      <c s="3" r="A9"/>
-      <c s="3" r="C9"/>
-    </row>
-    <row r="12">
-      <c s="3" r="A12"/>
-      <c s="3" r="B12"/>
-      <c s="3" r="C12"/>
-      <c s="3" r="D12"/>
-    </row>
-    <row r="13">
-      <c s="3" r="A13"/>
-      <c s="3" r="B13"/>
-      <c s="3" r="C13"/>
-      <c s="3" r="D13"/>
-    </row>
-    <row r="14">
-      <c s="3" r="A14"/>
-      <c s="3" r="C14"/>
-    </row>
-    <row r="15">
-      <c s="3" r="A15"/>
-      <c s="3" r="C15"/>
-    </row>
-    <row r="18">
-      <c s="3" r="A18"/>
-      <c s="3" r="B18"/>
-      <c s="3" r="C18"/>
-      <c s="3" r="D18"/>
-    </row>
-    <row r="19">
-      <c s="3" r="A19"/>
-      <c s="3" r="B19"/>
-      <c s="3" r="C19"/>
-      <c s="3" r="D19"/>
-    </row>
-    <row r="20">
-      <c s="3" r="A20"/>
-      <c s="3" r="C20"/>
-    </row>
-    <row r="21">
-      <c s="3" r="A21"/>
-      <c s="3" r="C21"/>
-    </row>
-    <row r="24">
-      <c s="3" r="A24"/>
-      <c s="3" r="B24"/>
-      <c s="3" r="C24"/>
-      <c s="3" r="D24"/>
-    </row>
-    <row r="25">
-      <c s="3" r="A25"/>
-      <c s="3" r="B25"/>
-      <c s="3" r="C25"/>
-      <c s="3" r="D25"/>
-    </row>
-    <row r="26">
-      <c s="3" r="A26"/>
-      <c s="3" r="C26"/>
-    </row>
-    <row r="27">
-      <c s="3" r="A27"/>
-      <c s="3" r="C27"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>